--- a/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall)_mer_an_6_deltagar.xlsx
+++ b/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall)_mer_an_6_deltagar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\Protokoll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319AEA49-A49F-4D0B-96AA-C0B5852A82F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B1C33C-F87C-4B15-A097-CAE2DEA4DE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="2085" windowWidth="16200" windowHeight="9398" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="domare" localSheetId="2">'Lag grund A'!$C$33</definedName>
     <definedName name="domare" localSheetId="3">'Lag grund B'!$C$32</definedName>
     <definedName name="domare" localSheetId="4">'Lag grund D'!$C$33</definedName>
-    <definedName name="domare" localSheetId="8">'Lag kür art'!$C$29</definedName>
+    <definedName name="domare" localSheetId="8">'Lag kür art'!$C$28</definedName>
     <definedName name="domare" localSheetId="6">'Lag kür tekn junior'!$C$45</definedName>
     <definedName name="domare" localSheetId="5">'Lag kür tekn mellan'!$C$45</definedName>
     <definedName name="domare" localSheetId="7">'Lag kür tekn sr'!$C$45</definedName>
@@ -84,7 +84,7 @@
     <definedName name="result" localSheetId="2">'Lag grund A'!$O$29</definedName>
     <definedName name="result" localSheetId="3">'Lag grund B'!$O$29</definedName>
     <definedName name="result" localSheetId="4">'Lag grund D'!$O$29</definedName>
-    <definedName name="result" localSheetId="8">'Lag kür art'!$L$26</definedName>
+    <definedName name="result" localSheetId="8">'Lag kür art'!$L$25</definedName>
     <definedName name="result" localSheetId="6">'Lag kür tekn junior'!$L$37</definedName>
     <definedName name="result" localSheetId="5">'Lag kür tekn mellan'!$L$37</definedName>
     <definedName name="result" localSheetId="7">'Lag kür tekn sr'!$L$38</definedName>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="161">
   <si>
     <t>1)</t>
   </si>
@@ -135,16 +135,8 @@
 25%</t>
   </si>
   <si>
-    <t>C3
-20%</t>
-  </si>
-  <si>
     <t>C4
 20%</t>
-  </si>
-  <si>
-    <t>C5
-10%</t>
   </si>
   <si>
     <t>A1
@@ -418,30 +410,6 @@
   </si>
   <si>
     <t>Artistisk poäng</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kreatitivitet &amp; originalitet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Använder unika övergångar, övningar, positioner, kombinationer och sekvenser av övningar.
-• Höjdpunkter
-• Individualitet</t>
-    </r>
   </si>
   <si>
     <t>Linförare:</t>
@@ -643,32 +611,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sammanhållning av sammansättning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Mjuka övergångar och rörelser som visar samband och flyt.
-• Undvikande av tom häst 
-• Övningar som inte överbelastar hästen
-• Urval av övningar och övergångar i harmoni med hästen.
-</t>
-    </r>
-  </si>
-  <si>
     <t>Grund</t>
   </si>
   <si>
@@ -749,6 +691,37 @@
   </si>
   <si>
     <t xml:space="preserve">/ antalet voltigörer  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sammanhållning av sammansättning och komplexitet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+• Val av element och sekvenser i harmoni med hästen.
+• Mjuka övergångar och rörelser som visar på sammanhållning och flyt.
+• Hög komplexitet av element, övergångar, positioner och kombinationer av övningar.
+• Förmåga att kontrollera och länka samman röresler och positioner i instabil jämvikt. Rörelsefrihet. 
+• Undviker tom häst
+• Övningar som inte överbelastar hästen</t>
+    </r>
+  </si>
+  <si>
+    <t>C3
+30%</t>
   </si>
 </sst>
 </file>
@@ -936,7 +909,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1339,19 +1312,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1403,19 +1363,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1637,7 +1584,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1760,10 +1707,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1784,16 +1731,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1898,31 +1845,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1978,7 +1922,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1987,7 +1931,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2030,7 +1974,7 @@
     <xf numFmtId="169" fontId="3" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2052,9 +1996,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="3" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2078,11 +2019,114 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2092,23 +2136,12 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="169" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2121,89 +2154,26 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2211,12 +2181,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2226,12 +2190,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -2244,19 +2202,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2268,35 +2226,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Dezimal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2658,831 +2602,831 @@
     <col min="1" max="18" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="150" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="149" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="150" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="150" t="s">
+    <row r="1" spans="1:8" s="149" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="148" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="149" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="149" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="149" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="149" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="150" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="150" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="166" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="166" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="166" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="166" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="166" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:8" s="150" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:8" s="136" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="136" t="s">
+    <row r="4" spans="1:8" s="164" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="164" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="164" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="164" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="164" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:8" s="149" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:8" s="135" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="135" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="136"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="136"/>
+    </row>
+    <row r="12" spans="1:8" s="137" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A12" s="137" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="138" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="136"/>
+      <c r="F13" s="138" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="137"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="137"/>
-    </row>
-    <row r="12" spans="1:8" s="138" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="138" t="s">
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="137" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="139" t="s">
+      <c r="C14" s="137" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="137"/>
-      <c r="F13" s="139" t="s">
+      <c r="D14" s="137" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="138" t="s">
+      <c r="E14" s="137"/>
+      <c r="F14" s="137" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="137" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="136" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="140"/>
+      <c r="F15" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="139" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="136"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+    </row>
+    <row r="17" spans="1:9" s="136" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="139" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="139" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="140"/>
+      <c r="F17" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="139" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="139" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="136"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+    </row>
+    <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="136" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="140"/>
+      <c r="F19" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="139" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="136"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+    </row>
+    <row r="22" spans="1:9" s="137" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="137" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="138" t="s">
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="138" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="136"/>
+      <c r="F23" s="138" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="137" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="137" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="138" t="s">
+      <c r="F24" s="137" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="137" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="137" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="136" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" s="139" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="139" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="136"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
+    </row>
+    <row r="27" spans="1:9" s="136" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="139" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="139" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="139" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="139" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="139" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="139" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="136"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+    </row>
+    <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="136" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="139" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" s="139" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="163"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="163"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="163"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="163"/>
+    </row>
+    <row r="33" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="138" t="s">
+    </row>
+    <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="138" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="136"/>
+      <c r="F35" s="138" t="s">
+        <v>102</v>
+      </c>
+      <c r="J35" s="138" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="137" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="137" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="137" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36" s="137" t="s">
+        <v>103</v>
+      </c>
+      <c r="K36" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="L36" s="137" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="136" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="140"/>
+      <c r="F37" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37" s="139" t="s">
+        <v>114</v>
+      </c>
+      <c r="J37" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="K37" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="L37" s="139" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="136"/>
+      <c r="B38" s="141"/>
+      <c r="C38" s="141"/>
+      <c r="D38" s="141"/>
+      <c r="E38" s="163"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="141"/>
+      <c r="J38" s="141"/>
+      <c r="K38" s="141"/>
+      <c r="L38" s="141"/>
+    </row>
+    <row r="39" spans="1:17" s="136" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="139" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="139" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" s="140"/>
+      <c r="F39" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="139" t="s">
+        <v>150</v>
+      </c>
+      <c r="H39" s="139" t="s">
+        <v>114</v>
+      </c>
+      <c r="J39" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="K39" s="139" t="s">
+        <v>150</v>
+      </c>
+      <c r="L39" s="139" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="136"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="141"/>
+      <c r="D40" s="141"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="141"/>
+      <c r="H40" s="141"/>
+      <c r="J40" s="141"/>
+      <c r="K40" s="141"/>
+      <c r="L40" s="141"/>
+    </row>
+    <row r="41" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="136" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="140"/>
+      <c r="F41" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" s="139" t="s">
+        <v>114</v>
+      </c>
+      <c r="J41" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="K41" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="L41" s="139" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="136"/>
+      <c r="B42" s="163"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
+      <c r="E42" s="163"/>
+      <c r="F42" s="163"/>
+      <c r="G42" s="163"/>
+      <c r="H42" s="163"/>
+      <c r="J42" s="163"/>
+      <c r="K42" s="163"/>
+      <c r="L42" s="163"/>
+    </row>
+    <row r="43" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="136"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="163"/>
+      <c r="J43" s="163"/>
+      <c r="K43" s="163"/>
+      <c r="L43" s="163"/>
+    </row>
+    <row r="45" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A45" s="137" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="138" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="136"/>
+      <c r="F47" s="138" t="s">
+        <v>102</v>
+      </c>
+      <c r="J47" s="138" t="s">
+        <v>109</v>
+      </c>
+      <c r="K47" s="136"/>
+      <c r="N47" s="138"/>
+    </row>
+    <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="137" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="137" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="138" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="137" t="s">
+      <c r="F48" s="137" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48" s="137" t="s">
+        <v>105</v>
+      </c>
+      <c r="I48" s="137" t="s">
+        <v>107</v>
+      </c>
+      <c r="J48" s="137" t="s">
+        <v>103</v>
+      </c>
+      <c r="K48" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="L48" s="137" t="s">
+        <v>105</v>
+      </c>
+      <c r="M48" s="137" t="s">
+        <v>107</v>
+      </c>
+      <c r="N48" s="137"/>
+      <c r="O48" s="137"/>
+      <c r="P48" s="137"/>
+      <c r="Q48" s="137"/>
+    </row>
+    <row r="49" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="136" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="H49" s="139" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="140" t="s">
+      <c r="I49" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="J49" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="K49" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="L49" s="139" t="s">
+        <v>114</v>
+      </c>
+      <c r="M49" s="139" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="136"/>
+      <c r="B50" s="141"/>
+      <c r="C50" s="141"/>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141"/>
+      <c r="F50" s="141"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="141"/>
+      <c r="I50" s="141"/>
+      <c r="J50" s="141"/>
+      <c r="K50" s="141"/>
+      <c r="L50" s="141"/>
+      <c r="M50" s="141"/>
+    </row>
+    <row r="51" spans="1:13" s="136" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="139" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="139" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" s="139" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="G51" s="139" t="s">
+        <v>150</v>
+      </c>
+      <c r="H51" s="139" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" s="139" t="s">
+        <v>150</v>
+      </c>
+      <c r="J51" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="K51" s="139" t="s">
+        <v>150</v>
+      </c>
+      <c r="L51" s="139" t="s">
+        <v>114</v>
+      </c>
+      <c r="M51" s="139" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="136"/>
+      <c r="B52" s="141"/>
+      <c r="C52" s="141"/>
+      <c r="D52" s="141"/>
+      <c r="E52" s="141"/>
+      <c r="F52" s="141"/>
+      <c r="G52" s="141"/>
+      <c r="H52" s="141"/>
+      <c r="I52" s="141"/>
+      <c r="J52" s="141"/>
+      <c r="K52" s="141"/>
+      <c r="L52" s="141"/>
+      <c r="M52" s="141"/>
+    </row>
+    <row r="53" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="140" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="140" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="141"/>
-      <c r="F15" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="140" t="s">
-        <v>153</v>
-      </c>
-      <c r="H15" s="140" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="137"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-    </row>
-    <row r="17" spans="1:9" s="137" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="137" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="140" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="140" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="141"/>
-      <c r="F17" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="140" t="s">
-        <v>154</v>
-      </c>
-      <c r="H17" s="140" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="137"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-    </row>
-    <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="137" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="140" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="140" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="140" t="s">
-        <v>137</v>
-      </c>
-      <c r="H19" s="140" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="137"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-    </row>
-    <row r="22" spans="1:9" s="138" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="138" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="139" t="s">
+      <c r="B53" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="G53" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53" s="139" t="s">
+        <v>114</v>
+      </c>
+      <c r="I53" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="J53" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="K53" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="L53" s="139" t="s">
+        <v>114</v>
+      </c>
+      <c r="M53" s="139" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="149" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A56" s="147" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="146" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A57" s="145"/>
+      <c r="B57" s="145" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="145" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="137"/>
-      <c r="F23" s="139" t="s">
+      <c r="D57" s="145" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="138" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="138" t="s">
+      <c r="E57" s="145" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="138" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="138" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="138" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="138" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="138" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="138" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="137" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="140" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="140" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="140" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="140" t="s">
-        <v>153</v>
-      </c>
-      <c r="H25" s="140" t="s">
-        <v>117</v>
-      </c>
-      <c r="I25" s="140" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="137"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-    </row>
-    <row r="27" spans="1:9" s="137" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="137" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="140" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="140" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" s="140" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="140" t="s">
-        <v>154</v>
-      </c>
-      <c r="H27" s="140" t="s">
-        <v>117</v>
-      </c>
-      <c r="I27" s="140" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="137"/>
-      <c r="B28" s="142"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-    </row>
-    <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="137" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="140" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="140" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" s="140" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="140" t="s">
-        <v>137</v>
-      </c>
-      <c r="H29" s="140" t="s">
-        <v>117</v>
-      </c>
-      <c r="I29" s="140" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="165"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="165"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="165"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="165"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="165"/>
-    </row>
-    <row r="33" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="138" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="139" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="137"/>
-      <c r="F35" s="139" t="s">
-        <v>105</v>
-      </c>
-      <c r="J35" s="139" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="138" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="138" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="138" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="138"/>
-      <c r="F36" s="138" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="138" t="s">
-        <v>107</v>
-      </c>
-      <c r="H36" s="138" t="s">
-        <v>108</v>
-      </c>
-      <c r="J36" s="138" t="s">
-        <v>106</v>
-      </c>
-      <c r="K36" s="138" t="s">
-        <v>107</v>
-      </c>
-      <c r="L36" s="138" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="137" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="140" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="140" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" s="141"/>
-      <c r="F37" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="G37" s="140" t="s">
-        <v>153</v>
-      </c>
-      <c r="H37" s="140" t="s">
-        <v>117</v>
-      </c>
-      <c r="J37" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="K37" s="140" t="s">
-        <v>153</v>
-      </c>
-      <c r="L37" s="140" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="137"/>
-      <c r="B38" s="142"/>
-      <c r="C38" s="142"/>
-      <c r="D38" s="142"/>
-      <c r="E38" s="165"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="142"/>
-      <c r="H38" s="142"/>
-      <c r="J38" s="142"/>
-      <c r="K38" s="142"/>
-      <c r="L38" s="142"/>
-    </row>
-    <row r="39" spans="1:17" s="137" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="137" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="140" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="140" t="s">
-        <v>150</v>
-      </c>
-      <c r="E39" s="141"/>
-      <c r="F39" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="G39" s="140" t="s">
-        <v>154</v>
-      </c>
-      <c r="H39" s="140" t="s">
-        <v>117</v>
-      </c>
-      <c r="J39" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="K39" s="140" t="s">
-        <v>154</v>
-      </c>
-      <c r="L39" s="140" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="137"/>
-      <c r="B40" s="142"/>
-      <c r="C40" s="142"/>
-      <c r="D40" s="142"/>
-      <c r="E40" s="165"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="J40" s="142"/>
-      <c r="K40" s="142"/>
-      <c r="L40" s="142"/>
-    </row>
-    <row r="41" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="137" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="140" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41" s="140" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="141"/>
-      <c r="F41" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41" s="140" t="s">
-        <v>137</v>
-      </c>
-      <c r="H41" s="140" t="s">
-        <v>117</v>
-      </c>
-      <c r="J41" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="K41" s="140" t="s">
-        <v>137</v>
-      </c>
-      <c r="L41" s="140" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="137"/>
-      <c r="B42" s="165"/>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
-      <c r="E42" s="165"/>
-      <c r="F42" s="165"/>
-      <c r="G42" s="165"/>
-      <c r="H42" s="165"/>
-      <c r="J42" s="165"/>
-      <c r="K42" s="165"/>
-      <c r="L42" s="165"/>
-    </row>
-    <row r="43" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="137"/>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
-      <c r="E43" s="165"/>
-      <c r="F43" s="165"/>
-      <c r="G43" s="165"/>
-      <c r="H43" s="165"/>
-      <c r="J43" s="165"/>
-      <c r="K43" s="165"/>
-      <c r="L43" s="165"/>
-    </row>
-    <row r="45" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="138" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="139" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="137"/>
-      <c r="F47" s="139" t="s">
-        <v>105</v>
-      </c>
-      <c r="J47" s="139" t="s">
-        <v>112</v>
-      </c>
-      <c r="K47" s="137"/>
-      <c r="N47" s="139"/>
-    </row>
-    <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="138" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="138" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="138" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="138" t="s">
-        <v>110</v>
-      </c>
-      <c r="F48" s="138" t="s">
-        <v>106</v>
-      </c>
-      <c r="G48" s="138" t="s">
-        <v>107</v>
-      </c>
-      <c r="H48" s="138" t="s">
-        <v>108</v>
-      </c>
-      <c r="I48" s="138" t="s">
-        <v>110</v>
-      </c>
-      <c r="J48" s="138" t="s">
-        <v>106</v>
-      </c>
-      <c r="K48" s="138" t="s">
-        <v>107</v>
-      </c>
-      <c r="L48" s="138" t="s">
-        <v>108</v>
-      </c>
-      <c r="M48" s="138" t="s">
-        <v>110</v>
-      </c>
-      <c r="N48" s="138"/>
-      <c r="O48" s="138"/>
-      <c r="P48" s="138"/>
-      <c r="Q48" s="138"/>
-    </row>
-    <row r="49" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="137" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="140" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="140" t="s">
-        <v>149</v>
-      </c>
-      <c r="E49" s="140" t="s">
-        <v>149</v>
-      </c>
-      <c r="F49" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="G49" s="140" t="s">
-        <v>153</v>
-      </c>
-      <c r="H49" s="140" t="s">
-        <v>117</v>
-      </c>
-      <c r="I49" s="140" t="s">
-        <v>153</v>
-      </c>
-      <c r="J49" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="K49" s="140" t="s">
-        <v>153</v>
-      </c>
-      <c r="L49" s="140" t="s">
-        <v>117</v>
-      </c>
-      <c r="M49" s="140" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="137"/>
-      <c r="B50" s="142"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="142"/>
-      <c r="E50" s="142"/>
-      <c r="F50" s="142"/>
-      <c r="G50" s="142"/>
-      <c r="H50" s="142"/>
-      <c r="I50" s="142"/>
-      <c r="J50" s="142"/>
-      <c r="K50" s="142"/>
-      <c r="L50" s="142"/>
-      <c r="M50" s="142"/>
-    </row>
-    <row r="51" spans="1:13" s="137" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="137" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="140" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="140" t="s">
-        <v>150</v>
-      </c>
-      <c r="E51" s="140" t="s">
-        <v>150</v>
-      </c>
-      <c r="F51" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="G51" s="140" t="s">
-        <v>154</v>
-      </c>
-      <c r="H51" s="140" t="s">
-        <v>117</v>
-      </c>
-      <c r="I51" s="140" t="s">
-        <v>154</v>
-      </c>
-      <c r="J51" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="K51" s="140" t="s">
-        <v>154</v>
-      </c>
-      <c r="L51" s="140" t="s">
-        <v>117</v>
-      </c>
-      <c r="M51" s="140" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="137"/>
-      <c r="B52" s="142"/>
-      <c r="C52" s="142"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="142"/>
-      <c r="K52" s="142"/>
-      <c r="L52" s="142"/>
-      <c r="M52" s="142"/>
-    </row>
-    <row r="53" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="137" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="140" t="s">
-        <v>151</v>
-      </c>
-      <c r="D53" s="140" t="s">
-        <v>151</v>
-      </c>
-      <c r="E53" s="140" t="s">
-        <v>151</v>
-      </c>
-      <c r="F53" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="G53" s="140" t="s">
-        <v>137</v>
-      </c>
-      <c r="H53" s="140" t="s">
-        <v>117</v>
-      </c>
-      <c r="I53" s="140" t="s">
-        <v>137</v>
-      </c>
-      <c r="J53" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="K53" s="140" t="s">
-        <v>137</v>
-      </c>
-      <c r="L53" s="140" t="s">
-        <v>117</v>
-      </c>
-      <c r="M53" s="140" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="150" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A56" s="148" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="147" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A57" s="146"/>
-      <c r="B57" s="146" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="146" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" s="146" t="s">
-        <v>108</v>
-      </c>
-      <c r="E57" s="146" t="s">
-        <v>110</v>
-      </c>
-      <c r="F57" s="146" t="s">
+      <c r="F57" s="145" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="144" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="143" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="143" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" s="145" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="144" t="s">
+      <c r="D58" s="143" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="143" t="s">
         <v>124</v>
       </c>
-      <c r="B58" s="144" t="s">
+      <c r="F58" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="144" t="s">
+    </row>
+    <row r="59" spans="1:13" s="144" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="143" t="s">
         <v>126</v>
       </c>
-      <c r="D58" s="144" t="s">
-        <v>126</v>
-      </c>
-      <c r="E58" s="144" t="s">
+      <c r="B59" s="143" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="143" t="s">
         <v>127</v>
       </c>
-      <c r="F58" s="144" t="s">
+      <c r="D59" s="143" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" s="145" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="144" t="s">
+      <c r="E59" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="144" t="s">
+      <c r="F59" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="144" t="s">
+    </row>
+    <row r="60" spans="1:13" s="144" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="143"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="143"/>
+      <c r="E60" s="143"/>
+      <c r="F60" s="143" t="s">
         <v>130</v>
-      </c>
-      <c r="D59" s="144" t="s">
-        <v>131</v>
-      </c>
-      <c r="E59" s="144" t="s">
-        <v>132</v>
-      </c>
-      <c r="F59" s="144" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="145" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="144"/>
-      <c r="B60" s="144"/>
-      <c r="C60" s="144"/>
-      <c r="D60" s="144"/>
-      <c r="E60" s="144"/>
-      <c r="F60" s="144" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3525,11 +3469,11 @@
     <row r="1" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="11"/>
@@ -3537,11 +3481,11 @@
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -3549,15 +3493,15 @@
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="152"/>
+      <c r="C4" s="151"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="G4" s="9"/>
       <c r="H4" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
@@ -3565,35 +3509,35 @@
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
       <c r="G5" s="9"/>
       <c r="H5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="130"/>
+        <v>15</v>
+      </c>
+      <c r="I5" s="129"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="G6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="93"/>
@@ -3602,77 +3546,77 @@
       <c r="G7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="173"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="175"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="209"/>
+      <c r="J7" s="209"/>
+      <c r="K7" s="210"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
       <c r="G8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="172"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="179"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="203"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
       <c r="G9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="172"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="179"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="203"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
       <c r="G10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="172"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="179"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="203"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="172"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="179"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="203"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="G12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="172"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="179"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="203"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
@@ -3683,237 +3627,237 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="190" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="191"/>
-      <c r="I14" s="192" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="193"/>
-      <c r="K14" s="194"/>
+      <c r="G14" s="204" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="205"/>
+      <c r="I14" s="206" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="207"/>
+      <c r="K14" s="208"/>
     </row>
     <row r="15" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="195" t="s">
+      <c r="A15" s="177" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="198" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="198" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="198"/>
-      <c r="E15" s="199" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="200"/>
+      <c r="C15" s="191" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="191"/>
+      <c r="E15" s="194" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="195"/>
       <c r="G15" s="44"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="201" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="185"/>
-      <c r="K15" s="180">
+      <c r="I15" s="183" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="215"/>
+      <c r="K15" s="213">
         <f>ROUND(J15*0.3,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="196"/>
-      <c r="B16" s="182"/>
-      <c r="C16" s="182" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="182"/>
-      <c r="E16" s="183" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="184"/>
+      <c r="A16" s="178"/>
+      <c r="B16" s="185"/>
+      <c r="C16" s="185" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="185"/>
+      <c r="E16" s="186" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="187"/>
       <c r="G16" s="46"/>
       <c r="H16" s="47"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="181"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="216"/>
+      <c r="K16" s="214"/>
     </row>
     <row r="17" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="196"/>
-      <c r="B17" s="182"/>
-      <c r="C17" s="182" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="182"/>
-      <c r="E17" s="183" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="184"/>
+      <c r="A17" s="178"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="185" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="185"/>
+      <c r="E17" s="186" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="187"/>
       <c r="G17" s="48"/>
       <c r="H17" s="49"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="181"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="216"/>
+      <c r="K17" s="214"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="196"/>
-      <c r="B18" s="203" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="182" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="182"/>
-      <c r="E18" s="183" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="184"/>
+      <c r="A18" s="178"/>
+      <c r="B18" s="196" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="185"/>
+      <c r="E18" s="186" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="187"/>
       <c r="G18" s="50"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="202" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="186"/>
-      <c r="K18" s="181">
+      <c r="I18" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="216"/>
+      <c r="K18" s="214">
         <f>ROUND(J18*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="196"/>
-      <c r="B19" s="204"/>
-      <c r="C19" s="182" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="182"/>
-      <c r="E19" s="183" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="184"/>
+      <c r="A19" s="178"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="185" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="185"/>
+      <c r="E19" s="186" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="187"/>
       <c r="G19" s="46"/>
       <c r="H19" s="47"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="181"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="216"/>
+      <c r="K19" s="214"/>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="197"/>
-      <c r="B20" s="205"/>
-      <c r="C20" s="207" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="207"/>
-      <c r="E20" s="208" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="209"/>
+      <c r="A20" s="179"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="188" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="188"/>
+      <c r="E20" s="189" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="190"/>
       <c r="G20" s="52"/>
       <c r="H20" s="53"/>
-      <c r="I20" s="206"/>
-      <c r="J20" s="187"/>
-      <c r="K20" s="188"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="217"/>
+      <c r="K20" s="218"/>
     </row>
     <row r="21" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="195" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="212" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="198" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="198"/>
-      <c r="E21" s="215" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="216"/>
+      <c r="A21" s="177" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="180" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="191" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="191"/>
+      <c r="E21" s="192" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="193"/>
       <c r="G21" s="54"/>
       <c r="H21" s="55"/>
-      <c r="I21" s="201" t="s">
-        <v>99</v>
-      </c>
-      <c r="J21" s="185"/>
-      <c r="K21" s="180">
+      <c r="I21" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="215"/>
+      <c r="K21" s="213">
         <f>ROUND(J21*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="196"/>
-      <c r="B22" s="213"/>
-      <c r="C22" s="182" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="182"/>
-      <c r="E22" s="183" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="184"/>
+      <c r="A22" s="178"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="185" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="185"/>
+      <c r="E22" s="186" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="187"/>
       <c r="G22" s="46"/>
       <c r="H22" s="47"/>
-      <c r="I22" s="202"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="181"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="216"/>
+      <c r="K22" s="214"/>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="196"/>
-      <c r="B23" s="214"/>
-      <c r="C23" s="182" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="182"/>
-      <c r="E23" s="183" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="184"/>
+      <c r="A23" s="178"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="185" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="185"/>
+      <c r="E23" s="186" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="187"/>
       <c r="G23" s="48"/>
       <c r="H23" s="49"/>
-      <c r="I23" s="202"/>
-      <c r="J23" s="186"/>
-      <c r="K23" s="181"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="216"/>
+      <c r="K23" s="214"/>
     </row>
     <row r="24" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="197"/>
+      <c r="A24" s="179"/>
       <c r="B24" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="207"/>
-      <c r="D24" s="207"/>
-      <c r="E24" s="208" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="209"/>
+        <v>31</v>
+      </c>
+      <c r="C24" s="188"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="189" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="190"/>
       <c r="G24" s="57"/>
       <c r="H24" s="58"/>
       <c r="I24" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="153"/>
-      <c r="K24" s="151">
+        <v>12</v>
+      </c>
+      <c r="J24" s="152"/>
+      <c r="K24" s="150">
         <f>ROUND(J24*0.15,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="135" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="189" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="189"/>
-      <c r="E25" s="210" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="211"/>
+        <v>38</v>
+      </c>
+      <c r="B25" s="134" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="219" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="219"/>
+      <c r="E25" s="175" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="176"/>
       <c r="G25" s="61"/>
       <c r="H25" s="62"/>
       <c r="I25" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="J25" s="154"/>
+        <v>97</v>
+      </c>
+      <c r="J25" s="153"/>
       <c r="K25" s="64">
         <f>ROUND(J25*0.05,3)</f>
         <v>0</v>
@@ -3941,18 +3885,18 @@
       <c r="F27" s="65"/>
       <c r="G27" s="65"/>
       <c r="H27" s="66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I27" s="67"/>
-      <c r="J27" s="176">
+      <c r="J27" s="211">
         <f>SUM(K15:K25)</f>
         <v>0</v>
       </c>
-      <c r="K27" s="177"/>
+      <c r="K27" s="212"/>
     </row>
     <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="68"/>
       <c r="C31" s="68"/>
@@ -3960,7 +3904,7 @@
       <c r="E31" s="65"/>
       <c r="F31" s="65"/>
       <c r="G31" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -3969,40 +3913,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="C6:E6"/>
@@ -4019,6 +3929,40 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="J21:J23"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4062,14 +4006,14 @@
     <row r="1" spans="1:22" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R2" s="9"/>
       <c r="S2" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T2" s="10"/>
       <c r="U2" s="11"/>
@@ -4077,22 +4021,22 @@
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3" s="245" t="str">
+        <v>139</v>
+      </c>
+      <c r="J3" s="171" t="str">
         <f>IF(L3&lt;&gt;0,J2+1,"0")</f>
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="243"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="220"/>
       <c r="R3" s="9"/>
       <c r="S3" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="11"/>
@@ -4100,177 +4044,177 @@
     </row>
     <row r="4" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="152"/>
+      <c r="C4" s="151"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="J4" s="245" t="str">
+      <c r="J4" s="171" t="str">
         <f t="shared" ref="J4:J11" si="0">IF(L4&lt;&gt;0,J3+1,"0")</f>
         <v>0</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="172"/>
-      <c r="M4" s="172"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="244"/>
+      <c r="L4" s="201"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="221"/>
       <c r="R4" s="9"/>
       <c r="S4" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T4" s="10"/>
       <c r="U4" s="11"/>
-      <c r="V4" s="164"/>
+      <c r="V4" s="162"/>
     </row>
     <row r="5" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="J5" s="245" t="str">
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="J5" s="171" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="172"/>
-      <c r="M5" s="178"/>
-      <c r="N5" s="178"/>
-      <c r="O5" s="179"/>
+      <c r="L5" s="201"/>
+      <c r="M5" s="202"/>
+      <c r="N5" s="202"/>
+      <c r="O5" s="203"/>
       <c r="R5" s="9"/>
       <c r="S5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="T5" s="130"/>
+        <v>15</v>
+      </c>
+      <c r="T5" s="129"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
     </row>
     <row r="6" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="J6" s="245" t="str">
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="J6" s="171" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="172"/>
-      <c r="M6" s="178"/>
-      <c r="N6" s="178"/>
-      <c r="O6" s="179"/>
+      <c r="L6" s="201"/>
+      <c r="M6" s="202"/>
+      <c r="N6" s="202"/>
+      <c r="O6" s="203"/>
     </row>
     <row r="7" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="93"/>
       <c r="D7" s="93"/>
       <c r="E7" s="93"/>
       <c r="F7" s="93"/>
-      <c r="J7" s="245" t="str">
+      <c r="J7" s="171" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="172"/>
-      <c r="M7" s="178"/>
-      <c r="N7" s="178"/>
-      <c r="O7" s="179"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="202"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="203"/>
     </row>
     <row r="8" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="J8" s="245" t="str">
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+      <c r="J8" s="171" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="172"/>
-      <c r="M8" s="178"/>
-      <c r="N8" s="178"/>
-      <c r="O8" s="179"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="203"/>
     </row>
     <row r="9" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="J9" s="245" t="str">
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
+      <c r="J9" s="171" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="169" t="s">
-        <v>158</v>
-      </c>
-      <c r="L9" s="172"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="178"/>
-      <c r="O9" s="179"/>
+      <c r="K9" s="167" t="s">
+        <v>154</v>
+      </c>
+      <c r="L9" s="201"/>
+      <c r="M9" s="202"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="203"/>
     </row>
     <row r="10" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="J10" s="245" t="str">
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="J10" s="171" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="169" t="s">
-        <v>159</v>
-      </c>
-      <c r="L10" s="172"/>
-      <c r="M10" s="178"/>
-      <c r="N10" s="178"/>
-      <c r="O10" s="179"/>
+      <c r="K10" s="167" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10" s="201"/>
+      <c r="M10" s="202"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="203"/>
     </row>
     <row r="11" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="245" t="str">
+      <c r="J11" s="171" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="169" t="s">
-        <v>160</v>
-      </c>
-      <c r="L11" s="172"/>
-      <c r="M11" s="178"/>
-      <c r="N11" s="178"/>
-      <c r="O11" s="179"/>
+      <c r="K11" s="167" t="s">
+        <v>156</v>
+      </c>
+      <c r="L11" s="201"/>
+      <c r="M11" s="202"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="203"/>
     </row>
     <row r="12" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4306,26 +4250,26 @@
         <v>9</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="217"/>
-      <c r="B15" s="218" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="219"/>
-      <c r="D15" s="219"/>
+      <c r="A15" s="226"/>
+      <c r="B15" s="227" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="223"/>
+      <c r="D15" s="223"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="155"/>
-      <c r="M15" s="155"/>
-      <c r="N15" s="155">
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="154">
         <v>0</v>
       </c>
       <c r="O15" s="19">
@@ -4334,22 +4278,22 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="217"/>
-      <c r="B16" s="220" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="219"/>
-      <c r="D16" s="219"/>
+      <c r="A16" s="226"/>
+      <c r="B16" s="222" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="223"/>
+      <c r="D16" s="223"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
-      <c r="M16" s="155"/>
-      <c r="N16" s="155">
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="154">
         <v>0</v>
       </c>
       <c r="O16" s="19">
@@ -4358,21 +4302,21 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="220" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="219"/>
-      <c r="D17" s="219"/>
+      <c r="B17" s="222" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="223"/>
+      <c r="D17" s="223"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="155"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="155"/>
-      <c r="M17" s="155"/>
-      <c r="N17" s="155">
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="154">
         <v>0</v>
       </c>
       <c r="O17" s="19">
@@ -4382,20 +4326,20 @@
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="224" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="225"/>
       <c r="D18" s="225"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="155">
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154">
         <v>0</v>
       </c>
       <c r="O18" s="19">
@@ -4404,21 +4348,21 @@
       </c>
     </row>
     <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="220" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="219"/>
-      <c r="D19" s="219"/>
+      <c r="B19" s="222" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="223"/>
+      <c r="D19" s="223"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="155">
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154">
         <v>0</v>
       </c>
       <c r="O19" s="19">
@@ -4428,20 +4372,20 @@
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" s="70"/>
       <c r="D20" s="70"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="155"/>
-      <c r="K20" s="155"/>
-      <c r="L20" s="155"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="155">
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="154">
         <v>0</v>
       </c>
       <c r="O20" s="19">
@@ -4451,20 +4395,20 @@
     </row>
     <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="70"/>
       <c r="D21" s="70"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="155"/>
-      <c r="M21" s="155"/>
-      <c r="N21" s="155">
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154">
         <v>0</v>
       </c>
       <c r="O21" s="19">
@@ -4473,21 +4417,21 @@
       </c>
     </row>
     <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="221" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="222"/>
-      <c r="D22" s="222"/>
-      <c r="E22" s="223"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="155">
+      <c r="B22" s="228" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="229"/>
+      <c r="D22" s="229"/>
+      <c r="E22" s="230"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154">
         <v>0</v>
       </c>
       <c r="O22" s="19">
@@ -4497,7 +4441,7 @@
     </row>
     <row r="23" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M23" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O23" s="1">
         <f>MAX(J3:J11)</f>
@@ -4506,7 +4450,7 @@
     </row>
     <row r="24" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -4515,7 +4459,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="23"/>
       <c r="N24" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O24" s="19">
         <f>SUM(O15:O22)</f>
@@ -4527,7 +4471,7 @@
       <c r="H25" s="26"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O25" s="27">
         <f>IFERROR(ROUND(O24/O23,3),0)</f>
@@ -4550,7 +4494,7 @@
       <c r="H27" s="32"/>
       <c r="L27" s="28"/>
       <c r="N27" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O27" s="29"/>
     </row>
@@ -4559,7 +4503,7 @@
       <c r="F29" s="38"/>
       <c r="H29" s="33"/>
       <c r="L29" s="72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M29" s="73"/>
       <c r="N29" s="74"/>
@@ -4586,7 +4530,7 @@
     <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -4594,7 +4538,7 @@
       <c r="E33" s="40"/>
       <c r="F33" s="38"/>
       <c r="H33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -4614,27 +4558,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="L10:O10"/>
     <mergeCell ref="L11:O11"/>
     <mergeCell ref="L8:O8"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="L5:O5"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="L7:O7"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
@@ -4678,14 +4622,14 @@
     <row r="1" spans="1:20" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
@@ -4693,22 +4637,22 @@
     </row>
     <row r="3" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3" s="245" t="str">
+        <v>139</v>
+      </c>
+      <c r="J3" s="171" t="str">
         <f>IF(L3&lt;&gt;0,I2+1,"0")</f>
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="246"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="172"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="R3" s="10"/>
       <c r="S3" s="11"/>
@@ -4716,177 +4660,177 @@
     </row>
     <row r="4" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="152"/>
+      <c r="C4" s="151"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="J4" s="245" t="str">
-        <f>IF(L4&lt;&gt;0,J3+1,"0")</f>
+      <c r="J4" s="171" t="str">
+        <f t="shared" ref="J4:J11" si="0">IF(L4&lt;&gt;0,J3+1,"0")</f>
         <v>0</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="168"/>
-      <c r="M4" s="168"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="247"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="173"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="164"/>
+      <c r="T4" s="162"/>
     </row>
     <row r="5" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="J5" s="245" t="str">
-        <f>IF(L5&lt;&gt;0,J4+1,"0")</f>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="J5" s="171" t="str">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="168"/>
-      <c r="M5" s="169"/>
-      <c r="N5" s="169"/>
-      <c r="O5" s="170"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="168"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="130"/>
+        <v>15</v>
+      </c>
+      <c r="R5" s="129"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="J6" s="245" t="str">
-        <f>IF(L6&lt;&gt;0,J5+1,"0")</f>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="J6" s="171" t="str">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="168"/>
-      <c r="M6" s="169"/>
-      <c r="N6" s="169"/>
-      <c r="O6" s="170"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="168"/>
     </row>
     <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="93"/>
       <c r="D7" s="93"/>
       <c r="E7" s="93"/>
       <c r="F7" s="93"/>
-      <c r="J7" s="245" t="str">
-        <f>IF(L7&lt;&gt;0,J6+1,"0")</f>
+      <c r="J7" s="171" t="str">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="168"/>
-      <c r="M7" s="169"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="170"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="168"/>
     </row>
     <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="J8" s="245" t="str">
-        <f>IF(L8&lt;&gt;0,J7+1,"0")</f>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+      <c r="J8" s="171" t="str">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="168"/>
-      <c r="M8" s="169"/>
-      <c r="N8" s="169"/>
-      <c r="O8" s="170"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="167"/>
+      <c r="N8" s="167"/>
+      <c r="O8" s="168"/>
     </row>
     <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="J9" s="245" t="str">
-        <f>IF(L9&lt;&gt;0,J8+1,"0")</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="169" t="s">
-        <v>158</v>
-      </c>
-      <c r="L9" s="168"/>
-      <c r="M9" s="169"/>
-      <c r="N9" s="169"/>
-      <c r="O9" s="170"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
+      <c r="J9" s="171" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="167" t="s">
+        <v>154</v>
+      </c>
+      <c r="L9" s="166"/>
+      <c r="M9" s="167"/>
+      <c r="N9" s="167"/>
+      <c r="O9" s="168"/>
     </row>
     <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="J10" s="245" t="str">
-        <f>IF(L10&lt;&gt;0,J9+1,"0")</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="169" t="s">
-        <v>159</v>
-      </c>
-      <c r="L10" s="168"/>
-      <c r="M10" s="169"/>
-      <c r="N10" s="169"/>
-      <c r="O10" s="170"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="J10" s="171" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="167" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10" s="166"/>
+      <c r="M10" s="167"/>
+      <c r="N10" s="167"/>
+      <c r="O10" s="168"/>
     </row>
     <row r="11" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="245" t="str">
-        <f>IF(L11&lt;&gt;0,J10+1,"0")</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="169" t="s">
-        <v>160</v>
-      </c>
-      <c r="L11" s="168"/>
-      <c r="M11" s="169"/>
-      <c r="N11" s="169"/>
-      <c r="O11" s="170"/>
+      <c r="J11" s="171" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="167" t="s">
+        <v>156</v>
+      </c>
+      <c r="L11" s="166"/>
+      <c r="M11" s="167"/>
+      <c r="N11" s="167"/>
+      <c r="O11" s="168"/>
     </row>
     <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
@@ -4924,28 +4868,28 @@
         <v>9</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="217"/>
-      <c r="B15" s="218" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="219"/>
-      <c r="D15" s="219"/>
+      <c r="A15" s="226"/>
+      <c r="B15" s="227" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="223"/>
+      <c r="D15" s="223"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="155"/>
-      <c r="M15" s="155">
-        <v>0</v>
-      </c>
-      <c r="N15" s="155">
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154">
+        <v>0</v>
+      </c>
+      <c r="N15" s="154">
         <v>0</v>
       </c>
       <c r="O15" s="19">
@@ -4954,158 +4898,158 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="217"/>
-      <c r="B16" s="220" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="219"/>
-      <c r="D16" s="219"/>
+      <c r="A16" s="226"/>
+      <c r="B16" s="222" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="223"/>
+      <c r="D16" s="223"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
-      <c r="M16" s="155"/>
-      <c r="N16" s="155">
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="154">
         <v>0</v>
       </c>
       <c r="O16" s="19">
-        <f t="shared" ref="O16:O22" si="0">SUM(F16:N16)</f>
+        <f t="shared" ref="O16:O22" si="1">SUM(F16:N16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="220" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="219"/>
-      <c r="D17" s="219"/>
+      <c r="B17" s="222" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="223"/>
+      <c r="D17" s="223"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="155"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="155"/>
-      <c r="M17" s="155"/>
-      <c r="N17" s="155"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="154"/>
       <c r="O17" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="228" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="219"/>
-      <c r="D18" s="219"/>
+      <c r="B18" s="233" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="223"/>
+      <c r="D18" s="223"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="155"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
       <c r="O18" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="224" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="225"/>
       <c r="D19" s="225"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="155"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
       <c r="O19" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="220" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="219"/>
-      <c r="D20" s="219"/>
+      <c r="B20" s="222" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="223"/>
+      <c r="D20" s="223"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="155"/>
-      <c r="K20" s="155"/>
-      <c r="L20" s="155"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="155"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="154"/>
       <c r="O20" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="70"/>
       <c r="D21" s="70"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="155"/>
-      <c r="M21" s="155"/>
-      <c r="N21" s="155"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
       <c r="O21" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="226" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="227"/>
-      <c r="D22" s="227"/>
+      <c r="B22" s="231" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="232"/>
+      <c r="D22" s="232"/>
       <c r="E22" s="71"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="155"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
       <c r="O22" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M23" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O23" s="1">
         <f>MAX(J3:J11)</f>
@@ -5114,7 +5058,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5123,7 +5067,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="23"/>
       <c r="N24" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O24" s="19">
         <f>SUM(O15:O22)</f>
@@ -5135,7 +5079,7 @@
       <c r="H25" s="26"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O25" s="27">
         <f>IFERROR(ROUND(O24/O23,3),0)</f>
@@ -5158,7 +5102,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="32"/>
       <c r="N27" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O27" s="29"/>
     </row>
@@ -5167,7 +5111,7 @@
       <c r="F29" s="38"/>
       <c r="H29" s="33"/>
       <c r="L29" s="72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M29" s="73"/>
       <c r="N29" s="74"/>
@@ -5194,7 +5138,7 @@
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
@@ -5202,7 +5146,7 @@
       <c r="E32" s="40"/>
       <c r="F32" s="38"/>
       <c r="H32" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -5227,6 +5171,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="A15:A16"/>
@@ -5235,11 +5184,6 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
@@ -5283,14 +5227,14 @@
     <row r="1" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:21" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S2" s="10"/>
       <c r="T2" s="11"/>
@@ -5298,22 +5242,22 @@
     </row>
     <row r="3" spans="1:21" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3" s="248" t="str">
+        <v>139</v>
+      </c>
+      <c r="J3" s="174" t="str">
         <f>IF(L3&lt;&gt;0,J2+1,"0")</f>
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="173"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="11"/>
@@ -5321,177 +5265,177 @@
     </row>
     <row r="4" spans="1:21" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="152"/>
+      <c r="C4" s="151"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="J4" s="245" t="str">
+      <c r="J4" s="171" t="str">
         <f t="shared" ref="J4:J11" si="0">IF(L4&lt;&gt;0,J3+1,"0")</f>
         <v>0</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="172"/>
-      <c r="M4" s="172"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="172"/>
+      <c r="L4" s="201"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="201"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S4" s="10"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="164"/>
+      <c r="U4" s="162"/>
     </row>
     <row r="5" spans="1:21" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="J5" s="245" t="str">
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="J5" s="171" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="172"/>
-      <c r="M5" s="178"/>
-      <c r="N5" s="178"/>
-      <c r="O5" s="178"/>
+      <c r="L5" s="201"/>
+      <c r="M5" s="202"/>
+      <c r="N5" s="202"/>
+      <c r="O5" s="202"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" s="130"/>
+        <v>15</v>
+      </c>
+      <c r="S5" s="129"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
     </row>
     <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="J6" s="245" t="str">
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="J6" s="171" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="172"/>
-      <c r="M6" s="178"/>
-      <c r="N6" s="178"/>
-      <c r="O6" s="178"/>
+      <c r="L6" s="201"/>
+      <c r="M6" s="202"/>
+      <c r="N6" s="202"/>
+      <c r="O6" s="202"/>
     </row>
     <row r="7" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="93"/>
       <c r="D7" s="93"/>
       <c r="E7" s="93"/>
       <c r="F7" s="93"/>
-      <c r="J7" s="245" t="str">
+      <c r="J7" s="171" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="172"/>
-      <c r="M7" s="178"/>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="202"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
     </row>
     <row r="8" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="J8" s="245" t="str">
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+      <c r="J8" s="171" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="172"/>
-      <c r="M8" s="178"/>
-      <c r="N8" s="178"/>
-      <c r="O8" s="178"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
     </row>
     <row r="9" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="J9" s="245" t="str">
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
+      <c r="J9" s="171" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="169" t="s">
-        <v>158</v>
-      </c>
-      <c r="L9" s="172"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="178"/>
-      <c r="O9" s="178"/>
+      <c r="K9" s="167" t="s">
+        <v>154</v>
+      </c>
+      <c r="L9" s="201"/>
+      <c r="M9" s="202"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="202"/>
     </row>
     <row r="10" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="J10" s="245" t="str">
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="J10" s="171" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="169" t="s">
-        <v>159</v>
-      </c>
-      <c r="L10" s="172"/>
-      <c r="M10" s="178"/>
-      <c r="N10" s="178"/>
-      <c r="O10" s="178"/>
+      <c r="K10" s="167" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10" s="201"/>
+      <c r="M10" s="202"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="202"/>
     </row>
     <row r="11" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="245" t="str">
+      <c r="J11" s="171" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="169" t="s">
-        <v>160</v>
-      </c>
-      <c r="L11" s="172"/>
-      <c r="M11" s="178"/>
-      <c r="N11" s="178"/>
-      <c r="O11" s="178"/>
+      <c r="K11" s="167" t="s">
+        <v>156</v>
+      </c>
+      <c r="L11" s="201"/>
+      <c r="M11" s="202"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="202"/>
     </row>
     <row r="12" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
@@ -5536,153 +5480,153 @@
         <v>9</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="217"/>
-      <c r="B16" s="218" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="219"/>
-      <c r="D16" s="219"/>
+      <c r="A16" s="226"/>
+      <c r="B16" s="227" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="223"/>
+      <c r="D16" s="223"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
-      <c r="M16" s="155"/>
-      <c r="N16" s="155"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="154"/>
       <c r="O16" s="19">
         <f>SUM(F16:N16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="217"/>
-      <c r="B17" s="220" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="219"/>
-      <c r="D17" s="219"/>
+      <c r="A17" s="226"/>
+      <c r="B17" s="222" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="223"/>
+      <c r="D17" s="223"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="155"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="155"/>
-      <c r="M17" s="155"/>
-      <c r="N17" s="155"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="154"/>
       <c r="O17" s="19">
         <f t="shared" ref="O17:O22" si="1">SUM(F17:N17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="220" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="219"/>
-      <c r="D18" s="219"/>
+      <c r="B18" s="222" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="223"/>
+      <c r="D18" s="223"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="155"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
       <c r="O18" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="228" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="219"/>
-      <c r="D19" s="219"/>
+      <c r="B19" s="233" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="223"/>
+      <c r="D19" s="223"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="155"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
       <c r="O19" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="220" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="219"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="229"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="155"/>
-      <c r="K20" s="155"/>
-      <c r="L20" s="155"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="155"/>
+      <c r="B20" s="222" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="223"/>
+      <c r="D20" s="223"/>
+      <c r="E20" s="234"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="154"/>
       <c r="O20" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="220" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="219"/>
-      <c r="D21" s="219"/>
+      <c r="B21" s="222" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="223"/>
+      <c r="D21" s="223"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="155"/>
-      <c r="M21" s="155"/>
-      <c r="N21" s="155"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
       <c r="O21" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="221" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="222"/>
-      <c r="D22" s="222"/>
-      <c r="E22" s="223"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="155"/>
+      <c r="B22" s="228" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="229"/>
+      <c r="D22" s="229"/>
+      <c r="E22" s="230"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
       <c r="O22" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5691,7 +5635,7 @@
     <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L23" s="21"/>
       <c r="M23" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O23" s="1">
         <f>MAX(J3:J11)</f>
@@ -5700,7 +5644,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5709,7 +5653,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="23"/>
       <c r="N24" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O24" s="19">
         <f>SUM(O16:O22)</f>
@@ -5721,7 +5665,7 @@
       <c r="H25" s="26"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O25" s="27">
         <f>IFERROR(ROUND(O24/O23,3),0)</f>
@@ -5744,7 +5688,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="32"/>
       <c r="N27" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O27" s="29"/>
     </row>
@@ -5752,7 +5696,7 @@
     <row r="29" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H29" s="33"/>
       <c r="L29" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M29" s="35"/>
       <c r="N29" s="36"/>
@@ -5780,7 +5724,7 @@
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -5788,7 +5732,7 @@
       <c r="E33" s="40"/>
       <c r="F33" s="38"/>
       <c r="H33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -5836,28 +5780,28 @@
     <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:E20"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
@@ -5904,11 +5848,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -5916,11 +5860,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -5928,54 +5872,54 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="152"/>
+      <c r="C4" s="151"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="164"/>
+      <c r="L4" s="162"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="130"/>
+        <v>15</v>
+      </c>
+      <c r="J5" s="129"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="H6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="93"/>
@@ -5985,106 +5929,106 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="173"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="175"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="209"/>
+      <c r="K7" s="209"/>
+      <c r="L7" s="210"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="172"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="179"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="203"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="172"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="179"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="203"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="172"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="179"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="203"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="172"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="179"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="203"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="169" t="s">
+      <c r="H12" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="172"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="179"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="202"/>
+      <c r="L12" s="203"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="169" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="172"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="178"/>
-      <c r="L13" s="179"/>
+      <c r="H13" s="167" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="201"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="203"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="169" t="s">
-        <v>159</v>
-      </c>
-      <c r="I14" s="172"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="179"/>
+      <c r="H14" s="167" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="201"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="203"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="172"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="179"/>
+        <v>156</v>
+      </c>
+      <c r="I15" s="201"/>
+      <c r="J15" s="202"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="203"/>
     </row>
     <row r="16" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="3"/>
@@ -6095,7 +6039,7 @@
     </row>
     <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6119,10 +6063,10 @@
       <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="132"/>
+      <c r="A20" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="131"/>
       <c r="C20" s="92"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -6131,84 +6075,84 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="134"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="133"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G22" s="26"/>
-      <c r="H22" s="124" t="s">
-        <v>84</v>
+      <c r="H22" s="123" t="s">
+        <v>82</v>
       </c>
       <c r="I22" s="79"/>
       <c r="K22" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="112" t="s">
-        <v>80</v>
+      <c r="B23" s="111" t="s">
+        <v>78</v>
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="84"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="113">
+      <c r="E23" s="155"/>
+      <c r="F23" s="112">
         <v>0.5</v>
       </c>
-      <c r="G23" s="125"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="117">
+      <c r="G23" s="124"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="116">
         <f>F23*H23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="112" t="s">
-        <v>81</v>
+      <c r="B24" s="111" t="s">
+        <v>79</v>
       </c>
       <c r="C24" s="69"/>
       <c r="D24" s="84"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="113">
+      <c r="E24" s="155"/>
+      <c r="F24" s="112">
         <v>0.3</v>
       </c>
-      <c r="G24" s="125"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="117">
+      <c r="G24" s="124"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="116">
         <f>F24*H24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="112" t="s">
-        <v>82</v>
+      <c r="B25" s="111" t="s">
+        <v>80</v>
       </c>
       <c r="C25" s="69"/>
       <c r="D25" s="84"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="113">
+      <c r="E25" s="155"/>
+      <c r="F25" s="112">
         <v>0.1</v>
       </c>
-      <c r="G25" s="125"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="117">
+      <c r="G25" s="124"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="116">
         <f>F25*H25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="69" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" s="70"/>
       <c r="D26" s="70"/>
@@ -6216,7 +6160,7 @@
         <f>SUM(E23:E25)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="116"/>
+      <c r="F26" s="115"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
@@ -6225,12 +6169,12 @@
     </row>
     <row r="27" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G27" s="95" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="127">
+      <c r="J27" s="125"/>
+      <c r="K27" s="126">
         <f>IF(SUM(K23:K26)&gt;10,10,SUM(K23:K26))</f>
         <v>0</v>
       </c>
@@ -6240,7 +6184,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6257,13 +6201,13 @@
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" s="70"/>
       <c r="D30" s="84"/>
-      <c r="E30" s="156"/>
+      <c r="E30" s="155"/>
       <c r="F30" s="69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G30" s="84"/>
       <c r="H30" s="86">
@@ -6299,14 +6243,14 @@
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E33" s="92" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="93"/>
       <c r="J33" s="94"/>
-      <c r="K33" s="157"/>
+      <c r="K33" s="156"/>
     </row>
     <row r="34" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K34" s="91"/>
@@ -6314,7 +6258,7 @@
     </row>
     <row r="35" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G35" s="95" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -6330,34 +6274,34 @@
     <row r="36" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I37" s="72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J37" s="99"/>
       <c r="K37" s="99"/>
-      <c r="L37" s="128">
+      <c r="L37" s="127">
         <f>ROUND(K27*0.3 + K35*0.7,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L38" s="129"/>
+      <c r="L38" s="128"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L39" s="129"/>
+      <c r="L39" s="128"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L40" s="129"/>
+      <c r="L40" s="128"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
       <c r="E45" s="40"/>
       <c r="H45" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -6420,11 +6364,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -6432,11 +6376,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -6444,54 +6388,54 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="152"/>
+      <c r="C4" s="151"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="164"/>
+      <c r="L4" s="162"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="130"/>
+        <v>15</v>
+      </c>
+      <c r="J5" s="129"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="H6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="93"/>
@@ -6501,106 +6445,106 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="173"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="175"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="209"/>
+      <c r="K7" s="209"/>
+      <c r="L7" s="210"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="172"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="179"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="203"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="172"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="179"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="203"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="172"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="179"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="203"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="172"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="179"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="203"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="169" t="s">
+      <c r="H12" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="168"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="169"/>
-      <c r="L12" s="170"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="167"/>
+      <c r="L12" s="168"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="169" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="168"/>
-      <c r="J13" s="169"/>
-      <c r="K13" s="169"/>
-      <c r="L13" s="170"/>
+      <c r="H13" s="167" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="166"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
+      <c r="L13" s="168"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="169" t="s">
-        <v>159</v>
-      </c>
-      <c r="I14" s="168"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="169"/>
-      <c r="L14" s="170"/>
+      <c r="H14" s="167" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="166"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="167"/>
+      <c r="L14" s="168"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="169" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="168"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="170"/>
+      <c r="H15" s="167" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="166"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
+      <c r="L15" s="168"/>
     </row>
     <row r="16" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="3"/>
@@ -6611,7 +6555,7 @@
     </row>
     <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6635,10 +6579,10 @@
       <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="132"/>
+      <c r="A20" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="131"/>
       <c r="C20" s="92"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -6647,84 +6591,84 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="134"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="133"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G22" s="26"/>
-      <c r="H22" s="124" t="s">
-        <v>84</v>
+      <c r="H22" s="123" t="s">
+        <v>82</v>
       </c>
       <c r="I22" s="79"/>
       <c r="K22" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="112" t="s">
-        <v>80</v>
+      <c r="B23" s="111" t="s">
+        <v>78</v>
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="84"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="113">
+      <c r="E23" s="155"/>
+      <c r="F23" s="112">
         <v>0.5</v>
       </c>
-      <c r="G23" s="125"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="117">
+      <c r="G23" s="124"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="116">
         <f>F23*H23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="112" t="s">
-        <v>81</v>
+      <c r="B24" s="111" t="s">
+        <v>79</v>
       </c>
       <c r="C24" s="69"/>
       <c r="D24" s="84"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="113">
+      <c r="E24" s="155"/>
+      <c r="F24" s="112">
         <v>0.3</v>
       </c>
-      <c r="G24" s="125"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="117">
+      <c r="G24" s="124"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="116">
         <f>F24*H24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="112" t="s">
-        <v>82</v>
+      <c r="B25" s="111" t="s">
+        <v>80</v>
       </c>
       <c r="C25" s="69"/>
       <c r="D25" s="84"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="113">
+      <c r="E25" s="155"/>
+      <c r="F25" s="112">
         <v>0.1</v>
       </c>
-      <c r="G25" s="125"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="117">
+      <c r="G25" s="124"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="116">
         <f>F25*H25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="69" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" s="70"/>
       <c r="D26" s="70"/>
@@ -6732,7 +6676,7 @@
         <f>SUM(E23:E25)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="116"/>
+      <c r="F26" s="115"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
@@ -6741,12 +6685,12 @@
     </row>
     <row r="27" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G27" s="95" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="127">
+      <c r="J27" s="125"/>
+      <c r="K27" s="126">
         <f>IF(SUM(K23:K26)&gt;10,10,SUM(K23:K26))</f>
         <v>0</v>
       </c>
@@ -6756,7 +6700,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6773,13 +6717,13 @@
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" s="70"/>
       <c r="D30" s="84"/>
-      <c r="E30" s="156"/>
+      <c r="E30" s="155"/>
       <c r="F30" s="69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G30" s="84"/>
       <c r="H30" s="86">
@@ -6815,14 +6759,14 @@
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E33" s="92" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="93"/>
       <c r="J33" s="94"/>
-      <c r="K33" s="157"/>
+      <c r="K33" s="156"/>
     </row>
     <row r="34" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K34" s="91"/>
@@ -6830,7 +6774,7 @@
     </row>
     <row r="35" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G35" s="95" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -6846,34 +6790,34 @@
     <row r="36" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I37" s="72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J37" s="99"/>
       <c r="K37" s="99"/>
-      <c r="L37" s="128">
+      <c r="L37" s="127">
         <f>ROUND(K27*0.3 + K35*0.7,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L38" s="129"/>
+      <c r="L38" s="128"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L39" s="129"/>
+      <c r="L39" s="128"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L40" s="129"/>
+      <c r="L40" s="128"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
       <c r="E45" s="40"/>
       <c r="H45" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -6882,16 +6826,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I10:L10"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I10:L10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
@@ -6936,11 +6880,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -6948,11 +6892,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -6960,54 +6904,54 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="152"/>
+      <c r="C4" s="151"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="164"/>
+      <c r="L4" s="162"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="130"/>
+        <v>15</v>
+      </c>
+      <c r="J5" s="129"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="H6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="93"/>
@@ -7017,106 +6961,106 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="173"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="175"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="209"/>
+      <c r="K7" s="209"/>
+      <c r="L7" s="210"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="172"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="179"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="203"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="172"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="179"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="203"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="172"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="179"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="203"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="172"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="179"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="203"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="169" t="s">
+      <c r="H12" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="172"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="179"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="202"/>
+      <c r="L12" s="203"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="169" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="172"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="178"/>
-      <c r="L13" s="179"/>
+      <c r="H13" s="167" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="201"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="203"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="169" t="s">
-        <v>159</v>
-      </c>
-      <c r="I14" s="172"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="179"/>
+      <c r="H14" s="167" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="201"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="203"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="172"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="179"/>
+        <v>156</v>
+      </c>
+      <c r="I15" s="201"/>
+      <c r="J15" s="202"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="203"/>
     </row>
     <row r="16" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="3"/>
@@ -7127,7 +7071,7 @@
     </row>
     <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -7151,10 +7095,10 @@
       <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="132"/>
+      <c r="A20" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="131"/>
       <c r="C20" s="92"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -7163,94 +7107,94 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="134"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="133"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G22" s="26"/>
-      <c r="H22" s="111" t="s">
-        <v>87</v>
+      <c r="H22" s="110" t="s">
+        <v>85</v>
       </c>
       <c r="I22" s="79"/>
       <c r="K22" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="112" t="s">
-        <v>80</v>
+      <c r="B23" s="111" t="s">
+        <v>78</v>
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="84"/>
-      <c r="E23" s="156">
-        <v>0</v>
-      </c>
-      <c r="F23" s="113">
+      <c r="E23" s="155">
+        <v>0</v>
+      </c>
+      <c r="F23" s="112">
         <v>0.4</v>
       </c>
-      <c r="G23" s="114"/>
-      <c r="H23" s="171">
+      <c r="G23" s="113"/>
+      <c r="H23" s="169">
         <f>IF(E23&gt;24,25,E23)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="117">
+      <c r="I23" s="114"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="116">
         <f>F23*H23</f>
         <v>0</v>
       </c>
       <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="112" t="s">
-        <v>81</v>
+      <c r="B24" s="111" t="s">
+        <v>79</v>
       </c>
       <c r="C24" s="69"/>
       <c r="D24" s="84"/>
-      <c r="E24" s="156">
-        <v>0</v>
-      </c>
-      <c r="F24" s="113">
+      <c r="E24" s="155">
+        <v>0</v>
+      </c>
+      <c r="F24" s="112">
         <v>0.3</v>
       </c>
-      <c r="G24" s="114"/>
-      <c r="H24" s="171">
+      <c r="G24" s="113"/>
+      <c r="H24" s="169">
         <f>IF(SUM(E23:E24)&gt;24,25-H23,E24)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="117">
+      <c r="I24" s="114"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="116">
         <f>F24*H24</f>
         <v>0</v>
       </c>
       <c r="L24" s="21"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="112" t="s">
-        <v>82</v>
+      <c r="B25" s="111" t="s">
+        <v>80</v>
       </c>
       <c r="C25" s="69"/>
       <c r="D25" s="84"/>
-      <c r="E25" s="156">
-        <v>0</v>
-      </c>
-      <c r="F25" s="113">
+      <c r="E25" s="155">
+        <v>0</v>
+      </c>
+      <c r="F25" s="112">
         <v>0.1</v>
       </c>
-      <c r="G25" s="114"/>
-      <c r="H25" s="171">
+      <c r="G25" s="113"/>
+      <c r="H25" s="169">
         <f>IF(SUM(E23:E25)&gt;24,IF(25-SUM(H23:H24)&gt;0,25-SUM(H23:H24),0),E25)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="117">
+      <c r="I25" s="114"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="116">
         <f>F25*H25</f>
         <v>0</v>
       </c>
@@ -7258,7 +7202,7 @@
     </row>
     <row r="26" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="69" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" s="70"/>
       <c r="D26" s="70"/>
@@ -7266,26 +7210,26 @@
         <f>SUM(E23:E25)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="118" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="120"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="119"/>
       <c r="K27" s="97">
         <f>IF(SUM(K23:K26)&gt;10,10,SUM(K23:K26))</f>
         <v>0</v>
@@ -7298,18 +7242,18 @@
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="123"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="122"/>
       <c r="L28" s="98"/>
     </row>
     <row r="29" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7326,15 +7270,15 @@
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" s="70"/>
       <c r="D31" s="84"/>
-      <c r="E31" s="156">
+      <c r="E31" s="155">
         <v>0</v>
       </c>
       <c r="F31" s="69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G31" s="84"/>
       <c r="H31" s="86">
@@ -7370,14 +7314,14 @@
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="92" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="93"/>
       <c r="J34" s="94"/>
-      <c r="K34" s="157">
+      <c r="K34" s="156">
         <v>0</v>
       </c>
     </row>
@@ -7387,7 +7331,7 @@
     </row>
     <row r="36" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G36" s="95" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
@@ -7403,7 +7347,7 @@
     <row r="37" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I38" s="72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J38" s="99"/>
       <c r="K38" s="99"/>
@@ -7414,14 +7358,14 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
       <c r="E45" s="40"/>
       <c r="H45" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -7459,10 +7403,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="C5" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -7484,11 +7428,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -7496,11 +7440,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -7508,54 +7452,54 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="152"/>
+      <c r="C4" s="151"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="164"/>
+      <c r="L4" s="162"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="130"/>
+        <v>15</v>
+      </c>
+      <c r="J5" s="129"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="H6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="93"/>
@@ -7565,85 +7509,85 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="173"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="175"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="209"/>
+      <c r="K7" s="209"/>
+      <c r="L7" s="210"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="172"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="179"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="203"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="172"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="179"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="203"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="172"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="179"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="203"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="172"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="179"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="203"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="172"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="179"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="202"/>
+      <c r="L12" s="203"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
-      <c r="H13" s="169" t="s">
-        <v>158</v>
+      <c r="H13" s="167" t="s">
+        <v>154</v>
       </c>
       <c r="I13" s="42"/>
       <c r="J13" s="3"/>
@@ -7652,8 +7596,8 @@
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14"/>
-      <c r="H14" s="169" t="s">
-        <v>159</v>
+      <c r="H14" s="167" t="s">
+        <v>155</v>
       </c>
       <c r="I14" s="42"/>
       <c r="J14" s="3"/>
@@ -7662,37 +7606,37 @@
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14"/>
-      <c r="H15" s="169" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="168"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="169"/>
+      <c r="H15" s="167" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="166"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
+      <c r="L15" s="167"/>
     </row>
     <row r="16" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="242" t="s">
-        <v>91</v>
+      <c r="K16" s="170" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="230" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="233" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="234"/>
-      <c r="D17" s="234"/>
-      <c r="E17" s="234"/>
-      <c r="F17" s="234"/>
-      <c r="G17" s="234"/>
-      <c r="H17" s="234"/>
-      <c r="I17" s="235"/>
+      <c r="A17" s="235" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="238" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="239"/>
+      <c r="D17" s="239"/>
+      <c r="E17" s="239"/>
+      <c r="F17" s="239"/>
+      <c r="G17" s="239"/>
+      <c r="H17" s="239"/>
+      <c r="I17" s="240"/>
       <c r="J17" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="158"/>
+      <c r="K17" s="157"/>
       <c r="L17" s="102">
         <f>K17*0.25</f>
         <v>0</v>
@@ -7700,154 +7644,138 @@
       <c r="M17" s="103"/>
     </row>
     <row r="18" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="231"/>
-      <c r="B18" s="236" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="237"/>
-      <c r="D18" s="237"/>
-      <c r="E18" s="237"/>
-      <c r="F18" s="237"/>
-      <c r="G18" s="237"/>
-      <c r="H18" s="237"/>
-      <c r="I18" s="237"/>
+      <c r="A18" s="236"/>
+      <c r="B18" s="241" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
+      <c r="E18" s="242"/>
+      <c r="F18" s="242"/>
+      <c r="G18" s="242"/>
+      <c r="H18" s="242"/>
+      <c r="I18" s="242"/>
       <c r="J18" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="159"/>
+      <c r="K18" s="158"/>
       <c r="L18" s="105">
         <f>K18*0.25</f>
         <v>0</v>
       </c>
       <c r="M18" s="103"/>
     </row>
-    <row r="19" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="230" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="238" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="239"/>
-      <c r="D19" s="239"/>
-      <c r="E19" s="239"/>
-      <c r="F19" s="239"/>
-      <c r="G19" s="239"/>
-      <c r="H19" s="239"/>
-      <c r="I19" s="239"/>
+    <row r="19" spans="1:13" ht="110.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="235" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="245" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="246"/>
+      <c r="D19" s="246"/>
+      <c r="E19" s="246"/>
+      <c r="F19" s="246"/>
+      <c r="G19" s="246"/>
+      <c r="H19" s="246"/>
+      <c r="I19" s="247"/>
       <c r="J19" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" s="159"/>
+      <c r="L19" s="106">
+        <f>K19*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="103"/>
+    </row>
+    <row r="20" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="237"/>
+      <c r="B20" s="243" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="244"/>
+      <c r="D20" s="244"/>
+      <c r="E20" s="244"/>
+      <c r="F20" s="244"/>
+      <c r="G20" s="244"/>
+      <c r="H20" s="244"/>
+      <c r="I20" s="244"/>
+      <c r="J20" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="160"/>
-      <c r="L19" s="106">
-        <f>K19*0.2</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="103"/>
-    </row>
-    <row r="20" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="232"/>
-      <c r="B20" s="240" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="241"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="241"/>
-      <c r="F20" s="241"/>
-      <c r="G20" s="241"/>
-      <c r="H20" s="241"/>
-      <c r="I20" s="241"/>
-      <c r="J20" s="107" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="161"/>
+      <c r="K20" s="160"/>
       <c r="L20" s="108">
         <f>K20*0.2</f>
         <v>0</v>
       </c>
       <c r="M20" s="103"/>
     </row>
-    <row r="21" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="231"/>
-      <c r="B21" s="236" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="237"/>
-      <c r="D21" s="237"/>
-      <c r="E21" s="237"/>
-      <c r="F21" s="237"/>
-      <c r="G21" s="237"/>
-      <c r="H21" s="237"/>
-      <c r="I21" s="237"/>
-      <c r="J21" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="162"/>
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L21" s="109">
-        <f>K21*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="103"/>
-    </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K22" s="1" t="s">
+        <f>SUM(L17:L20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="91"/>
+    </row>
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="161"/>
+    </row>
+    <row r="24" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L24" s="91"/>
+    </row>
+    <row r="25" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="100">
+        <f>SUM(L17:L20)-L23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="H28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="110">
-        <f>SUM(L17:L21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L23" s="91"/>
-    </row>
-    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="163"/>
-    </row>
-    <row r="25" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L25" s="91"/>
-    </row>
-    <row r="26" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I26" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="100">
-        <f>SUM(L17:L21)-L24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="H29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
@@ -7859,13 +7787,6 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7880,24 +7801,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7963,30 +7866,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8001,4 +7899,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall)_mer_an_6_deltagar.xlsx
+++ b/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall)_mer_an_6_deltagar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B1C33C-F87C-4B15-A097-CAE2DEA4DE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893C8C89-5B5C-4CEA-A6E0-71F01A416751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="2085" windowWidth="16200" windowHeight="9398" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10800" yWindow="0" windowWidth="10800" windowHeight="12900" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="163">
   <si>
     <t>1)</t>
   </si>
@@ -614,9 +614,6 @@
     <t>Grund</t>
   </si>
   <si>
-    <t>Lag kür svårklass junior</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -673,9 +670,6 @@
   </si>
   <si>
     <t>Protokollen uppdaterades senast 2019-03-28.</t>
-  </si>
-  <si>
-    <t>Sidhopp del 1 och avgång inåt med tryck</t>
   </si>
   <si>
     <t>7)</t>
@@ -722,6 +716,18 @@
   <si>
     <t>C3
 30%</t>
+  </si>
+  <si>
+    <t>Sidhopp del 1 tryck av inåt</t>
+  </si>
+  <si>
+    <t>Grund 2*</t>
+  </si>
+  <si>
+    <t>Svår klass juniorlag kür</t>
+  </si>
+  <si>
+    <t>Grund 3*</t>
   </si>
 </sst>
 </file>
@@ -1762,9 +1768,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2008,17 +2011,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2029,104 +2021,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2136,12 +2035,23 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="169" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2157,6 +2067,114 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2164,39 +2182,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2226,20 +2211,47 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2602,830 +2614,830 @@
     <col min="1" max="18" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="149" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="148" t="s">
+    <row r="1" spans="1:8" s="148" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="147" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="149" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="149" t="s">
+    <row r="2" spans="1:8" s="148" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="148" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="149" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="149" t="s">
+    <row r="3" spans="1:8" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="148" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="164" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="164" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="164" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="164" t="s">
+    <row r="4" spans="1:8" s="163" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="163" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="164" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:8" s="149" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:8" s="135" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="135" t="s">
+    <row r="5" spans="1:8" s="163" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="163" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:8" s="148" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:8" s="134" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="134" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="136"/>
+      <c r="A10" s="135"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="136"/>
-    </row>
-    <row r="12" spans="1:8" s="137" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="137" t="s">
+      <c r="A11" s="135"/>
+    </row>
+    <row r="12" spans="1:8" s="136" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A12" s="136" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="138" t="s">
+      <c r="B13" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="136"/>
-      <c r="F13" s="138" t="s">
+      <c r="C13" s="135"/>
+      <c r="F13" s="137" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="137" t="s">
+      <c r="D14" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137" t="s">
+      <c r="E14" s="136"/>
+      <c r="F14" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="137" t="s">
+      <c r="G14" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="137" t="s">
+      <c r="H14" s="136" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="139" t="s">
+      <c r="B15" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="139"/>
+      <c r="F15" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="138" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="138" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="135"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+    </row>
+    <row r="17" spans="1:9" s="135" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="135" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="139" t="s">
+      <c r="D17" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="140"/>
-      <c r="F15" s="139" t="s">
+      <c r="E17" s="139"/>
+      <c r="F17" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="139" t="s">
+      <c r="G17" s="138" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="139" t="s">
+      <c r="H17" s="138" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="136"/>
-      <c r="B16" s="141"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-    </row>
-    <row r="17" spans="1:9" s="136" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="136" t="s">
+    <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="135"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+    </row>
+    <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="135" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="138" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="138" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="139"/>
+      <c r="F19" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="138" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="138" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="135"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+    </row>
+    <row r="22" spans="1:9" s="136" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="136" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="135"/>
+      <c r="F23" s="137" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="136" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="136" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="136" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="135" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="138" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="138" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="135"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+    </row>
+    <row r="27" spans="1:9" s="135" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="135" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="139" t="s">
+      <c r="B27" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="139" t="s">
+      <c r="C27" s="138" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="138" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="138" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="138" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="138" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="135"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+    </row>
+    <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="135" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="139" t="s">
+      <c r="D29" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="140"/>
-      <c r="F17" s="139" t="s">
+      <c r="E29" s="138" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="139" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="139" t="s">
+      <c r="G29" s="138" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="138" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="136"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-    </row>
-    <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="136" t="s">
+      <c r="I29" s="138" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="162"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="162"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="162"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="162"/>
+      <c r="E31" s="162"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="162"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+    </row>
+    <row r="33" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="136" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="135"/>
+      <c r="F35" s="137" t="s">
+        <v>102</v>
+      </c>
+      <c r="J35" s="137" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="136" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36" s="136" t="s">
+        <v>103</v>
+      </c>
+      <c r="K36" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="L36" s="136" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="135" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="139"/>
+      <c r="F37" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="138" t="s">
+        <v>148</v>
+      </c>
+      <c r="H37" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="J37" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="K37" s="138" t="s">
+        <v>148</v>
+      </c>
+      <c r="L37" s="138" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="135"/>
+      <c r="B38" s="140"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="162"/>
+      <c r="F38" s="140"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="140"/>
+      <c r="J38" s="140"/>
+      <c r="K38" s="140"/>
+      <c r="L38" s="140"/>
+    </row>
+    <row r="39" spans="1:17" s="135" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="135" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="138" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="138" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="139"/>
+      <c r="F39" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="138" t="s">
+        <v>149</v>
+      </c>
+      <c r="H39" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="J39" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="K39" s="138" t="s">
+        <v>149</v>
+      </c>
+      <c r="L39" s="138" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="135"/>
+      <c r="B40" s="140"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="162"/>
+      <c r="F40" s="140"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="140"/>
+      <c r="J40" s="140"/>
+      <c r="K40" s="140"/>
+      <c r="L40" s="140"/>
+    </row>
+    <row r="41" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="139" t="s">
+      <c r="B41" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="140"/>
-      <c r="F19" s="139" t="s">
+      <c r="C41" s="138" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="138" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="139"/>
+      <c r="F41" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="139" t="s">
+      <c r="G41" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="H19" s="139" t="s">
+      <c r="H41" s="138" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="136"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-    </row>
-    <row r="22" spans="1:9" s="137" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="137" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="138" t="s">
+      <c r="J41" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="K41" s="138" t="s">
+        <v>134</v>
+      </c>
+      <c r="L41" s="138" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="135"/>
+      <c r="B42" s="162"/>
+      <c r="C42" s="162"/>
+      <c r="D42" s="162"/>
+      <c r="E42" s="162"/>
+      <c r="F42" s="162"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="162"/>
+      <c r="J42" s="162"/>
+      <c r="K42" s="162"/>
+      <c r="L42" s="162"/>
+    </row>
+    <row r="43" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="135"/>
+      <c r="B43" s="162"/>
+      <c r="C43" s="162"/>
+      <c r="D43" s="162"/>
+      <c r="E43" s="162"/>
+      <c r="F43" s="162"/>
+      <c r="G43" s="162"/>
+      <c r="H43" s="162"/>
+      <c r="J43" s="162"/>
+      <c r="K43" s="162"/>
+      <c r="L43" s="162"/>
+    </row>
+    <row r="45" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A45" s="136" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="136"/>
-      <c r="F23" s="138" t="s">
+      <c r="C47" s="135"/>
+      <c r="F47" s="137" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
+      <c r="J47" s="137" t="s">
+        <v>109</v>
+      </c>
+      <c r="K47" s="135"/>
+      <c r="N47" s="137"/>
+    </row>
+    <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="137" t="s">
+      <c r="C48" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="137" t="s">
+      <c r="D48" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="137" t="s">
+      <c r="E48" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="137" t="s">
+      <c r="F48" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="137" t="s">
+      <c r="G48" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="137" t="s">
+      <c r="H48" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="I24" s="137" t="s">
+      <c r="I48" s="136" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="136" t="s">
+      <c r="J48" s="136" t="s">
+        <v>103</v>
+      </c>
+      <c r="K48" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="L48" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="M48" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="N48" s="136"/>
+      <c r="O48" s="136"/>
+      <c r="P48" s="136"/>
+      <c r="Q48" s="136"/>
+    </row>
+    <row r="49" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="139" t="s">
+      <c r="B49" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="139" t="s">
+      <c r="C49" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" s="138" t="s">
+        <v>148</v>
+      </c>
+      <c r="H49" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="I49" s="138" t="s">
+        <v>148</v>
+      </c>
+      <c r="J49" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="K49" s="138" t="s">
+        <v>148</v>
+      </c>
+      <c r="L49" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="M49" s="138" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="135"/>
+      <c r="B50" s="140"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="140"/>
+      <c r="F50" s="140"/>
+      <c r="G50" s="140"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="140"/>
+      <c r="K50" s="140"/>
+      <c r="L50" s="140"/>
+      <c r="M50" s="140"/>
+    </row>
+    <row r="51" spans="1:13" s="135" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="135" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="139" t="s">
+      <c r="D51" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="139" t="s">
+      <c r="E51" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="F25" s="139" t="s">
+      <c r="F51" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="139" t="s">
+      <c r="G51" s="138" t="s">
         <v>149</v>
       </c>
-      <c r="H25" s="139" t="s">
+      <c r="H51" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="I25" s="139" t="s">
+      <c r="I51" s="138" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="136"/>
-      <c r="B26" s="141"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
-    </row>
-    <row r="27" spans="1:9" s="136" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="136" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="139" t="s">
+      <c r="J51" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="139" t="s">
+      <c r="K51" s="138" t="s">
+        <v>149</v>
+      </c>
+      <c r="L51" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="M51" s="138" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="135"/>
+      <c r="B52" s="140"/>
+      <c r="C52" s="140"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="140"/>
+      <c r="F52" s="140"/>
+      <c r="G52" s="140"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="140"/>
+      <c r="K52" s="140"/>
+      <c r="L52" s="140"/>
+      <c r="M52" s="140"/>
+    </row>
+    <row r="53" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="135" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="139" t="s">
+      <c r="D53" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="E27" s="139" t="s">
+      <c r="E53" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="139" t="s">
+      <c r="F53" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="139" t="s">
-        <v>150</v>
-      </c>
-      <c r="H27" s="139" t="s">
+      <c r="G53" s="138" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="I27" s="139" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="136"/>
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-    </row>
-    <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="136" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="139" t="s">
+      <c r="I53" s="138" t="s">
+        <v>134</v>
+      </c>
+      <c r="J53" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="F29" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" s="139" t="s">
+      <c r="K53" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="139" t="s">
+      <c r="L53" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="I29" s="139" t="s">
+      <c r="M53" s="138" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="163"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="163"/>
-      <c r="E30" s="163"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="163"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="163"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="163"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="163"/>
-    </row>
-    <row r="33" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="137" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="138" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="136"/>
-      <c r="F35" s="138" t="s">
-        <v>102</v>
-      </c>
-      <c r="J35" s="138" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="137" t="s">
+    <row r="56" spans="1:13" s="148" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A56" s="146" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="145" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A57" s="144"/>
+      <c r="B57" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="137" t="s">
+      <c r="C57" s="144" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="137" t="s">
+      <c r="D57" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137" t="s">
-        <v>103</v>
-      </c>
-      <c r="G36" s="137" t="s">
-        <v>104</v>
-      </c>
-      <c r="H36" s="137" t="s">
-        <v>105</v>
-      </c>
-      <c r="J36" s="137" t="s">
-        <v>103</v>
-      </c>
-      <c r="K36" s="137" t="s">
-        <v>104</v>
-      </c>
-      <c r="L36" s="137" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="136" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="139" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="139" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="140"/>
-      <c r="F37" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="H37" s="139" t="s">
-        <v>114</v>
-      </c>
-      <c r="J37" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="K37" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="L37" s="139" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="136"/>
-      <c r="B38" s="141"/>
-      <c r="C38" s="141"/>
-      <c r="D38" s="141"/>
-      <c r="E38" s="163"/>
-      <c r="F38" s="141"/>
-      <c r="G38" s="141"/>
-      <c r="H38" s="141"/>
-      <c r="J38" s="141"/>
-      <c r="K38" s="141"/>
-      <c r="L38" s="141"/>
-    </row>
-    <row r="39" spans="1:17" s="136" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="136" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="139" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" s="139" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="140"/>
-      <c r="F39" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="G39" s="139" t="s">
-        <v>150</v>
-      </c>
-      <c r="H39" s="139" t="s">
-        <v>114</v>
-      </c>
-      <c r="J39" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="K39" s="139" t="s">
-        <v>150</v>
-      </c>
-      <c r="L39" s="139" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="136"/>
-      <c r="B40" s="141"/>
-      <c r="C40" s="141"/>
-      <c r="D40" s="141"/>
-      <c r="E40" s="163"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="141"/>
-      <c r="H40" s="141"/>
-      <c r="J40" s="141"/>
-      <c r="K40" s="141"/>
-      <c r="L40" s="141"/>
-    </row>
-    <row r="41" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="136" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41" s="140"/>
-      <c r="F41" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="G41" s="139" t="s">
-        <v>134</v>
-      </c>
-      <c r="H41" s="139" t="s">
-        <v>114</v>
-      </c>
-      <c r="J41" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="K41" s="139" t="s">
-        <v>134</v>
-      </c>
-      <c r="L41" s="139" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="136"/>
-      <c r="B42" s="163"/>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
-      <c r="E42" s="163"/>
-      <c r="F42" s="163"/>
-      <c r="G42" s="163"/>
-      <c r="H42" s="163"/>
-      <c r="J42" s="163"/>
-      <c r="K42" s="163"/>
-      <c r="L42" s="163"/>
-    </row>
-    <row r="43" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="136"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="163"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="163"/>
-      <c r="J43" s="163"/>
-      <c r="K43" s="163"/>
-      <c r="L43" s="163"/>
-    </row>
-    <row r="45" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="137" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="138" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="136"/>
-      <c r="F47" s="138" t="s">
-        <v>102</v>
-      </c>
-      <c r="J47" s="138" t="s">
-        <v>109</v>
-      </c>
-      <c r="K47" s="136"/>
-      <c r="N47" s="138"/>
-    </row>
-    <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="137" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="137" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="137" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="137" t="s">
+      <c r="E57" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="137" t="s">
-        <v>103</v>
-      </c>
-      <c r="G48" s="137" t="s">
-        <v>104</v>
-      </c>
-      <c r="H48" s="137" t="s">
-        <v>105</v>
-      </c>
-      <c r="I48" s="137" t="s">
-        <v>107</v>
-      </c>
-      <c r="J48" s="137" t="s">
-        <v>103</v>
-      </c>
-      <c r="K48" s="137" t="s">
-        <v>104</v>
-      </c>
-      <c r="L48" s="137" t="s">
-        <v>105</v>
-      </c>
-      <c r="M48" s="137" t="s">
-        <v>107</v>
-      </c>
-      <c r="N48" s="137"/>
-      <c r="O48" s="137"/>
-      <c r="P48" s="137"/>
-      <c r="Q48" s="137"/>
-    </row>
-    <row r="49" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="136" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="139" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="139" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" s="139" t="s">
-        <v>145</v>
-      </c>
-      <c r="F49" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="G49" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="H49" s="139" t="s">
-        <v>114</v>
-      </c>
-      <c r="I49" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="J49" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="K49" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="L49" s="139" t="s">
-        <v>114</v>
-      </c>
-      <c r="M49" s="139" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="136"/>
-      <c r="B50" s="141"/>
-      <c r="C50" s="141"/>
-      <c r="D50" s="141"/>
-      <c r="E50" s="141"/>
-      <c r="F50" s="141"/>
-      <c r="G50" s="141"/>
-      <c r="H50" s="141"/>
-      <c r="I50" s="141"/>
-      <c r="J50" s="141"/>
-      <c r="K50" s="141"/>
-      <c r="L50" s="141"/>
-      <c r="M50" s="141"/>
-    </row>
-    <row r="51" spans="1:13" s="136" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="136" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="139" t="s">
-        <v>146</v>
-      </c>
-      <c r="D51" s="139" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" s="139" t="s">
-        <v>146</v>
-      </c>
-      <c r="F51" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="G51" s="139" t="s">
-        <v>150</v>
-      </c>
-      <c r="H51" s="139" t="s">
-        <v>114</v>
-      </c>
-      <c r="I51" s="139" t="s">
-        <v>150</v>
-      </c>
-      <c r="J51" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="K51" s="139" t="s">
-        <v>150</v>
-      </c>
-      <c r="L51" s="139" t="s">
-        <v>114</v>
-      </c>
-      <c r="M51" s="139" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="136"/>
-      <c r="B52" s="141"/>
-      <c r="C52" s="141"/>
-      <c r="D52" s="141"/>
-      <c r="E52" s="141"/>
-      <c r="F52" s="141"/>
-      <c r="G52" s="141"/>
-      <c r="H52" s="141"/>
-      <c r="I52" s="141"/>
-      <c r="J52" s="141"/>
-      <c r="K52" s="141"/>
-      <c r="L52" s="141"/>
-      <c r="M52" s="141"/>
-    </row>
-    <row r="53" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="136" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="D53" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="E53" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="F53" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="G53" s="139" t="s">
-        <v>134</v>
-      </c>
-      <c r="H53" s="139" t="s">
-        <v>114</v>
-      </c>
-      <c r="I53" s="139" t="s">
-        <v>134</v>
-      </c>
-      <c r="J53" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="K53" s="139" t="s">
-        <v>134</v>
-      </c>
-      <c r="L53" s="139" t="s">
-        <v>114</v>
-      </c>
-      <c r="M53" s="139" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="149" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A56" s="147" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="146" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A57" s="145"/>
-      <c r="B57" s="145" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="145" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57" s="145" t="s">
-        <v>105</v>
-      </c>
-      <c r="E57" s="145" t="s">
-        <v>107</v>
-      </c>
-      <c r="F57" s="145" t="s">
+      <c r="F57" s="144" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="144" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="143" t="s">
+    <row r="58" spans="1:13" s="143" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="143" t="s">
+      <c r="B58" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="143" t="s">
+      <c r="C58" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="143" t="s">
+      <c r="D58" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="143" t="s">
+      <c r="E58" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="F58" s="143" t="s">
+      <c r="F58" s="142" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="144" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="143" t="s">
+    <row r="59" spans="1:13" s="143" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="143" t="s">
+      <c r="B59" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="143" t="s">
+      <c r="C59" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="143" t="s">
+      <c r="D59" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="143" t="s">
+      <c r="E59" s="142" t="s">
         <v>129</v>
       </c>
-      <c r="F59" s="143" t="s">
+      <c r="F59" s="142" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="144" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="143"/>
-      <c r="B60" s="143"/>
-      <c r="C60" s="143"/>
-      <c r="D60" s="143"/>
-      <c r="E60" s="143"/>
-      <c r="F60" s="143" t="s">
+    <row r="60" spans="1:13" s="143" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="142"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="142"/>
+      <c r="E60" s="142"/>
+      <c r="F60" s="142" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3496,7 +3508,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="151"/>
+      <c r="C4" s="150"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="G4" s="9"/>
@@ -3512,14 +3524,14 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
       <c r="G5" s="9"/>
       <c r="H5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="129"/>
+      <c r="I5" s="128"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
     </row>
@@ -3528,9 +3540,9 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
       <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
@@ -3540,83 +3552,83 @@
         <v>93</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
       <c r="G7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="200"/>
-      <c r="I7" s="209"/>
-      <c r="J7" s="209"/>
-      <c r="K7" s="210"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="171"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
       <c r="G8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="201"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="203"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="175"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="201"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
       <c r="G9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="201"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="203"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="175"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
       <c r="G10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="201"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="203"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="175"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="201"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="203"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="175"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="G12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="201"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="203"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="175"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
@@ -3627,212 +3639,212 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="204" t="s">
+      <c r="G14" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="205"/>
-      <c r="I14" s="206" t="s">
+      <c r="H14" s="187"/>
+      <c r="I14" s="188" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="207"/>
-      <c r="K14" s="208"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="190"/>
     </row>
     <row r="15" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="191" t="s">
+      <c r="B15" s="194" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="191" t="s">
+      <c r="C15" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="191"/>
-      <c r="E15" s="194" t="s">
+      <c r="D15" s="194"/>
+      <c r="E15" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="195"/>
+      <c r="F15" s="196"/>
       <c r="G15" s="44"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="183" t="s">
+      <c r="I15" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="215"/>
-      <c r="K15" s="213">
+      <c r="J15" s="181"/>
+      <c r="K15" s="176">
         <f>ROUND(J15*0.3,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="178"/>
-      <c r="B16" s="185"/>
-      <c r="C16" s="185" t="s">
+      <c r="A16" s="192"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="186" t="s">
+      <c r="D16" s="178"/>
+      <c r="E16" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="187"/>
+      <c r="F16" s="180"/>
       <c r="G16" s="46"/>
       <c r="H16" s="47"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="216"/>
-      <c r="K16" s="214"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="177"/>
     </row>
     <row r="17" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="178"/>
-      <c r="B17" s="185"/>
-      <c r="C17" s="185" t="s">
+      <c r="A17" s="192"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="185"/>
-      <c r="E17" s="186" t="s">
+      <c r="D17" s="178"/>
+      <c r="E17" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="187"/>
+      <c r="F17" s="180"/>
       <c r="G17" s="48"/>
       <c r="H17" s="49"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="216"/>
-      <c r="K17" s="214"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="177"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="178"/>
-      <c r="B18" s="196" t="s">
+      <c r="A18" s="192"/>
+      <c r="B18" s="199" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="185" t="s">
+      <c r="C18" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="185"/>
-      <c r="E18" s="186" t="s">
+      <c r="D18" s="178"/>
+      <c r="E18" s="179" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="187"/>
+      <c r="F18" s="180"/>
       <c r="G18" s="50"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="184" t="s">
+      <c r="I18" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="216"/>
-      <c r="K18" s="214">
+      <c r="J18" s="182"/>
+      <c r="K18" s="177">
         <f>ROUND(J18*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="178"/>
-      <c r="B19" s="197"/>
-      <c r="C19" s="185" t="s">
+      <c r="A19" s="192"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="185"/>
-      <c r="E19" s="186" t="s">
+      <c r="D19" s="178"/>
+      <c r="E19" s="179" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="187"/>
+      <c r="F19" s="180"/>
       <c r="G19" s="46"/>
       <c r="H19" s="47"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="216"/>
-      <c r="K19" s="214"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="177"/>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="179"/>
-      <c r="B20" s="198"/>
-      <c r="C20" s="188" t="s">
+      <c r="A20" s="193"/>
+      <c r="B20" s="201"/>
+      <c r="C20" s="203" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="188"/>
-      <c r="E20" s="189" t="s">
+      <c r="D20" s="203"/>
+      <c r="E20" s="204" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="190"/>
+      <c r="F20" s="205"/>
       <c r="G20" s="52"/>
       <c r="H20" s="53"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="217"/>
-      <c r="K20" s="218"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="184"/>
     </row>
     <row r="21" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="177" t="s">
+      <c r="A21" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="180" t="s">
+      <c r="B21" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="191" t="s">
+      <c r="C21" s="194" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="191"/>
-      <c r="E21" s="192" t="s">
+      <c r="D21" s="194"/>
+      <c r="E21" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="193"/>
+      <c r="F21" s="212"/>
       <c r="G21" s="54"/>
       <c r="H21" s="55"/>
-      <c r="I21" s="183" t="s">
+      <c r="I21" s="197" t="s">
         <v>96</v>
       </c>
-      <c r="J21" s="215"/>
-      <c r="K21" s="213">
+      <c r="J21" s="181"/>
+      <c r="K21" s="176">
         <f>ROUND(J21*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="178"/>
-      <c r="B22" s="181"/>
-      <c r="C22" s="185" t="s">
+      <c r="A22" s="192"/>
+      <c r="B22" s="209"/>
+      <c r="C22" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="185"/>
-      <c r="E22" s="186" t="s">
+      <c r="D22" s="178"/>
+      <c r="E22" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="187"/>
+      <c r="F22" s="180"/>
       <c r="G22" s="46"/>
       <c r="H22" s="47"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="216"/>
-      <c r="K22" s="214"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="182"/>
+      <c r="K22" s="177"/>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="178"/>
-      <c r="B23" s="182"/>
-      <c r="C23" s="185" t="s">
+      <c r="A23" s="192"/>
+      <c r="B23" s="210"/>
+      <c r="C23" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="185"/>
-      <c r="E23" s="186" t="s">
+      <c r="D23" s="178"/>
+      <c r="E23" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="187"/>
+      <c r="F23" s="180"/>
       <c r="G23" s="48"/>
       <c r="H23" s="49"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="216"/>
-      <c r="K23" s="214"/>
+      <c r="I23" s="198"/>
+      <c r="J23" s="182"/>
+      <c r="K23" s="177"/>
     </row>
     <row r="24" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="179"/>
+      <c r="A24" s="193"/>
       <c r="B24" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="188"/>
-      <c r="D24" s="188"/>
-      <c r="E24" s="189" t="s">
+      <c r="C24" s="203"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="190"/>
+      <c r="F24" s="205"/>
       <c r="G24" s="57"/>
       <c r="H24" s="58"/>
       <c r="I24" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="152"/>
-      <c r="K24" s="150">
+      <c r="J24" s="151"/>
+      <c r="K24" s="149">
         <f>ROUND(J24*0.15,3)</f>
         <v>0</v>
       </c>
@@ -3841,23 +3853,23 @@
       <c r="A25" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="134" t="s">
+      <c r="B25" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="219" t="s">
+      <c r="C25" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="219"/>
-      <c r="E25" s="175" t="s">
+      <c r="D25" s="185"/>
+      <c r="E25" s="206" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="176"/>
+      <c r="F25" s="207"/>
       <c r="G25" s="61"/>
       <c r="H25" s="62"/>
       <c r="I25" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="J25" s="153"/>
+      <c r="J25" s="152"/>
       <c r="K25" s="64">
         <f>ROUND(J25*0.05,3)</f>
         <v>0</v>
@@ -3888,11 +3900,11 @@
         <v>14</v>
       </c>
       <c r="I27" s="67"/>
-      <c r="J27" s="211">
+      <c r="J27" s="172">
         <f>SUM(K15:K25)</f>
         <v>0</v>
       </c>
-      <c r="K27" s="212"/>
+      <c r="K27" s="173"/>
     </row>
     <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
@@ -3913,6 +3925,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="C6:E6"/>
@@ -3929,40 +3975,6 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="J21:J23"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3983,8 +3995,8 @@
   </sheetPr>
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4021,19 +4033,19 @@
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J3" s="171" t="str">
+        <v>162</v>
+      </c>
+      <c r="J3" s="165" t="str">
         <f>IF(L3&lt;&gt;0,J2+1,"0")</f>
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="200"/>
-      <c r="O3" s="220"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="222"/>
       <c r="R3" s="9"/>
       <c r="S3" s="13" t="s">
         <v>95</v>
@@ -4047,54 +4059,54 @@
         <v>16</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="151"/>
+      <c r="C4" s="150"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="J4" s="171" t="str">
+      <c r="J4" s="165" t="str">
         <f t="shared" ref="J4:J11" si="0">IF(L4&lt;&gt;0,J3+1,"0")</f>
         <v>0</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="201"/>
-      <c r="M4" s="201"/>
-      <c r="N4" s="201"/>
-      <c r="O4" s="221"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="223"/>
       <c r="R4" s="9"/>
       <c r="S4" s="13" t="s">
         <v>86</v>
       </c>
       <c r="T4" s="10"/>
       <c r="U4" s="11"/>
-      <c r="V4" s="162"/>
+      <c r="V4" s="161"/>
     </row>
     <row r="5" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="J5" s="171" t="str">
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="J5" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="201"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="202"/>
-      <c r="O5" s="203"/>
+      <c r="L5" s="168"/>
+      <c r="M5" s="174"/>
+      <c r="N5" s="174"/>
+      <c r="O5" s="175"/>
       <c r="R5" s="9"/>
       <c r="S5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="129"/>
+      <c r="T5" s="128"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
     </row>
@@ -4103,118 +4115,118 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="J6" s="171" t="str">
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="J6" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="201"/>
-      <c r="M6" s="202"/>
-      <c r="N6" s="202"/>
-      <c r="O6" s="203"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="174"/>
+      <c r="N6" s="174"/>
+      <c r="O6" s="175"/>
     </row>
     <row r="7" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="J7" s="171" t="str">
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="J7" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="201"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="203"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="174"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="175"/>
     </row>
     <row r="8" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
-      <c r="J8" s="171" t="str">
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="J8" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="201"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="203"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="175"/>
     </row>
     <row r="9" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="201"/>
-      <c r="J9" s="171" t="str">
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="J9" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="167" t="s">
-        <v>154</v>
-      </c>
-      <c r="L9" s="201"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="202"/>
-      <c r="O9" s="203"/>
+      <c r="K9" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" s="168"/>
+      <c r="M9" s="174"/>
+      <c r="N9" s="174"/>
+      <c r="O9" s="175"/>
     </row>
     <row r="10" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
-      <c r="J10" s="171" t="str">
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="J10" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="167" t="s">
-        <v>155</v>
-      </c>
-      <c r="L10" s="201"/>
-      <c r="M10" s="202"/>
-      <c r="N10" s="202"/>
-      <c r="O10" s="203"/>
+      <c r="K10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" s="168"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="174"/>
+      <c r="O10" s="175"/>
     </row>
     <row r="11" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="171" t="str">
+      <c r="J11" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="167" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="201"/>
-      <c r="M11" s="202"/>
-      <c r="N11" s="202"/>
-      <c r="O11" s="203"/>
+      <c r="K11" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="L11" s="168"/>
+      <c r="M11" s="174"/>
+      <c r="N11" s="174"/>
+      <c r="O11" s="175"/>
     </row>
     <row r="12" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4254,22 +4266,22 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="226"/>
-      <c r="B15" s="227" t="s">
+      <c r="A15" s="213"/>
+      <c r="B15" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="223"/>
-      <c r="D15" s="223"/>
+      <c r="C15" s="215"/>
+      <c r="D15" s="215"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="154">
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="153">
         <v>0</v>
       </c>
       <c r="O15" s="19">
@@ -4278,22 +4290,22 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="226"/>
-      <c r="B16" s="222" t="s">
+      <c r="A16" s="213"/>
+      <c r="B16" s="216" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="223"/>
-      <c r="D16" s="223"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="215"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
-      <c r="N16" s="154">
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153">
         <v>0</v>
       </c>
       <c r="O16" s="19">
@@ -4302,21 +4314,21 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="222" t="s">
+      <c r="B17" s="216" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="223"/>
-      <c r="D17" s="223"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="215"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154">
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153">
         <v>0</v>
       </c>
       <c r="O17" s="19">
@@ -4325,21 +4337,21 @@
       </c>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="224" t="s">
+      <c r="B18" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="225"/>
-      <c r="D18" s="225"/>
+      <c r="C18" s="221"/>
+      <c r="D18" s="221"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="154">
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153">
         <v>0</v>
       </c>
       <c r="O18" s="19">
@@ -4348,21 +4360,21 @@
       </c>
     </row>
     <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="222" t="s">
+      <c r="B19" s="216" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="223"/>
-      <c r="D19" s="223"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="215"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154">
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153">
         <v>0</v>
       </c>
       <c r="O19" s="19">
@@ -4377,15 +4389,15 @@
       <c r="C20" s="70"/>
       <c r="D20" s="70"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="154">
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="153">
         <v>0</v>
       </c>
       <c r="O20" s="19">
@@ -4400,15 +4412,15 @@
       <c r="C21" s="70"/>
       <c r="D21" s="70"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="154">
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153">
         <v>0</v>
       </c>
       <c r="O21" s="19">
@@ -4417,21 +4429,21 @@
       </c>
     </row>
     <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="228" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="229"/>
-      <c r="D22" s="229"/>
-      <c r="E22" s="230"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="154">
+      <c r="B22" s="217" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="218"/>
+      <c r="D22" s="218"/>
+      <c r="E22" s="219"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153">
         <v>0</v>
       </c>
       <c r="O22" s="19">
@@ -4441,7 +4453,7 @@
     </row>
     <row r="23" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M23" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O23" s="1">
         <f>MAX(J3:J11)</f>
@@ -4471,7 +4483,7 @@
       <c r="H25" s="26"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O25" s="27">
         <f>IFERROR(ROUND(O24/O23,3),0)</f>
@@ -4502,11 +4514,11 @@
     <row r="29" spans="2:15" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F29" s="38"/>
       <c r="H29" s="33"/>
-      <c r="L29" s="72" t="s">
+      <c r="L29" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="M29" s="73"/>
-      <c r="N29" s="74"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="73"/>
       <c r="O29" s="37">
         <f>ROUND(+O25/8,3)</f>
         <v>0</v>
@@ -4558,18 +4570,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C6:F6"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="L9:O9"/>
@@ -4579,6 +4579,18 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="L7:O7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
@@ -4600,7 +4612,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4637,19 +4649,19 @@
     </row>
     <row r="3" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J3" s="171" t="str">
+        <v>160</v>
+      </c>
+      <c r="J3" s="165" t="str">
         <f>IF(L3&lt;&gt;0,I2+1,"0")</f>
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="172"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="166"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="13" t="s">
         <v>95</v>
@@ -4663,54 +4675,54 @@
         <v>16</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="151"/>
+      <c r="C4" s="150"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="J4" s="171" t="str">
+      <c r="J4" s="165" t="str">
         <f t="shared" ref="J4:J11" si="0">IF(L4&lt;&gt;0,J3+1,"0")</f>
         <v>0</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="173"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="167"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="13" t="s">
         <v>86</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="162"/>
+      <c r="T4" s="161"/>
     </row>
     <row r="5" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="J5" s="171" t="str">
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="J5" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="166"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="168"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="130"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="129"/>
+      <c r="R5" s="128"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
     </row>
@@ -4719,118 +4731,118 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="J6" s="171" t="str">
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="J6" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="166"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="168"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="130"/>
     </row>
     <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="J7" s="171" t="str">
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="J7" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="166"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="168"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="130"/>
     </row>
     <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
-      <c r="J8" s="171" t="str">
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="J8" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="166"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="167"/>
-      <c r="O8" s="168"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="130"/>
     </row>
     <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="201"/>
-      <c r="J9" s="171" t="str">
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="J9" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="167" t="s">
-        <v>154</v>
-      </c>
-      <c r="L9" s="166"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="168"/>
+      <c r="K9" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" s="92"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="130"/>
     </row>
     <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
-      <c r="J10" s="171" t="str">
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="J10" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="167" t="s">
-        <v>155</v>
-      </c>
-      <c r="L10" s="166"/>
-      <c r="M10" s="167"/>
-      <c r="N10" s="167"/>
-      <c r="O10" s="168"/>
+      <c r="K10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" s="92"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="130"/>
     </row>
     <row r="11" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="171" t="str">
+      <c r="J11" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="167" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="166"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="167"/>
-      <c r="O11" s="168"/>
+      <c r="K11" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="L11" s="92"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="130"/>
     </row>
     <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
@@ -4872,24 +4884,24 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="226"/>
-      <c r="B15" s="227" t="s">
+      <c r="A15" s="213"/>
+      <c r="B15" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="223"/>
-      <c r="D15" s="223"/>
+      <c r="C15" s="215"/>
+      <c r="D15" s="215"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154">
-        <v>0</v>
-      </c>
-      <c r="N15" s="154">
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153">
+        <v>0</v>
+      </c>
+      <c r="N15" s="153">
         <v>0</v>
       </c>
       <c r="O15" s="19">
@@ -4898,22 +4910,22 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="226"/>
-      <c r="B16" s="222" t="s">
+      <c r="A16" s="213"/>
+      <c r="B16" s="216" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="223"/>
-      <c r="D16" s="223"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="215"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
-      <c r="N16" s="154">
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153">
         <v>0</v>
       </c>
       <c r="O16" s="19">
@@ -4922,84 +4934,84 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="222" t="s">
+      <c r="B17" s="216" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="223"/>
-      <c r="D17" s="223"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="215"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
       <c r="O17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="233" t="s">
+      <c r="B18" s="224" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="223"/>
-      <c r="D18" s="223"/>
+      <c r="C18" s="215"/>
+      <c r="D18" s="215"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="154"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
       <c r="O18" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="224" t="s">
+      <c r="B19" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="225"/>
-      <c r="D19" s="225"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="221"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
       <c r="O19" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="222" t="s">
+      <c r="B20" s="216" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="223"/>
-      <c r="D20" s="223"/>
+      <c r="C20" s="215"/>
+      <c r="D20" s="215"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="154"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="153"/>
       <c r="O20" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5012,36 +5024,36 @@
       <c r="C21" s="70"/>
       <c r="D21" s="70"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="154"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
       <c r="O21" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="231" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="232"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="154"/>
+      <c r="B22" s="239" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="240"/>
+      <c r="D22" s="240"/>
+      <c r="E22" s="240"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
       <c r="O22" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5049,7 +5061,7 @@
     </row>
     <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M23" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O23" s="1">
         <f>MAX(J3:J11)</f>
@@ -5079,7 +5091,7 @@
       <c r="H25" s="26"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O25" s="27">
         <f>IFERROR(ROUND(O24/O23,3),0)</f>
@@ -5110,11 +5122,11 @@
     <row r="29" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F29" s="38"/>
       <c r="H29" s="33"/>
-      <c r="L29" s="72" t="s">
+      <c r="L29" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="M29" s="73"/>
-      <c r="N29" s="74"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="73"/>
       <c r="O29" s="37">
         <f>ROUND(+O25/8,3)</f>
         <v>0</v>
@@ -5171,11 +5183,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="A15:A16"/>
@@ -5184,6 +5191,11 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
@@ -5204,7 +5216,7 @@
   </sheetPr>
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L6" sqref="L6:O6"/>
     </sheetView>
   </sheetViews>
@@ -5244,17 +5256,17 @@
       <c r="A3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J3" s="174" t="str">
+      <c r="J3" s="165" t="str">
         <f>IF(L3&lt;&gt;0,J2+1,"0")</f>
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="200"/>
-      <c r="O3" s="200"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="13" t="s">
         <v>95</v>
@@ -5268,54 +5280,54 @@
         <v>16</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="151"/>
+      <c r="C4" s="150"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="J4" s="171" t="str">
+      <c r="J4" s="165" t="str">
         <f t="shared" ref="J4:J11" si="0">IF(L4&lt;&gt;0,J3+1,"0")</f>
         <v>0</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="201"/>
-      <c r="M4" s="201"/>
-      <c r="N4" s="201"/>
-      <c r="O4" s="201"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="168"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="13" t="s">
         <v>86</v>
       </c>
       <c r="S4" s="10"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="162"/>
+      <c r="U4" s="161"/>
     </row>
     <row r="5" spans="1:21" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="J5" s="171" t="str">
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="J5" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="201"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="202"/>
-      <c r="O5" s="202"/>
+      <c r="L5" s="168"/>
+      <c r="M5" s="174"/>
+      <c r="N5" s="174"/>
+      <c r="O5" s="174"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="129"/>
+      <c r="S5" s="128"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
     </row>
@@ -5324,118 +5336,118 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="J6" s="171" t="str">
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="J6" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="201"/>
-      <c r="M6" s="202"/>
-      <c r="N6" s="202"/>
-      <c r="O6" s="202"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="174"/>
+      <c r="N6" s="174"/>
+      <c r="O6" s="174"/>
     </row>
     <row r="7" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="J7" s="171" t="str">
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="J7" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="201"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="174"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="174"/>
     </row>
     <row r="8" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
-      <c r="J8" s="171" t="str">
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="J8" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="201"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="174"/>
     </row>
     <row r="9" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="201"/>
-      <c r="J9" s="171" t="str">
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="J9" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="167" t="s">
-        <v>154</v>
-      </c>
-      <c r="L9" s="201"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="202"/>
-      <c r="O9" s="202"/>
+      <c r="K9" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" s="168"/>
+      <c r="M9" s="174"/>
+      <c r="N9" s="174"/>
+      <c r="O9" s="174"/>
     </row>
     <row r="10" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
-      <c r="J10" s="171" t="str">
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="J10" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="167" t="s">
-        <v>155</v>
-      </c>
-      <c r="L10" s="201"/>
-      <c r="M10" s="202"/>
-      <c r="N10" s="202"/>
-      <c r="O10" s="202"/>
+      <c r="K10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" s="168"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="174"/>
+      <c r="O10" s="174"/>
     </row>
     <row r="11" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="171" t="str">
+      <c r="J11" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="167" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="201"/>
-      <c r="M11" s="202"/>
-      <c r="N11" s="202"/>
-      <c r="O11" s="202"/>
+      <c r="K11" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="L11" s="168"/>
+      <c r="M11" s="174"/>
+      <c r="N11" s="174"/>
+      <c r="O11" s="174"/>
     </row>
     <row r="12" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
@@ -5484,149 +5496,149 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="226"/>
-      <c r="B16" s="227" t="s">
+      <c r="A16" s="213"/>
+      <c r="B16" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="223"/>
-      <c r="D16" s="223"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="215"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
-      <c r="N16" s="154"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
       <c r="O16" s="19">
         <f>SUM(F16:N16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="226"/>
-      <c r="B17" s="222" t="s">
+      <c r="A17" s="213"/>
+      <c r="B17" s="216" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="223"/>
-      <c r="D17" s="223"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="215"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
       <c r="O17" s="19">
         <f t="shared" ref="O17:O22" si="1">SUM(F17:N17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="222" t="s">
+      <c r="B18" s="216" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="223"/>
-      <c r="D18" s="223"/>
+      <c r="C18" s="215"/>
+      <c r="D18" s="215"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="154"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
       <c r="O18" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="233" t="s">
+      <c r="B19" s="224" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="223"/>
-      <c r="D19" s="223"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="215"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
       <c r="O19" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="222" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="223"/>
-      <c r="D20" s="223"/>
-      <c r="E20" s="234"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="154"/>
+      <c r="B20" s="216" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="215"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="225"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="153"/>
       <c r="O20" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="222" t="s">
+      <c r="B21" s="216" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="223"/>
-      <c r="D21" s="223"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="215"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="154"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
       <c r="O21" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="228" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="229"/>
-      <c r="D22" s="229"/>
-      <c r="E22" s="230"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="154"/>
+      <c r="B22" s="217" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="218"/>
+      <c r="D22" s="218"/>
+      <c r="E22" s="219"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
       <c r="O22" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5635,7 +5647,7 @@
     <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L23" s="21"/>
       <c r="M23" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O23" s="1">
         <f>MAX(J3:J11)</f>
@@ -5780,12 +5792,14 @@
     <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="A16:A17"/>
@@ -5794,14 +5808,12 @@
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
@@ -5826,7 +5838,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5848,7 +5860,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
@@ -5875,7 +5887,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="151"/>
+      <c r="C4" s="150"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -5885,22 +5897,22 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="162"/>
+      <c r="L4" s="161"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="129"/>
+      <c r="J5" s="128"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
@@ -5909,10 +5921,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -5922,113 +5934,113 @@
         <v>93</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="200"/>
-      <c r="J7" s="209"/>
-      <c r="K7" s="209"/>
-      <c r="L7" s="210"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="171"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="201"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="203"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="175"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="201"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="201"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="203"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="175"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="201"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="203"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="175"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="201"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="203"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="175"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="167" t="s">
+      <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="201"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="202"/>
-      <c r="L12" s="203"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="175"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="167" t="s">
-        <v>154</v>
-      </c>
-      <c r="I13" s="201"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="202"/>
-      <c r="L13" s="203"/>
+      <c r="H13" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="I13" s="168"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="175"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="167" t="s">
-        <v>155</v>
-      </c>
-      <c r="I14" s="201"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="202"/>
-      <c r="L14" s="203"/>
+      <c r="H14" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="168"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="175"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="I15" s="201"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="203"/>
+        <v>154</v>
+      </c>
+      <c r="I15" s="168"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="175"/>
     </row>
     <row r="16" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="3"/>
@@ -6038,7 +6050,7 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="74" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="3"/>
@@ -6050,24 +6062,24 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="77"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="76"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="K18" s="24"/>
-      <c r="L18" s="78"/>
+      <c r="L18" s="77"/>
     </row>
     <row r="19" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
       <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="92"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -6075,8 +6087,8 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="133"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="132"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
@@ -6085,67 +6097,67 @@
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G22" s="26"/>
-      <c r="H22" s="123" t="s">
+      <c r="H22" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="79"/>
+      <c r="I22" s="78"/>
       <c r="K22" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="110" t="s">
         <v>78</v>
       </c>
       <c r="C23" s="69"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="112">
+      <c r="D23" s="83"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="111">
         <v>0.5</v>
       </c>
-      <c r="G23" s="124"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="116">
+      <c r="G23" s="123"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="115">
         <f>F23*H23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="111" t="s">
+      <c r="B24" s="110" t="s">
         <v>79</v>
       </c>
       <c r="C24" s="69"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="112">
+      <c r="D24" s="83"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="111">
         <v>0.3</v>
       </c>
-      <c r="G24" s="124"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="116">
+      <c r="G24" s="123"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="115">
         <f>F24*H24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="110" t="s">
         <v>80</v>
       </c>
       <c r="C25" s="69"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="112">
+      <c r="D25" s="83"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="111">
         <v>0.1</v>
       </c>
-      <c r="G25" s="124"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="116">
+      <c r="G25" s="123"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="115">
         <f>F25*H25</f>
         <v>0</v>
       </c>
@@ -6156,11 +6168,11 @@
       </c>
       <c r="C26" s="70"/>
       <c r="D26" s="70"/>
-      <c r="E26" s="85">
+      <c r="E26" s="84">
         <f>SUM(E23:E25)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="115"/>
+      <c r="F26" s="114"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
@@ -6168,17 +6180,17 @@
       <c r="K26" s="21"/>
     </row>
     <row r="27" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G27" s="95" t="s">
+      <c r="G27" s="94" t="s">
         <v>84</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="126">
+      <c r="J27" s="124"/>
+      <c r="K27" s="125">
         <f>IF(SUM(K23:K26)&gt;10,10,SUM(K23:K26))</f>
         <v>0</v>
       </c>
-      <c r="L27" s="98">
+      <c r="L27" s="97">
         <v>0.3</v>
       </c>
     </row>
@@ -6194,32 +6206,32 @@
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="83"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="82"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="69" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="70"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="155"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="154"/>
       <c r="F30" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="84"/>
-      <c r="H30" s="86">
+      <c r="G30" s="83"/>
+      <c r="H30" s="85">
         <f>E26</f>
         <v>0</v>
       </c>
-      <c r="I30" s="87">
+      <c r="I30" s="86">
         <f>IFERROR(E30/H30,10)</f>
         <v>10</v>
       </c>
-      <c r="J30" s="82"/>
-      <c r="K30" s="88">
+      <c r="J30" s="81"/>
+      <c r="K30" s="87">
         <f>10-I30</f>
         <v>0</v>
       </c>
@@ -6231,66 +6243,66 @@
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="83"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="82"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I32" s="89"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="91"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="90"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="92" t="s">
+      <c r="E33" s="91" t="s">
         <v>67</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="156"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="155"/>
     </row>
     <row r="34" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K34" s="91"/>
-      <c r="L34" s="80"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="79"/>
     </row>
     <row r="35" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G35" s="95" t="s">
+      <c r="G35" s="94" t="s">
         <v>75</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="97">
+      <c r="J35" s="95"/>
+      <c r="K35" s="96">
         <f>K30-K33</f>
         <v>0</v>
       </c>
-      <c r="L35" s="98">
+      <c r="L35" s="97">
         <v>0.7</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I37" s="72" t="s">
+      <c r="I37" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="127">
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="126">
         <f>ROUND(K27*0.3 + K35*0.7,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L38" s="128"/>
+      <c r="L38" s="127"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L39" s="128"/>
+      <c r="L39" s="127"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L40" s="128"/>
+      <c r="L40" s="127"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
@@ -6339,10 +6351,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6364,7 +6379,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
@@ -6391,7 +6406,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="151"/>
+      <c r="C4" s="150"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -6401,22 +6416,22 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="162"/>
+      <c r="L4" s="161"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="129"/>
+      <c r="J5" s="128"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
@@ -6425,10 +6440,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -6438,113 +6453,113 @@
         <v>93</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="200"/>
-      <c r="J7" s="209"/>
-      <c r="K7" s="209"/>
-      <c r="L7" s="210"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="171"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="201"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="203"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="175"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="201"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="201"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="203"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="175"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="201"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="203"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="175"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="201"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="203"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="175"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="167" t="s">
+      <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="166"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="168"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="130"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="167" t="s">
+      <c r="H13" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="I13" s="92"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="130"/>
+    </row>
+    <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="92"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="130"/>
+    </row>
+    <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="I13" s="166"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
-      <c r="L13" s="168"/>
-    </row>
-    <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="167" t="s">
-        <v>155</v>
-      </c>
-      <c r="I14" s="166"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
-      <c r="L14" s="168"/>
-    </row>
-    <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="167" t="s">
-        <v>156</v>
-      </c>
-      <c r="I15" s="166"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
-      <c r="L15" s="168"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="130"/>
     </row>
     <row r="16" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="3"/>
@@ -6554,7 +6569,7 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="74" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="3"/>
@@ -6566,24 +6581,43 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="77"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="76"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="78"/>
+      <c r="A18" s="241"/>
+      <c r="B18" s="242"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
+      <c r="E18" s="242"/>
+      <c r="F18" s="242"/>
+      <c r="G18" s="242"/>
+      <c r="H18" s="242"/>
+      <c r="I18" s="242"/>
+      <c r="J18" s="242"/>
+      <c r="K18" s="242"/>
+      <c r="L18" s="243"/>
     </row>
     <row r="19" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="A19" s="244"/>
+      <c r="B19" s="245"/>
+      <c r="C19" s="245"/>
+      <c r="D19" s="245"/>
+      <c r="E19" s="245"/>
+      <c r="F19" s="245"/>
+      <c r="G19" s="245"/>
+      <c r="H19" s="245"/>
+      <c r="I19" s="245"/>
+      <c r="J19" s="245"/>
+      <c r="K19" s="245"/>
+      <c r="L19" s="246"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="92"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -6591,8 +6625,8 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="133"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="132"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
@@ -6601,67 +6635,76 @@
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G22" s="26"/>
-      <c r="H22" s="123" t="s">
+      <c r="H22" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="79"/>
+      <c r="I22" s="78"/>
       <c r="K22" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="110" t="s">
         <v>78</v>
       </c>
       <c r="C23" s="69"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="112">
+      <c r="D23" s="83"/>
+      <c r="E23" s="154">
+        <f>LEN(A$18)-LEN(SUBSTITUTE(A$18,"D",""))+LEN(A$18)-LEN(SUBSTITUTE(A$18,"S",""))</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="111">
         <v>0.5</v>
       </c>
-      <c r="G23" s="124"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="116">
+      <c r="G23" s="123"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="115">
         <f>F23*H23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="111" t="s">
+      <c r="B24" s="110" t="s">
         <v>79</v>
       </c>
       <c r="C24" s="69"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="112">
+      <c r="D24" s="83"/>
+      <c r="E24" s="154">
+        <f>LEN(A$18)-LEN(SUBSTITUTE(A$18,"M",""))</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="111">
         <v>0.3</v>
       </c>
-      <c r="G24" s="124"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="116">
+      <c r="G24" s="123"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="115">
         <f>F24*H24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="110" t="s">
         <v>80</v>
       </c>
       <c r="C25" s="69"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="112">
+      <c r="D25" s="83"/>
+      <c r="E25" s="154">
+        <f>LEN(A$18)-LEN(SUBSTITUTE(A$18,"E",""))+LEN(A$18)-LEN(SUBSTITUTE(A$18,"L",""))</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="111">
         <v>0.1</v>
       </c>
-      <c r="G25" s="124"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="116">
+      <c r="G25" s="123"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="115">
         <f>F25*H25</f>
         <v>0</v>
       </c>
@@ -6672,11 +6715,11 @@
       </c>
       <c r="C26" s="70"/>
       <c r="D26" s="70"/>
-      <c r="E26" s="85">
+      <c r="E26" s="84">
         <f>SUM(E23:E25)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="115"/>
+      <c r="F26" s="114"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
@@ -6684,17 +6727,17 @@
       <c r="K26" s="21"/>
     </row>
     <row r="27" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G27" s="95" t="s">
+      <c r="G27" s="94" t="s">
         <v>84</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="126">
+      <c r="J27" s="124"/>
+      <c r="K27" s="125">
         <f>IF(SUM(K23:K26)&gt;10,10,SUM(K23:K26))</f>
         <v>0</v>
       </c>
-      <c r="L27" s="98">
+      <c r="L27" s="97">
         <v>0.3</v>
       </c>
     </row>
@@ -6710,32 +6753,36 @@
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="83"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="82"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="69" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="70"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="155"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="154">
+        <f xml:space="preserve">
+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"1","")))*1+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"2","")))*2+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"3","")))*3+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"4","")))*4+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"5","")))*5+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"6","")))*6+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"7","")))*7+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"8","")))*8+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"9","")))*9</f>
+        <v>0</v>
+      </c>
       <c r="F30" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="84"/>
-      <c r="H30" s="86">
+      <c r="G30" s="83"/>
+      <c r="H30" s="85">
         <f>E26</f>
         <v>0</v>
       </c>
-      <c r="I30" s="87">
+      <c r="I30" s="86">
         <f>IFERROR(E30/H30,10)</f>
         <v>10</v>
       </c>
-      <c r="J30" s="82"/>
-      <c r="K30" s="88">
+      <c r="J30" s="81"/>
+      <c r="K30" s="87">
         <f>10-I30</f>
         <v>0</v>
       </c>
@@ -6747,66 +6794,66 @@
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="83"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="82"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I32" s="89"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="91"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="90"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="92" t="s">
+      <c r="E33" s="91" t="s">
         <v>67</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="156"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="155"/>
     </row>
     <row r="34" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K34" s="91"/>
-      <c r="L34" s="80"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="79"/>
     </row>
     <row r="35" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G35" s="95" t="s">
+      <c r="G35" s="94" t="s">
         <v>75</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="97">
+      <c r="J35" s="95"/>
+      <c r="K35" s="96">
         <f>K30-K33</f>
         <v>0</v>
       </c>
-      <c r="L35" s="98">
+      <c r="L35" s="97">
         <v>0.7</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I37" s="72" t="s">
+      <c r="I37" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="127">
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="126">
         <f>ROUND(K27*0.3 + K35*0.7,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L38" s="128"/>
+      <c r="L38" s="127"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L39" s="128"/>
+      <c r="L39" s="127"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L40" s="128"/>
+      <c r="L40" s="127"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
@@ -6825,7 +6872,8 @@
       <c r="L45" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A18:L19"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="I11:L11"/>
@@ -6857,8 +6905,8 @@
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6907,7 +6955,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="151"/>
+      <c r="C4" s="150"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -6917,22 +6965,22 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="162"/>
+      <c r="L4" s="161"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="129"/>
+      <c r="J5" s="128"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
@@ -6941,10 +6989,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -6954,113 +7002,113 @@
         <v>93</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="200"/>
-      <c r="J7" s="209"/>
-      <c r="K7" s="209"/>
-      <c r="L7" s="210"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="171"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="201"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="203"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="175"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="201"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="201"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="203"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="175"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="201"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="203"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="175"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="201"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="203"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="175"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="167" t="s">
+      <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="201"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="202"/>
-      <c r="L12" s="203"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="175"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="167" t="s">
-        <v>154</v>
-      </c>
-      <c r="I13" s="201"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="202"/>
-      <c r="L13" s="203"/>
+      <c r="H13" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="I13" s="168"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="175"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="167" t="s">
-        <v>155</v>
-      </c>
-      <c r="I14" s="201"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="202"/>
-      <c r="L14" s="203"/>
+      <c r="H14" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="168"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="175"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="I15" s="201"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="203"/>
+        <v>154</v>
+      </c>
+      <c r="I15" s="168"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="175"/>
     </row>
     <row r="16" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="3"/>
@@ -7070,7 +7118,7 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="74" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="3"/>
@@ -7082,24 +7130,43 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="77"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="76"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="78"/>
+      <c r="A18" s="241"/>
+      <c r="B18" s="242"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
+      <c r="E18" s="242"/>
+      <c r="F18" s="242"/>
+      <c r="G18" s="242"/>
+      <c r="H18" s="242"/>
+      <c r="I18" s="242"/>
+      <c r="J18" s="242"/>
+      <c r="K18" s="242"/>
+      <c r="L18" s="243"/>
     </row>
     <row r="19" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="A19" s="244"/>
+      <c r="B19" s="245"/>
+      <c r="C19" s="245"/>
+      <c r="D19" s="245"/>
+      <c r="E19" s="245"/>
+      <c r="F19" s="245"/>
+      <c r="G19" s="245"/>
+      <c r="H19" s="245"/>
+      <c r="I19" s="245"/>
+      <c r="J19" s="245"/>
+      <c r="K19" s="245"/>
+      <c r="L19" s="246"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="92"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -7107,8 +7174,8 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="133"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="132"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
@@ -7117,84 +7184,87 @@
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G22" s="26"/>
-      <c r="H22" s="110" t="s">
+      <c r="H22" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="79"/>
+      <c r="I22" s="78"/>
       <c r="K22" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="110" t="s">
         <v>78</v>
       </c>
       <c r="C23" s="69"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="155">
-        <v>0</v>
-      </c>
-      <c r="F23" s="112">
+      <c r="D23" s="83"/>
+      <c r="E23" s="154">
+        <f>LEN(A$18)-LEN(SUBSTITUTE(A$18,"D",""))+LEN(A$18)-LEN(SUBSTITUTE(A$18,"S",""))</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="111">
         <v>0.4</v>
       </c>
-      <c r="G23" s="113"/>
-      <c r="H23" s="169">
+      <c r="G23" s="112"/>
+      <c r="H23" s="84">
         <f>IF(E23&gt;24,25,E23)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="114"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="116">
+      <c r="I23" s="113"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="115">
         <f>F23*H23</f>
         <v>0</v>
       </c>
       <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="111" t="s">
+      <c r="B24" s="110" t="s">
         <v>79</v>
       </c>
       <c r="C24" s="69"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="155">
-        <v>0</v>
-      </c>
-      <c r="F24" s="112">
+      <c r="D24" s="83"/>
+      <c r="E24" s="247">
+        <f>LEN(A$18)-LEN(SUBSTITUTE(A$18,"M",""))</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="111">
         <v>0.3</v>
       </c>
-      <c r="G24" s="113"/>
-      <c r="H24" s="169">
+      <c r="G24" s="112"/>
+      <c r="H24" s="84">
         <f>IF(SUM(E23:E24)&gt;24,25-H23,E24)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="114"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="116">
+      <c r="I24" s="113"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="115">
         <f>F24*H24</f>
         <v>0</v>
       </c>
       <c r="L24" s="21"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="110" t="s">
         <v>80</v>
       </c>
       <c r="C25" s="69"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="155">
-        <v>0</v>
-      </c>
-      <c r="F25" s="112">
+      <c r="D25" s="83"/>
+      <c r="E25" s="154">
+        <f>LEN(A$18)-LEN(SUBSTITUTE(A$18,"E",""))+LEN(A$18)-LEN(SUBSTITUTE(A$18,"L",""))</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="111">
         <v>0.1</v>
       </c>
-      <c r="G25" s="113"/>
-      <c r="H25" s="169">
+      <c r="G25" s="112"/>
+      <c r="H25" s="84">
         <f>IF(SUM(E23:E25)&gt;24,IF(25-SUM(H23:H24)&gt;0,25-SUM(H23:H24),0),E25)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="114"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="116">
+      <c r="I25" s="113"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="115">
         <f>F25*H25</f>
         <v>0</v>
       </c>
@@ -7206,35 +7276,35 @@
       </c>
       <c r="C26" s="70"/>
       <c r="D26" s="70"/>
-      <c r="E26" s="85">
+      <c r="E26" s="84">
         <f>SUM(E23:E25)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="117" t="s">
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="97">
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="96">
         <f>IF(SUM(K23:K26)&gt;10,10,SUM(K23:K26))</f>
         <v>0</v>
       </c>
-      <c r="L27" s="98">
+      <c r="L27" s="97">
         <v>0.3</v>
       </c>
     </row>
@@ -7242,14 +7312,14 @@
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="122"/>
-      <c r="L28" s="98"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="97"/>
     </row>
     <row r="29" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -7263,34 +7333,36 @@
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="83"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="82"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="69" t="s">
         <v>74</v>
       </c>
       <c r="C31" s="70"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="155">
+      <c r="D31" s="83"/>
+      <c r="E31" s="154">
+        <f xml:space="preserve">
+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"1","")))*1+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"2","")))*2+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"3","")))*3+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"4","")))*4+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"5","")))*5+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"6","")))*6+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"7","")))*7+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"8","")))*8+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$18,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"9","")))*9</f>
         <v>0</v>
       </c>
       <c r="F31" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="84"/>
-      <c r="H31" s="86">
+      <c r="G31" s="83"/>
+      <c r="H31" s="85">
         <f>E26</f>
         <v>0</v>
       </c>
-      <c r="I31" s="87">
+      <c r="I31" s="86">
         <f>IFERROR(E31/H31,10)</f>
         <v>10</v>
       </c>
-      <c r="J31" s="82"/>
-      <c r="K31" s="88">
+      <c r="J31" s="81"/>
+      <c r="K31" s="87">
         <f>10-I31</f>
         <v>0</v>
       </c>
@@ -7302,56 +7374,56 @@
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="83"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="82"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I33" s="89"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="91"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="90"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="92" t="s">
+      <c r="E34" s="91" t="s">
         <v>67</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="156">
+      <c r="I34" s="92"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="155">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="91"/>
-      <c r="L35" s="80"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="79"/>
     </row>
     <row r="36" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G36" s="95" t="s">
+      <c r="G36" s="94" t="s">
         <v>75</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="97">
+      <c r="J36" s="95"/>
+      <c r="K36" s="96">
         <f>K31-K34</f>
         <v>0</v>
       </c>
-      <c r="L36" s="98">
+      <c r="L36" s="97">
         <v>0.7</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I38" s="72" t="s">
+      <c r="I38" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="100">
+      <c r="J38" s="98"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="99">
         <f>ROUND(K27*0.3 + K36*0.7,3)</f>
         <v>0</v>
       </c>
@@ -7373,7 +7445,8 @@
       <c r="L45" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A18:L19"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
@@ -7405,7 +7478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="C5" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A18" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -7455,7 +7528,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="151"/>
+      <c r="C4" s="150"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -7465,22 +7538,22 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="162"/>
+      <c r="L4" s="161"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="129"/>
+      <c r="J5" s="128"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
@@ -7489,10 +7562,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -7502,92 +7575,92 @@
         <v>93</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="200"/>
-      <c r="J7" s="209"/>
-      <c r="K7" s="209"/>
-      <c r="L7" s="210"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="171"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="201"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="203"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="175"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="201"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="201"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="203"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="175"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="201"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="203"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="175"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="201"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="203"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="175"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="201"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="202"/>
-      <c r="L12" s="203"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="175"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
-      <c r="H13" s="167" t="s">
-        <v>154</v>
+      <c r="H13" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="I13" s="42"/>
       <c r="J13" s="3"/>
@@ -7596,8 +7669,8 @@
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14"/>
-      <c r="H14" s="167" t="s">
-        <v>155</v>
+      <c r="H14" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="I14" s="42"/>
       <c r="J14" s="3"/>
@@ -7606,128 +7679,128 @@
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14"/>
-      <c r="H15" s="167" t="s">
-        <v>156</v>
-      </c>
-      <c r="I15" s="166"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
-      <c r="L15" s="167"/>
+      <c r="H15" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" s="92"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="170" t="s">
+      <c r="K16" s="164" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="235" t="s">
+      <c r="A17" s="226" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="238" t="s">
+      <c r="B17" s="229" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="239"/>
-      <c r="D17" s="239"/>
-      <c r="E17" s="239"/>
-      <c r="F17" s="239"/>
-      <c r="G17" s="239"/>
-      <c r="H17" s="239"/>
-      <c r="I17" s="240"/>
-      <c r="J17" s="101" t="s">
+      <c r="C17" s="230"/>
+      <c r="D17" s="230"/>
+      <c r="E17" s="230"/>
+      <c r="F17" s="230"/>
+      <c r="G17" s="230"/>
+      <c r="H17" s="230"/>
+      <c r="I17" s="231"/>
+      <c r="J17" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="157"/>
-      <c r="L17" s="102">
+      <c r="K17" s="156"/>
+      <c r="L17" s="101">
         <f>K17*0.25</f>
         <v>0</v>
       </c>
-      <c r="M17" s="103"/>
+      <c r="M17" s="102"/>
     </row>
     <row r="18" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="236"/>
-      <c r="B18" s="241" t="s">
+      <c r="A18" s="227"/>
+      <c r="B18" s="232" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="242"/>
-      <c r="G18" s="242"/>
-      <c r="H18" s="242"/>
-      <c r="I18" s="242"/>
-      <c r="J18" s="104" t="s">
+      <c r="C18" s="233"/>
+      <c r="D18" s="233"/>
+      <c r="E18" s="233"/>
+      <c r="F18" s="233"/>
+      <c r="G18" s="233"/>
+      <c r="H18" s="233"/>
+      <c r="I18" s="233"/>
+      <c r="J18" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="158"/>
-      <c r="L18" s="105">
+      <c r="K18" s="157"/>
+      <c r="L18" s="104">
         <f>K18*0.25</f>
         <v>0</v>
       </c>
-      <c r="M18" s="103"/>
+      <c r="M18" s="102"/>
     </row>
     <row r="19" spans="1:13" ht="110.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="235" t="s">
+      <c r="A19" s="226" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="245" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="246"/>
-      <c r="D19" s="246"/>
-      <c r="E19" s="246"/>
-      <c r="F19" s="246"/>
-      <c r="G19" s="246"/>
-      <c r="H19" s="246"/>
-      <c r="I19" s="247"/>
-      <c r="J19" s="101" t="s">
-        <v>160</v>
-      </c>
-      <c r="K19" s="159"/>
-      <c r="L19" s="106">
+      <c r="B19" s="234" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="235"/>
+      <c r="D19" s="235"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="235"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="236"/>
+      <c r="J19" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="158"/>
+      <c r="L19" s="105">
         <f>K19*0.3</f>
         <v>0</v>
       </c>
-      <c r="M19" s="103"/>
+      <c r="M19" s="102"/>
     </row>
     <row r="20" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="237"/>
-      <c r="B20" s="243" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="244"/>
-      <c r="D20" s="244"/>
-      <c r="E20" s="244"/>
-      <c r="F20" s="244"/>
-      <c r="G20" s="244"/>
-      <c r="H20" s="244"/>
-      <c r="I20" s="244"/>
-      <c r="J20" s="107" t="s">
+      <c r="A20" s="228"/>
+      <c r="B20" s="237" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="238"/>
+      <c r="D20" s="238"/>
+      <c r="E20" s="238"/>
+      <c r="F20" s="238"/>
+      <c r="G20" s="238"/>
+      <c r="H20" s="238"/>
+      <c r="I20" s="238"/>
+      <c r="J20" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="160"/>
-      <c r="L20" s="108">
+      <c r="K20" s="159"/>
+      <c r="L20" s="107">
         <f>K20*0.2</f>
         <v>0</v>
       </c>
-      <c r="M20" s="103"/>
+      <c r="M20" s="102"/>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="109">
+      <c r="L21" s="108">
         <f>SUM(L17:L20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L22" s="91"/>
+      <c r="L22" s="90"/>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="84"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="70"/>
       <c r="E23" s="70"/>
       <c r="F23" s="70"/>
@@ -7736,18 +7809,18 @@
       <c r="I23" s="70"/>
       <c r="J23" s="70"/>
       <c r="K23" s="70"/>
-      <c r="L23" s="161"/>
+      <c r="L23" s="160"/>
     </row>
     <row r="24" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L24" s="91"/>
+      <c r="L24" s="90"/>
     </row>
     <row r="25" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I25" s="72" t="s">
+      <c r="I25" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="100">
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="99">
         <f>SUM(L17:L20)-L23</f>
         <v>0</v>
       </c>
@@ -7770,12 +7843,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
@@ -7787,6 +7854,12 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7867,21 +7940,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7902,14 +7975,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -7922,4 +7987,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall)_mer_an_6_deltagar.xlsx
+++ b/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall)_mer_an_6_deltagar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893C8C89-5B5C-4CEA-A6E0-71F01A416751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AE5786-DCA4-468E-B1B0-B0890BE896C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="0" windowWidth="10800" windowHeight="12900" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="5430" windowWidth="19200" windowHeight="21000" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="domare" localSheetId="2">'Lag grund A'!$C$33</definedName>
     <definedName name="domare" localSheetId="3">'Lag grund B'!$C$32</definedName>
     <definedName name="domare" localSheetId="4">'Lag grund D'!$C$33</definedName>
-    <definedName name="domare" localSheetId="8">'Lag kür art'!$C$28</definedName>
+    <definedName name="domare" localSheetId="8">'Lag kür art'!$C$29</definedName>
     <definedName name="domare" localSheetId="6">'Lag kür tekn junior'!$C$45</definedName>
     <definedName name="domare" localSheetId="5">'Lag kür tekn mellan'!$C$45</definedName>
     <definedName name="domare" localSheetId="7">'Lag kür tekn sr'!$C$45</definedName>
@@ -84,7 +84,7 @@
     <definedName name="result" localSheetId="2">'Lag grund A'!$O$29</definedName>
     <definedName name="result" localSheetId="3">'Lag grund B'!$O$29</definedName>
     <definedName name="result" localSheetId="4">'Lag grund D'!$O$29</definedName>
-    <definedName name="result" localSheetId="8">'Lag kür art'!$L$25</definedName>
+    <definedName name="result" localSheetId="8">'Lag kür art'!$L$26</definedName>
     <definedName name="result" localSheetId="6">'Lag kür tekn junior'!$L$37</definedName>
     <definedName name="result" localSheetId="5">'Lag kür tekn mellan'!$L$37</definedName>
     <definedName name="result" localSheetId="7">'Lag kür tekn sr'!$L$38</definedName>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="166">
   <si>
     <t>1)</t>
   </si>
@@ -125,18 +125,6 @@
   </si>
   <si>
     <t>Nation:</t>
-  </si>
-  <si>
-    <t>C1
-25%</t>
-  </si>
-  <si>
-    <t>C2
-25%</t>
-  </si>
-  <si>
-    <t>C4
-20%</t>
   </si>
   <si>
     <t>A1
@@ -550,6 +538,110 @@
   </si>
   <si>
     <t xml:space="preserve">Obs! Arbetsboken är skyddad med lösenordet 123 för att undvika att celler och formler ändras av misstag. </t>
+  </si>
+  <si>
+    <t>Grund</t>
+  </si>
+  <si>
+    <t>Sving framlänges</t>
+  </si>
+  <si>
+    <t>Sving baklänges, inkl avgång</t>
+  </si>
+  <si>
+    <t>Avhopp, utåt</t>
+  </si>
+  <si>
+    <t>Lag grund D</t>
+  </si>
+  <si>
+    <t>Lag grund B</t>
+  </si>
+  <si>
+    <t>Lag grund A</t>
+  </si>
+  <si>
+    <t>Lag kür mellanklass</t>
+  </si>
+  <si>
+    <t>Lag kür tekn mellan</t>
+  </si>
+  <si>
+    <t>Lag kür tekn junior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulmarkerade celler i protokollen markerar vilka celler som ska fyllas i. </t>
+  </si>
+  <si>
+    <t>Protokollen uppdaterades senast 2019-03-28.</t>
+  </si>
+  <si>
+    <t>7)</t>
+  </si>
+  <si>
+    <t>8)</t>
+  </si>
+  <si>
+    <t>9)</t>
+  </si>
+  <si>
+    <t>Antal voltigörer:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ antalet voltigörer  </t>
+  </si>
+  <si>
+    <t>Grund 2*</t>
+  </si>
+  <si>
+    <t>Svår klass juniorlag kür</t>
+  </si>
+  <si>
+    <t>Grund 3*</t>
+  </si>
+  <si>
+    <t>Sidhopp del 1, följt av avgång inåt</t>
+  </si>
+  <si>
+    <t>HÄNSYN TILL HÄSTEN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hänsyn till hästen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">• Urval av element och sekvenser i harmoni med hästen, baserat på vikt, sammansättning och balans.
+• Övningar som inte överbelastar hästen.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>CoH
+20%</t>
   </si>
   <si>
     <r>
@@ -581,7 +673,8 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">• Statiska och dynamiska övningar i proportion till varandra.
-• En proportion mellan singel-, dubbel- och trippelövningar.
+• Använder singel- och dubbelövningar. Trippelövningar är tillåtet.
+• Urval av kombinationer.
 • Ett urval av övningar och övergångar från olika strukturgrupper.
 </t>
     </r>
@@ -606,12 +699,10 @@
       </rPr>
       <t xml:space="preserve">
 • Variation av position av övningar dels relaterat till hästen men också riktningen av övningar.
-• Balans gällande användning av plats, användning av alla delar av hästens rygg, hals och kors inräknat mellanhopp.
-• Jämnt deltagande av alla voltigörer, ingen överanvändning av en eller två voltigörer.</t>
+• Balanserad användning av utrymme; användning av alla delar av hästens rygg och hals, inklusive studs.
+• Jämnt deltagande av alla voltigörer.
+• Jämnt även i roller och artistiskt engagemang.</t>
     </r>
-  </si>
-  <si>
-    <t>Grund</t>
   </si>
   <si>
     <r>
@@ -622,7 +713,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Tolkning av musik</t>
+      <t>Sammanhållning av sammansättning</t>
     </r>
     <r>
       <rPr>
@@ -632,59 +723,10 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-• Starkt engagemang till ett genomtänkt och utvecklat musikaliskt koncept
-• Fängslande tolkning av musiken
-• Stor variation av uttryck som speglar olika typer av musik samt förändringar i musiken
-• Komplext kroppsspråk samt gester och rörelser i många olika riktningar.</t>
+•  Mjuka övergångar och rörelser som visar flyt, kontroll och sammanhållning.
+•  Element, sekvenser, övergångar, positioner, riktningar och kombinationer av övningar som uppvisar komplexitet och rörelsefrihet.
+•  Undviker tom häst.</t>
     </r>
-  </si>
-  <si>
-    <t>Sving framlänges</t>
-  </si>
-  <si>
-    <t>Sving baklänges, inkl avgång</t>
-  </si>
-  <si>
-    <t>Avhopp, utåt</t>
-  </si>
-  <si>
-    <t>Lag grund D</t>
-  </si>
-  <si>
-    <t>Lag grund B</t>
-  </si>
-  <si>
-    <t>Lag grund A</t>
-  </si>
-  <si>
-    <t>Lag kür mellanklass</t>
-  </si>
-  <si>
-    <t>Lag kür tekn mellan</t>
-  </si>
-  <si>
-    <t>Lag kür tekn junior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulmarkerade celler i protokollen markerar vilka celler som ska fyllas i. </t>
-  </si>
-  <si>
-    <t>Protokollen uppdaterades senast 2019-03-28.</t>
-  </si>
-  <si>
-    <t>7)</t>
-  </si>
-  <si>
-    <t>8)</t>
-  </si>
-  <si>
-    <t>9)</t>
-  </si>
-  <si>
-    <t>Antal voltigörer:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/ antalet voltigörer  </t>
   </si>
   <si>
     <r>
@@ -695,7 +737,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Sammanhållning av sammansättning och komplexitet</t>
+      <t>Tolkning av musiken/kroppsspråk/uttrycksfullhet.</t>
     </r>
     <r>
       <rPr>
@@ -705,29 +747,27 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-• Val av element och sekvenser i harmoni med hästen.
-• Mjuka övergångar och rörelser som visar på sammanhållning och flyt.
-• Hög komplexitet av element, övergångar, positioner och kombinationer av övningar.
-• Förmåga att kontrollera och länka samman röresler och positioner i instabil jämvikt. Rörelsefrihet. 
-• Undviker tom häst
-• Övningar som inte överbelastar hästen</t>
+• Starkt engagemang till ett genomtänkt och utvecklat musikaliskt koncept.
+• Fängslande tolkning av musiken.
+• Stor variation av uttryck som speglar olika typer av musik samt förändringar i musiken.
+• Komplexitet i kroppsspråk samt gester och rörelser i många olika riktningar.</t>
     </r>
   </si>
   <si>
+    <t>C1
+20%</t>
+  </si>
+  <si>
+    <t>C2
+10%</t>
+  </si>
+  <si>
     <t>C3
-30%</t>
-  </si>
-  <si>
-    <t>Sidhopp del 1 tryck av inåt</t>
-  </si>
-  <si>
-    <t>Grund 2*</t>
-  </si>
-  <si>
-    <t>Svår klass juniorlag kür</t>
-  </si>
-  <si>
-    <t>Grund 3*</t>
+25%</t>
+  </si>
+  <si>
+    <t>C4
+25%</t>
   </si>
 </sst>
 </file>
@@ -743,7 +783,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -851,13 +891,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Symbol"/>
@@ -915,7 +948,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1579,6 +1612,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1587,10 +1633,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1937,10 +1983,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1965,8 +2011,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2014,18 +2060,116 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2035,23 +2179,12 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="169" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2067,86 +2200,17 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2169,24 +2233,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2196,62 +2266,59 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2283,9 +2350,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2323,9 +2390,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2358,26 +2425,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2410,26 +2460,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2616,34 +2649,34 @@
   <sheetData>
     <row r="1" spans="1:8" s="148" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="147" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="148" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="148" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="148" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="163" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="163" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="163" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="163" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:8" s="148" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:8" s="134" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A8" s="134" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -2654,61 +2687,61 @@
     </row>
     <row r="12" spans="1:8" s="136" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A12" s="136" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="137" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C13" s="135"/>
       <c r="F13" s="137" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="136" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C14" s="136" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D14" s="136" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E14" s="136"/>
       <c r="F14" s="136" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G14" s="136" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H14" s="136" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="135" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B15" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C15" s="138" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D15" s="138" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E15" s="139"/>
       <c r="F15" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G15" s="138" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H15" s="138" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2723,26 +2756,26 @@
     </row>
     <row r="17" spans="1:9" s="135" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="135" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B17" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C17" s="138" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D17" s="138" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E17" s="139"/>
       <c r="F17" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G17" s="138" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H17" s="138" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2757,26 +2790,26 @@
     </row>
     <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="135" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C19" s="138" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D19" s="138" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E19" s="139"/>
       <c r="F19" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G19" s="138" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H19" s="138" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2791,71 +2824,71 @@
     </row>
     <row r="22" spans="1:9" s="136" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A22" s="136" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="137" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C23" s="135"/>
       <c r="F23" s="137" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="136" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C24" s="136" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="136" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="136" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="136" t="s">
-        <v>107</v>
-      </c>
       <c r="F24" s="136" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G24" s="136" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="136" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="136" t="s">
         <v>104</v>
-      </c>
-      <c r="H24" s="136" t="s">
-        <v>105</v>
-      </c>
-      <c r="I24" s="136" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="135" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="138" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="138" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="138" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="138" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="138" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="138" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="138" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="138" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="138" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="138" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="138" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="138" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="138" t="s">
-        <v>148</v>
-      </c>
-      <c r="H25" s="138" t="s">
-        <v>114</v>
-      </c>
       <c r="I25" s="138" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2871,31 +2904,31 @@
     </row>
     <row r="27" spans="1:9" s="135" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="135" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B27" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C27" s="138" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D27" s="138" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E27" s="138" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F27" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G27" s="138" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H27" s="138" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I27" s="138" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2911,31 +2944,31 @@
     </row>
     <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="135" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B29" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C29" s="138" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D29" s="138" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E29" s="138" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F29" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G29" s="138" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H29" s="138" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I29" s="138" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -2958,82 +2991,82 @@
     </row>
     <row r="33" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A33" s="136" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="137" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C35" s="135"/>
       <c r="F35" s="137" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J35" s="137" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="136" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C36" s="136" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D36" s="136" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E36" s="136"/>
       <c r="F36" s="136" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G36" s="136" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H36" s="136" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J36" s="136" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K36" s="136" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L36" s="136" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="135" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B37" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C37" s="138" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D37" s="138" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E37" s="139"/>
       <c r="F37" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G37" s="138" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H37" s="138" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J37" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K37" s="138" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L37" s="138" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3051,35 +3084,35 @@
     </row>
     <row r="39" spans="1:17" s="135" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="135" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B39" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C39" s="138" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D39" s="138" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E39" s="139"/>
       <c r="F39" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G39" s="138" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H39" s="138" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J39" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K39" s="138" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L39" s="138" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3097,35 +3130,35 @@
     </row>
     <row r="41" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="135" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B41" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C41" s="138" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D41" s="138" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E41" s="139"/>
       <c r="F41" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G41" s="138" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H41" s="138" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J41" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K41" s="138" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L41" s="138" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3156,59 +3189,59 @@
     </row>
     <row r="45" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A45" s="136" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="137" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C47" s="135"/>
       <c r="F47" s="137" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J47" s="137" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K47" s="135"/>
       <c r="N47" s="137"/>
     </row>
     <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="136" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C48" s="136" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="136" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="136" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="136" t="s">
-        <v>107</v>
-      </c>
       <c r="F48" s="136" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G48" s="136" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" s="136" t="s">
+        <v>102</v>
+      </c>
+      <c r="I48" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="H48" s="136" t="s">
-        <v>105</v>
-      </c>
-      <c r="I48" s="136" t="s">
-        <v>107</v>
-      </c>
       <c r="J48" s="136" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K48" s="136" t="s">
+        <v>101</v>
+      </c>
+      <c r="L48" s="136" t="s">
+        <v>102</v>
+      </c>
+      <c r="M48" s="136" t="s">
         <v>104</v>
-      </c>
-      <c r="L48" s="136" t="s">
-        <v>105</v>
-      </c>
-      <c r="M48" s="136" t="s">
-        <v>107</v>
       </c>
       <c r="N48" s="136"/>
       <c r="O48" s="136"/>
@@ -3217,43 +3250,43 @@
     </row>
     <row r="49" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="135" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="138" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="138" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="138" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="138" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" s="138" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="138" t="s">
+        <v>142</v>
+      </c>
+      <c r="H49" s="138" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="138" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="138" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="138" t="s">
-        <v>144</v>
-      </c>
-      <c r="E49" s="138" t="s">
-        <v>144</v>
-      </c>
-      <c r="F49" s="138" t="s">
-        <v>110</v>
-      </c>
-      <c r="G49" s="138" t="s">
-        <v>148</v>
-      </c>
-      <c r="H49" s="138" t="s">
-        <v>114</v>
-      </c>
       <c r="I49" s="138" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J49" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K49" s="138" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L49" s="138" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M49" s="138" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3273,43 +3306,43 @@
     </row>
     <row r="51" spans="1:13" s="135" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="135" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B51" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C51" s="138" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D51" s="138" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E51" s="138" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F51" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G51" s="138" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H51" s="138" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I51" s="138" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J51" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K51" s="138" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L51" s="138" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M51" s="138" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3329,106 +3362,106 @@
     </row>
     <row r="53" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="135" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B53" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C53" s="138" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D53" s="138" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E53" s="138" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F53" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G53" s="138" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H53" s="138" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I53" s="138" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J53" s="138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K53" s="138" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L53" s="138" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M53" s="138" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="148" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A56" s="146" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="145" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A57" s="144"/>
       <c r="B57" s="144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C57" s="144" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="144" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" s="144" t="s">
         <v>104</v>
       </c>
-      <c r="D57" s="144" t="s">
-        <v>105</v>
-      </c>
-      <c r="E57" s="144" t="s">
-        <v>107</v>
-      </c>
       <c r="F57" s="144" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="143" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="142" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="142" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="142" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="142" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="142" t="s">
+      <c r="F58" s="142" t="s">
         <v>122</v>
-      </c>
-      <c r="C58" s="142" t="s">
-        <v>123</v>
-      </c>
-      <c r="D58" s="142" t="s">
-        <v>123</v>
-      </c>
-      <c r="E58" s="142" t="s">
-        <v>124</v>
-      </c>
-      <c r="F58" s="142" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="143" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="142" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="142" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="142" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="142" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="142" t="s">
+      <c r="F59" s="142" t="s">
         <v>122</v>
-      </c>
-      <c r="C59" s="142" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="142" t="s">
-        <v>128</v>
-      </c>
-      <c r="E59" s="142" t="s">
-        <v>129</v>
-      </c>
-      <c r="F59" s="142" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:13" s="143" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -3438,7 +3471,7 @@
       <c r="D60" s="142"/>
       <c r="E60" s="142"/>
       <c r="F60" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3481,11 +3514,11 @@
     <row r="1" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="11"/>
@@ -3493,11 +3526,11 @@
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -3505,7 +3538,7 @@
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="150"/>
@@ -3513,7 +3546,7 @@
       <c r="E4" s="8"/>
       <c r="G4" s="9"/>
       <c r="H4" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
@@ -3521,15 +3554,15 @@
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
       <c r="G5" s="9"/>
       <c r="H5" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I5" s="128"/>
       <c r="J5" s="11"/>
@@ -3537,19 +3570,19 @@
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="92"/>
@@ -3558,77 +3591,77 @@
       <c r="G7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="169"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="171"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
       <c r="G8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="168"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="175"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="198"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="196"/>
       <c r="G9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="168"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="175"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="198"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
       <c r="G10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="168"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="175"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="198"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="168"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="175"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="197"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="198"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="G12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="168"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="175"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="198"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
@@ -3639,209 +3672,209 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="186" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="187"/>
-      <c r="I14" s="188" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" s="189"/>
-      <c r="K14" s="190"/>
+      <c r="G14" s="199" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="200"/>
+      <c r="I14" s="201" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="202"/>
+      <c r="K14" s="203"/>
     </row>
     <row r="15" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="191" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="194" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="194" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="194"/>
-      <c r="E15" s="195" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="196"/>
+      <c r="A15" s="172" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="186" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="186" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="186"/>
+      <c r="E15" s="189" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="190"/>
       <c r="G15" s="44"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="197" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="181"/>
-      <c r="K15" s="176">
+      <c r="I15" s="178" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="210"/>
+      <c r="K15" s="208">
         <f>ROUND(J15*0.3,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="192"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="178" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="179" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="180"/>
+      <c r="A16" s="173"/>
+      <c r="B16" s="180"/>
+      <c r="C16" s="180" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="180"/>
+      <c r="E16" s="181" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="182"/>
       <c r="G16" s="46"/>
       <c r="H16" s="47"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="177"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="211"/>
+      <c r="K16" s="209"/>
     </row>
     <row r="17" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="192"/>
-      <c r="B17" s="178"/>
-      <c r="C17" s="178" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="178"/>
-      <c r="E17" s="179" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="180"/>
+      <c r="A17" s="173"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="180" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="180"/>
+      <c r="E17" s="181" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="182"/>
       <c r="G17" s="48"/>
       <c r="H17" s="49"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="182"/>
-      <c r="K17" s="177"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="211"/>
+      <c r="K17" s="209"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="192"/>
-      <c r="B18" s="199" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="178" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="179" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="180"/>
+      <c r="A18" s="173"/>
+      <c r="B18" s="191" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="180" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="180"/>
+      <c r="E18" s="181" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="182"/>
       <c r="G18" s="50"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="198" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="182"/>
-      <c r="K18" s="177">
+      <c r="I18" s="179" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="211"/>
+      <c r="K18" s="209">
         <f>ROUND(J18*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="192"/>
-      <c r="B19" s="200"/>
-      <c r="C19" s="178" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="178"/>
-      <c r="E19" s="179" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="180"/>
+      <c r="A19" s="173"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="180" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="180"/>
+      <c r="E19" s="181" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="182"/>
       <c r="G19" s="46"/>
       <c r="H19" s="47"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="182"/>
-      <c r="K19" s="177"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="211"/>
+      <c r="K19" s="209"/>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="193"/>
-      <c r="B20" s="201"/>
-      <c r="C20" s="203" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="203"/>
-      <c r="E20" s="204" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="205"/>
+      <c r="A20" s="174"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="183"/>
+      <c r="E20" s="184" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="185"/>
       <c r="G20" s="52"/>
       <c r="H20" s="53"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="184"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="212"/>
+      <c r="K20" s="213"/>
     </row>
     <row r="21" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="191" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="208" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="194" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="194"/>
-      <c r="E21" s="211" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="212"/>
+      <c r="A21" s="172" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="175" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="186" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="186"/>
+      <c r="E21" s="187" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="188"/>
       <c r="G21" s="54"/>
       <c r="H21" s="55"/>
-      <c r="I21" s="197" t="s">
-        <v>96</v>
-      </c>
-      <c r="J21" s="181"/>
-      <c r="K21" s="176">
+      <c r="I21" s="178" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" s="210"/>
+      <c r="K21" s="208">
         <f>ROUND(J21*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="192"/>
-      <c r="B22" s="209"/>
-      <c r="C22" s="178" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="178"/>
-      <c r="E22" s="179" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="180"/>
+      <c r="A22" s="173"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="180" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="180"/>
+      <c r="E22" s="181" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="182"/>
       <c r="G22" s="46"/>
       <c r="H22" s="47"/>
-      <c r="I22" s="198"/>
-      <c r="J22" s="182"/>
-      <c r="K22" s="177"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="211"/>
+      <c r="K22" s="209"/>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="192"/>
-      <c r="B23" s="210"/>
-      <c r="C23" s="178" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="178"/>
-      <c r="E23" s="179" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="180"/>
+      <c r="A23" s="173"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="180" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="180"/>
+      <c r="E23" s="181" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="182"/>
       <c r="G23" s="48"/>
       <c r="H23" s="49"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="182"/>
-      <c r="K23" s="177"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="211"/>
+      <c r="K23" s="209"/>
     </row>
     <row r="24" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="193"/>
+      <c r="A24" s="174"/>
       <c r="B24" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="203"/>
-      <c r="D24" s="203"/>
-      <c r="E24" s="204" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="205"/>
+        <v>28</v>
+      </c>
+      <c r="C24" s="183"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="184" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="185"/>
       <c r="G24" s="57"/>
       <c r="H24" s="58"/>
       <c r="I24" s="59" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J24" s="151"/>
       <c r="K24" s="149">
@@ -3851,23 +3884,23 @@
     </row>
     <row r="25" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="60" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B25" s="133" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="185" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="206" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="207"/>
+        <v>95</v>
+      </c>
+      <c r="C25" s="214" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="214"/>
+      <c r="E25" s="170" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="171"/>
       <c r="G25" s="61"/>
       <c r="H25" s="62"/>
       <c r="I25" s="63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J25" s="152"/>
       <c r="K25" s="64">
@@ -3897,18 +3930,18 @@
       <c r="F27" s="65"/>
       <c r="G27" s="65"/>
       <c r="H27" s="66" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I27" s="67"/>
-      <c r="J27" s="172">
+      <c r="J27" s="206">
         <f>SUM(K15:K25)</f>
         <v>0</v>
       </c>
-      <c r="K27" s="173"/>
+      <c r="K27" s="207"/>
     </row>
     <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31" s="68"/>
       <c r="C31" s="68"/>
@@ -3916,7 +3949,7 @@
       <c r="E31" s="65"/>
       <c r="F31" s="65"/>
       <c r="G31" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -3925,40 +3958,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="C6:E6"/>
@@ -3975,6 +3974,40 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="J21:J23"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3995,7 +4028,7 @@
   </sheetPr>
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -4018,14 +4051,14 @@
     <row r="1" spans="1:22" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R2" s="9"/>
       <c r="S2" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="T2" s="10"/>
       <c r="U2" s="11"/>
@@ -4033,7 +4066,7 @@
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="J3" s="165" t="str">
         <f>IF(L3&lt;&gt;0,J2+1,"0")</f>
@@ -4042,13 +4075,13 @@
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="222"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="195"/>
+      <c r="N3" s="195"/>
+      <c r="O3" s="215"/>
       <c r="R3" s="9"/>
       <c r="S3" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="11"/>
@@ -4056,7 +4089,7 @@
     </row>
     <row r="4" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="150"/>
@@ -4070,13 +4103,13 @@
       <c r="K4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="168"/>
-      <c r="M4" s="168"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="223"/>
+      <c r="L4" s="196"/>
+      <c r="M4" s="196"/>
+      <c r="N4" s="196"/>
+      <c r="O4" s="216"/>
       <c r="R4" s="9"/>
       <c r="S4" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="T4" s="10"/>
       <c r="U4" s="11"/>
@@ -4084,13 +4117,13 @@
     </row>
     <row r="5" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
       <c r="J5" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4098,13 +4131,13 @@
       <c r="K5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="168"/>
-      <c r="M5" s="174"/>
-      <c r="N5" s="174"/>
-      <c r="O5" s="175"/>
+      <c r="L5" s="196"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="198"/>
       <c r="R5" s="9"/>
       <c r="S5" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T5" s="128"/>
       <c r="U5" s="11"/>
@@ -4112,13 +4145,13 @@
     </row>
     <row r="6" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
       <c r="J6" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4126,14 +4159,14 @@
       <c r="K6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="168"/>
-      <c r="M6" s="174"/>
-      <c r="N6" s="174"/>
-      <c r="O6" s="175"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="197"/>
+      <c r="N6" s="197"/>
+      <c r="O6" s="198"/>
     </row>
     <row r="7" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="92"/>
@@ -4147,20 +4180,20 @@
       <c r="K7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="168"/>
-      <c r="M7" s="174"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="175"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="197"/>
+      <c r="N7" s="197"/>
+      <c r="O7" s="198"/>
     </row>
     <row r="8" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="J8" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4168,52 +4201,52 @@
       <c r="K8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="168"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="175"/>
+      <c r="L8" s="196"/>
+      <c r="M8" s="197"/>
+      <c r="N8" s="197"/>
+      <c r="O8" s="198"/>
     </row>
     <row r="9" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="196"/>
       <c r="J9" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="L9" s="168"/>
-      <c r="M9" s="174"/>
-      <c r="N9" s="174"/>
-      <c r="O9" s="175"/>
+        <v>146</v>
+      </c>
+      <c r="L9" s="196"/>
+      <c r="M9" s="197"/>
+      <c r="N9" s="197"/>
+      <c r="O9" s="198"/>
     </row>
     <row r="10" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
       <c r="J10" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="L10" s="168"/>
-      <c r="M10" s="174"/>
-      <c r="N10" s="174"/>
-      <c r="O10" s="175"/>
+        <v>147</v>
+      </c>
+      <c r="L10" s="196"/>
+      <c r="M10" s="197"/>
+      <c r="N10" s="197"/>
+      <c r="O10" s="198"/>
     </row>
     <row r="11" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J11" s="165" t="str">
@@ -4221,12 +4254,12 @@
         <v>0</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="L11" s="168"/>
-      <c r="M11" s="174"/>
-      <c r="N11" s="174"/>
-      <c r="O11" s="175"/>
+        <v>148</v>
+      </c>
+      <c r="L11" s="196"/>
+      <c r="M11" s="197"/>
+      <c r="N11" s="197"/>
+      <c r="O11" s="198"/>
     </row>
     <row r="12" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4262,16 +4295,16 @@
         <v>9</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="213"/>
-      <c r="B15" s="214" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="215"/>
-      <c r="D15" s="215"/>
+      <c r="A15" s="219"/>
+      <c r="B15" s="220" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="221"/>
+      <c r="D15" s="221"/>
       <c r="E15" s="18"/>
       <c r="F15" s="153"/>
       <c r="G15" s="153"/>
@@ -4290,12 +4323,12 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="213"/>
-      <c r="B16" s="216" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="215"/>
-      <c r="D16" s="215"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="222" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
       <c r="E16" s="18"/>
       <c r="F16" s="153"/>
       <c r="G16" s="153"/>
@@ -4314,11 +4347,11 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="216" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="215"/>
-      <c r="D17" s="215"/>
+      <c r="B17" s="222" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
       <c r="E17" s="18"/>
       <c r="F17" s="153"/>
       <c r="G17" s="153"/>
@@ -4337,11 +4370,11 @@
       </c>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="220" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="221"/>
-      <c r="D18" s="221"/>
+      <c r="B18" s="217" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
       <c r="E18" s="18"/>
       <c r="F18" s="153"/>
       <c r="G18" s="153"/>
@@ -4360,11 +4393,11 @@
       </c>
     </row>
     <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="216" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="215"/>
-      <c r="D19" s="215"/>
+      <c r="B19" s="222" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="221"/>
+      <c r="D19" s="221"/>
       <c r="E19" s="20"/>
       <c r="F19" s="153"/>
       <c r="G19" s="153"/>
@@ -4384,7 +4417,7 @@
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="69" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C20" s="70"/>
       <c r="D20" s="70"/>
@@ -4407,7 +4440,7 @@
     </row>
     <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="69" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C21" s="70"/>
       <c r="D21" s="70"/>
@@ -4429,12 +4462,12 @@
       </c>
     </row>
     <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="217" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="218"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="219"/>
+      <c r="B22" s="223" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="224"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="225"/>
       <c r="F22" s="153"/>
       <c r="G22" s="153"/>
       <c r="H22" s="153"/>
@@ -4453,7 +4486,7 @@
     </row>
     <row r="23" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M23" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="O23" s="1">
         <f>MAX(J3:J11)</f>
@@ -4462,7 +4495,7 @@
     </row>
     <row r="24" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -4471,7 +4504,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="23"/>
       <c r="N24" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O24" s="19">
         <f>SUM(O15:O22)</f>
@@ -4483,7 +4516,7 @@
       <c r="H25" s="26"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O25" s="27">
         <f>IFERROR(ROUND(O24/O23,3),0)</f>
@@ -4506,7 +4539,7 @@
       <c r="H27" s="32"/>
       <c r="L27" s="28"/>
       <c r="N27" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O27" s="29"/>
     </row>
@@ -4515,7 +4548,7 @@
       <c r="F29" s="38"/>
       <c r="H29" s="33"/>
       <c r="L29" s="71" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M29" s="72"/>
       <c r="N29" s="73"/>
@@ -4542,7 +4575,7 @@
     <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -4550,7 +4583,7 @@
       <c r="E33" s="40"/>
       <c r="F33" s="38"/>
       <c r="H33" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -4570,6 +4603,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="L9:O9"/>
@@ -4579,18 +4624,6 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="L7:O7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
@@ -4612,7 +4645,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B22" sqref="B22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4634,14 +4667,14 @@
     <row r="1" spans="1:20" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
@@ -4649,7 +4682,7 @@
     </row>
     <row r="3" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="J3" s="165" t="str">
         <f>IF(L3&lt;&gt;0,I2+1,"0")</f>
@@ -4664,7 +4697,7 @@
       <c r="O3" s="166"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R3" s="10"/>
       <c r="S3" s="11"/>
@@ -4672,7 +4705,7 @@
     </row>
     <row r="4" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="150"/>
@@ -4692,7 +4725,7 @@
       <c r="O4" s="167"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="11"/>
@@ -4700,13 +4733,13 @@
     </row>
     <row r="5" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
       <c r="J5" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4720,7 +4753,7 @@
       <c r="O5" s="130"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R5" s="128"/>
       <c r="S5" s="11"/>
@@ -4728,13 +4761,13 @@
     </row>
     <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
       <c r="J6" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4749,7 +4782,7 @@
     </row>
     <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="92"/>
@@ -4773,10 +4806,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="J8" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4791,19 +4824,19 @@
     </row>
     <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="196"/>
       <c r="J9" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L9" s="92"/>
       <c r="M9" s="12"/>
@@ -4812,19 +4845,19 @@
     </row>
     <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
       <c r="J10" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L10" s="92"/>
       <c r="M10" s="12"/>
@@ -4837,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L11" s="92"/>
       <c r="M11" s="12"/>
@@ -4880,16 +4913,16 @@
         <v>9</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="213"/>
-      <c r="B15" s="214" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="215"/>
-      <c r="D15" s="215"/>
+      <c r="A15" s="219"/>
+      <c r="B15" s="220" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="221"/>
+      <c r="D15" s="221"/>
       <c r="E15" s="18"/>
       <c r="F15" s="153"/>
       <c r="G15" s="153"/>
@@ -4910,12 +4943,12 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="213"/>
-      <c r="B16" s="216" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="215"/>
-      <c r="D16" s="215"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="222" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
       <c r="E16" s="18"/>
       <c r="F16" s="153"/>
       <c r="G16" s="153"/>
@@ -4934,11 +4967,11 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="216" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="215"/>
-      <c r="D17" s="215"/>
+      <c r="B17" s="222" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
       <c r="E17" s="18"/>
       <c r="F17" s="153"/>
       <c r="G17" s="153"/>
@@ -4955,11 +4988,11 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="224" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="215"/>
-      <c r="D18" s="215"/>
+      <c r="B18" s="226" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="221"/>
+      <c r="D18" s="221"/>
       <c r="E18" s="18"/>
       <c r="F18" s="153"/>
       <c r="G18" s="153"/>
@@ -4976,11 +5009,11 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="220" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="221"/>
-      <c r="D19" s="221"/>
+      <c r="B19" s="217" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
       <c r="E19" s="20"/>
       <c r="F19" s="153"/>
       <c r="G19" s="153"/>
@@ -4997,11 +5030,11 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="216" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="215"/>
-      <c r="D20" s="215"/>
+      <c r="B20" s="222" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="221"/>
+      <c r="D20" s="221"/>
       <c r="E20" s="18"/>
       <c r="F20" s="153"/>
       <c r="G20" s="153"/>
@@ -5019,7 +5052,7 @@
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="69" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C21" s="70"/>
       <c r="D21" s="70"/>
@@ -5039,12 +5072,12 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="239" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="240"/>
-      <c r="D22" s="240"/>
-      <c r="E22" s="240"/>
+      <c r="B22" s="237" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="238"/>
+      <c r="D22" s="238"/>
+      <c r="E22" s="238"/>
       <c r="F22" s="153"/>
       <c r="G22" s="153"/>
       <c r="H22" s="153"/>
@@ -5061,7 +5094,7 @@
     </row>
     <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M23" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="O23" s="1">
         <f>MAX(J3:J11)</f>
@@ -5070,7 +5103,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5079,7 +5112,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="23"/>
       <c r="N24" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O24" s="19">
         <f>SUM(O15:O22)</f>
@@ -5091,7 +5124,7 @@
       <c r="H25" s="26"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O25" s="27">
         <f>IFERROR(ROUND(O24/O23,3),0)</f>
@@ -5114,7 +5147,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="32"/>
       <c r="N27" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O27" s="29"/>
     </row>
@@ -5123,7 +5156,7 @@
       <c r="F29" s="38"/>
       <c r="H29" s="33"/>
       <c r="L29" s="71" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M29" s="72"/>
       <c r="N29" s="73"/>
@@ -5150,7 +5183,7 @@
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
@@ -5158,7 +5191,7 @@
       <c r="E32" s="40"/>
       <c r="F32" s="38"/>
       <c r="H32" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -5183,6 +5216,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="A15:A16"/>
@@ -5191,11 +5229,6 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
@@ -5239,14 +5272,14 @@
     <row r="1" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:21" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="S2" s="10"/>
       <c r="T2" s="11"/>
@@ -5254,7 +5287,7 @@
     </row>
     <row r="3" spans="1:21" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J3" s="165" t="str">
         <f>IF(L3&lt;&gt;0,J2+1,"0")</f>
@@ -5263,13 +5296,13 @@
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="195"/>
+      <c r="N3" s="195"/>
+      <c r="O3" s="195"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="11"/>
@@ -5277,7 +5310,7 @@
     </row>
     <row r="4" spans="1:21" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="150"/>
@@ -5291,13 +5324,13 @@
       <c r="K4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="168"/>
-      <c r="M4" s="168"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
+      <c r="L4" s="196"/>
+      <c r="M4" s="196"/>
+      <c r="N4" s="196"/>
+      <c r="O4" s="196"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S4" s="10"/>
       <c r="T4" s="11"/>
@@ -5305,13 +5338,13 @@
     </row>
     <row r="5" spans="1:21" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
       <c r="J5" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5319,13 +5352,13 @@
       <c r="K5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="168"/>
-      <c r="M5" s="174"/>
-      <c r="N5" s="174"/>
-      <c r="O5" s="174"/>
+      <c r="L5" s="196"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="197"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S5" s="128"/>
       <c r="T5" s="11"/>
@@ -5333,13 +5366,13 @@
     </row>
     <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
       <c r="J6" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5347,14 +5380,14 @@
       <c r="K6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="168"/>
-      <c r="M6" s="174"/>
-      <c r="N6" s="174"/>
-      <c r="O6" s="174"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="197"/>
+      <c r="N6" s="197"/>
+      <c r="O6" s="197"/>
     </row>
     <row r="7" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="92"/>
@@ -5368,20 +5401,20 @@
       <c r="K7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="168"/>
-      <c r="M7" s="174"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="174"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="197"/>
+      <c r="N7" s="197"/>
+      <c r="O7" s="197"/>
     </row>
     <row r="8" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="J8" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5389,52 +5422,52 @@
       <c r="K8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="168"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="174"/>
+      <c r="L8" s="196"/>
+      <c r="M8" s="197"/>
+      <c r="N8" s="197"/>
+      <c r="O8" s="197"/>
     </row>
     <row r="9" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="196"/>
       <c r="J9" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="L9" s="168"/>
-      <c r="M9" s="174"/>
-      <c r="N9" s="174"/>
-      <c r="O9" s="174"/>
+        <v>146</v>
+      </c>
+      <c r="L9" s="196"/>
+      <c r="M9" s="197"/>
+      <c r="N9" s="197"/>
+      <c r="O9" s="197"/>
     </row>
     <row r="10" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
       <c r="J10" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="L10" s="168"/>
-      <c r="M10" s="174"/>
-      <c r="N10" s="174"/>
-      <c r="O10" s="174"/>
+        <v>147</v>
+      </c>
+      <c r="L10" s="196"/>
+      <c r="M10" s="197"/>
+      <c r="N10" s="197"/>
+      <c r="O10" s="197"/>
     </row>
     <row r="11" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J11" s="165" t="str">
@@ -5442,12 +5475,12 @@
         <v>0</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="L11" s="168"/>
-      <c r="M11" s="174"/>
-      <c r="N11" s="174"/>
-      <c r="O11" s="174"/>
+        <v>148</v>
+      </c>
+      <c r="L11" s="196"/>
+      <c r="M11" s="197"/>
+      <c r="N11" s="197"/>
+      <c r="O11" s="197"/>
     </row>
     <row r="12" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
@@ -5492,16 +5525,16 @@
         <v>9</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="213"/>
-      <c r="B16" s="214" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="215"/>
-      <c r="D16" s="215"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
       <c r="E16" s="18"/>
       <c r="F16" s="153"/>
       <c r="G16" s="153"/>
@@ -5518,12 +5551,12 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="213"/>
-      <c r="B17" s="216" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="215"/>
-      <c r="D17" s="215"/>
+      <c r="A17" s="219"/>
+      <c r="B17" s="222" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
       <c r="E17" s="18"/>
       <c r="F17" s="153"/>
       <c r="G17" s="153"/>
@@ -5540,11 +5573,11 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="216" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="215"/>
-      <c r="D18" s="215"/>
+      <c r="B18" s="222" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="221"/>
+      <c r="D18" s="221"/>
       <c r="E18" s="18"/>
       <c r="F18" s="153"/>
       <c r="G18" s="153"/>
@@ -5561,11 +5594,11 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="224" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="215"/>
-      <c r="D19" s="215"/>
+      <c r="B19" s="226" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="221"/>
+      <c r="D19" s="221"/>
       <c r="E19" s="18"/>
       <c r="F19" s="153"/>
       <c r="G19" s="153"/>
@@ -5582,12 +5615,12 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="216" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="215"/>
-      <c r="D20" s="215"/>
-      <c r="E20" s="225"/>
+      <c r="B20" s="222" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="221"/>
+      <c r="D20" s="221"/>
+      <c r="E20" s="227"/>
       <c r="F20" s="153"/>
       <c r="G20" s="153"/>
       <c r="H20" s="153"/>
@@ -5603,11 +5636,11 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="216" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="215"/>
-      <c r="D21" s="215"/>
+      <c r="B21" s="222" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="221"/>
+      <c r="D21" s="221"/>
       <c r="E21" s="18"/>
       <c r="F21" s="153"/>
       <c r="G21" s="153"/>
@@ -5624,12 +5657,12 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="217" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="218"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="219"/>
+      <c r="B22" s="223" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="224"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="225"/>
       <c r="F22" s="153"/>
       <c r="G22" s="153"/>
       <c r="H22" s="153"/>
@@ -5647,7 +5680,7 @@
     <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L23" s="21"/>
       <c r="M23" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="O23" s="1">
         <f>MAX(J3:J11)</f>
@@ -5656,7 +5689,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5665,7 +5698,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="23"/>
       <c r="N24" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O24" s="19">
         <f>SUM(O16:O22)</f>
@@ -5677,7 +5710,7 @@
       <c r="H25" s="26"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O25" s="27">
         <f>IFERROR(ROUND(O24/O23,3),0)</f>
@@ -5700,7 +5733,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="32"/>
       <c r="N27" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O27" s="29"/>
     </row>
@@ -5708,7 +5741,7 @@
     <row r="29" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H29" s="33"/>
       <c r="L29" s="34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M29" s="35"/>
       <c r="N29" s="36"/>
@@ -5736,7 +5769,7 @@
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -5744,7 +5777,7 @@
       <c r="E33" s="40"/>
       <c r="F33" s="38"/>
       <c r="H33" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -5792,6 +5825,20 @@
     <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="L9:O9"/>
@@ -5800,20 +5847,6 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="L7:O7"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
@@ -5860,11 +5893,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -5872,11 +5905,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -5884,7 +5917,7 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="150"/>
@@ -5893,7 +5926,7 @@
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
@@ -5901,16 +5934,16 @@
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J5" s="128"/>
       <c r="K5" s="11"/>
@@ -5918,20 +5951,20 @@
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="92"/>
@@ -5941,106 +5974,106 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="171"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="205"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="168"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="175"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="197"/>
+      <c r="L8" s="198"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="196"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="168"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="175"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="198"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="168"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="175"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="198"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="168"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="175"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="197"/>
+      <c r="L11" s="198"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="168"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="175"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="198"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="I13" s="168"/>
-      <c r="J13" s="174"/>
-      <c r="K13" s="174"/>
-      <c r="L13" s="175"/>
+        <v>146</v>
+      </c>
+      <c r="I13" s="196"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="197"/>
+      <c r="L13" s="198"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I14" s="168"/>
-      <c r="J14" s="174"/>
-      <c r="K14" s="174"/>
-      <c r="L14" s="175"/>
+        <v>147</v>
+      </c>
+      <c r="I14" s="196"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="197"/>
+      <c r="L14" s="198"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="I15" s="168"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="174"/>
-      <c r="L15" s="175"/>
+        <v>148</v>
+      </c>
+      <c r="I15" s="196"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="197"/>
+      <c r="L15" s="198"/>
     </row>
     <row r="16" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="3"/>
@@ -6051,7 +6084,7 @@
     </row>
     <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="74" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6076,7 +6109,7 @@
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="129" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B20" s="130"/>
       <c r="C20" s="91"/>
@@ -6092,22 +6125,22 @@
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G22" s="26"/>
       <c r="H22" s="122" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I22" s="78"/>
       <c r="K22" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="110" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="83"/>
@@ -6126,7 +6159,7 @@
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="110" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C24" s="69"/>
       <c r="D24" s="83"/>
@@ -6145,7 +6178,7 @@
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="110" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C25" s="69"/>
       <c r="D25" s="83"/>
@@ -6164,7 +6197,7 @@
     </row>
     <row r="26" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="69" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C26" s="70"/>
       <c r="D26" s="70"/>
@@ -6181,7 +6214,7 @@
     </row>
     <row r="27" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G27" s="94" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -6196,7 +6229,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6213,13 +6246,13 @@
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="69" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C30" s="70"/>
       <c r="D30" s="83"/>
       <c r="E30" s="154"/>
       <c r="F30" s="69" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G30" s="83"/>
       <c r="H30" s="85">
@@ -6255,7 +6288,7 @@
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E33" s="91" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
@@ -6270,7 +6303,7 @@
     </row>
     <row r="35" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G35" s="94" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -6286,7 +6319,7 @@
     <row r="36" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I37" s="71" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J37" s="98"/>
       <c r="K37" s="98"/>
@@ -6306,14 +6339,14 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
       <c r="E45" s="40"/>
       <c r="H45" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -6356,8 +6389,8 @@
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:L19"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6365,11 +6398,11 @@
     <col min="1" max="1" width="5.73046875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.1328125" style="1"/>
     <col min="3" max="3" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" style="1" customWidth="1"/>
     <col min="5" max="7" width="7.265625" style="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.73046875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.265625" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.265625" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.73046875" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.265625" style="1" customWidth="1"/>
@@ -6379,11 +6412,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -6391,11 +6424,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -6403,7 +6436,7 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="150"/>
@@ -6412,7 +6445,7 @@
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
@@ -6420,16 +6453,16 @@
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J5" s="128"/>
       <c r="K5" s="11"/>
@@ -6437,20 +6470,20 @@
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="92"/>
@@ -6460,70 +6493,70 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="171"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="205"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="168"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="175"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="197"/>
+      <c r="L8" s="198"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="196"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="168"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="175"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="198"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="168"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="175"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="198"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="168"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="175"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="197"/>
+      <c r="L11" s="198"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
@@ -6536,7 +6569,7 @@
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I13" s="92"/>
       <c r="J13" s="12"/>
@@ -6545,7 +6578,7 @@
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="12" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I14" s="92"/>
       <c r="J14" s="12"/>
@@ -6554,7 +6587,7 @@
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I15" s="92"/>
       <c r="J15" s="12"/>
@@ -6570,7 +6603,7 @@
     </row>
     <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="74" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6585,67 +6618,67 @@
       <c r="L17" s="76"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="241"/>
-      <c r="B18" s="242"/>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="242"/>
-      <c r="G18" s="242"/>
-      <c r="H18" s="242"/>
-      <c r="I18" s="242"/>
-      <c r="J18" s="242"/>
-      <c r="K18" s="242"/>
-      <c r="L18" s="243"/>
+      <c r="A18" s="228"/>
+      <c r="B18" s="229"/>
+      <c r="C18" s="229"/>
+      <c r="D18" s="229"/>
+      <c r="E18" s="229"/>
+      <c r="F18" s="229"/>
+      <c r="G18" s="229"/>
+      <c r="H18" s="229"/>
+      <c r="I18" s="229"/>
+      <c r="J18" s="229"/>
+      <c r="K18" s="229"/>
+      <c r="L18" s="230"/>
     </row>
     <row r="19" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="244"/>
-      <c r="B19" s="245"/>
-      <c r="C19" s="245"/>
-      <c r="D19" s="245"/>
-      <c r="E19" s="245"/>
-      <c r="F19" s="245"/>
-      <c r="G19" s="245"/>
-      <c r="H19" s="245"/>
-      <c r="I19" s="245"/>
-      <c r="J19" s="245"/>
-      <c r="K19" s="245"/>
-      <c r="L19" s="246"/>
+      <c r="A19" s="231"/>
+      <c r="B19" s="232"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="232"/>
+      <c r="E19" s="232"/>
+      <c r="F19" s="232"/>
+      <c r="G19" s="232"/>
+      <c r="H19" s="232"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="232"/>
+      <c r="L19" s="233"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="129" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B20" s="130"/>
       <c r="C20" s="91"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
       <c r="K20" s="131"/>
       <c r="L20" s="132"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G22" s="26"/>
       <c r="H22" s="122" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I22" s="78"/>
       <c r="K22" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="110" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="83"/>
@@ -6667,7 +6700,7 @@
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="110" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C24" s="69"/>
       <c r="D24" s="83"/>
@@ -6689,7 +6722,7 @@
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="110" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C25" s="69"/>
       <c r="D25" s="83"/>
@@ -6711,7 +6744,7 @@
     </row>
     <row r="26" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="69" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C26" s="70"/>
       <c r="D26" s="70"/>
@@ -6728,7 +6761,7 @@
     </row>
     <row r="27" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G27" s="94" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -6743,7 +6776,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6760,7 +6793,7 @@
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="69" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C30" s="70"/>
       <c r="D30" s="83"/>
@@ -6770,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="69" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G30" s="83"/>
       <c r="H30" s="85">
@@ -6806,14 +6839,17 @@
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E33" s="91" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="92"/>
       <c r="J33" s="93"/>
-      <c r="K33" s="155"/>
+      <c r="K33" s="239">
+        <f>SUM(E20:J20)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K34" s="90"/>
@@ -6821,7 +6857,7 @@
     </row>
     <row r="35" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G35" s="94" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -6837,7 +6873,7 @@
     <row r="36" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I37" s="71" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J37" s="98"/>
       <c r="K37" s="98"/>
@@ -6857,14 +6893,14 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
       <c r="E45" s="40"/>
       <c r="H45" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -6873,17 +6909,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A18:L19"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I10:L10"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A18:L19"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I10:L10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
@@ -6891,8 +6927,7 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G
 &amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
-    <oddFooter xml:space="preserve">&amp;R2019-06-01
-</oddFooter>
+    <oddFooter>&amp;R&amp;8 2024-01-28</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -6905,8 +6940,8 @@
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:L19"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6914,11 +6949,11 @@
     <col min="1" max="1" width="5.73046875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.1328125" style="1"/>
     <col min="3" max="3" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.59765625" style="1" customWidth="1"/>
     <col min="5" max="7" width="7.265625" style="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.73046875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.19921875" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.265625" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.73046875" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.265625" style="1" customWidth="1"/>
@@ -6928,11 +6963,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -6940,11 +6975,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -6952,7 +6987,7 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="150"/>
@@ -6961,7 +6996,7 @@
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
@@ -6969,16 +7004,16 @@
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J5" s="128"/>
       <c r="K5" s="11"/>
@@ -6986,20 +7021,20 @@
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="92"/>
@@ -7009,106 +7044,106 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="171"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="205"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="168"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="175"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="197"/>
+      <c r="L8" s="198"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="196"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="168"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="175"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="198"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="168"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="175"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="198"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="168"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="175"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="197"/>
+      <c r="L11" s="198"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="168"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="175"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="198"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="I13" s="168"/>
-      <c r="J13" s="174"/>
-      <c r="K13" s="174"/>
-      <c r="L13" s="175"/>
+        <v>146</v>
+      </c>
+      <c r="I13" s="196"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="197"/>
+      <c r="L13" s="198"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I14" s="168"/>
-      <c r="J14" s="174"/>
-      <c r="K14" s="174"/>
-      <c r="L14" s="175"/>
+        <v>147</v>
+      </c>
+      <c r="I14" s="196"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="197"/>
+      <c r="L14" s="198"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="I15" s="168"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="174"/>
-      <c r="L15" s="175"/>
+        <v>148</v>
+      </c>
+      <c r="I15" s="196"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="197"/>
+      <c r="L15" s="198"/>
     </row>
     <row r="16" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="3"/>
@@ -7119,7 +7154,7 @@
     </row>
     <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="74" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -7134,67 +7169,79 @@
       <c r="L17" s="76"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="241"/>
-      <c r="B18" s="242"/>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="242"/>
-      <c r="G18" s="242"/>
-      <c r="H18" s="242"/>
-      <c r="I18" s="242"/>
-      <c r="J18" s="242"/>
-      <c r="K18" s="242"/>
-      <c r="L18" s="243"/>
+      <c r="A18" s="228"/>
+      <c r="B18" s="229"/>
+      <c r="C18" s="229"/>
+      <c r="D18" s="229"/>
+      <c r="E18" s="229"/>
+      <c r="F18" s="229"/>
+      <c r="G18" s="229"/>
+      <c r="H18" s="229"/>
+      <c r="I18" s="229"/>
+      <c r="J18" s="229"/>
+      <c r="K18" s="229"/>
+      <c r="L18" s="230"/>
     </row>
     <row r="19" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="244"/>
-      <c r="B19" s="245"/>
-      <c r="C19" s="245"/>
-      <c r="D19" s="245"/>
-      <c r="E19" s="245"/>
-      <c r="F19" s="245"/>
-      <c r="G19" s="245"/>
-      <c r="H19" s="245"/>
-      <c r="I19" s="245"/>
-      <c r="J19" s="245"/>
-      <c r="K19" s="245"/>
-      <c r="L19" s="246"/>
+      <c r="A19" s="231"/>
+      <c r="B19" s="232"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="232"/>
+      <c r="E19" s="232"/>
+      <c r="F19" s="232"/>
+      <c r="G19" s="232"/>
+      <c r="H19" s="232"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="232"/>
+      <c r="L19" s="233"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="129" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B20" s="130"/>
       <c r="C20" s="91"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="E20" s="155">
+        <v>0</v>
+      </c>
+      <c r="F20" s="155">
+        <v>0</v>
+      </c>
+      <c r="G20" s="155">
+        <v>0</v>
+      </c>
+      <c r="H20" s="155">
+        <v>0</v>
+      </c>
+      <c r="I20" s="155">
+        <v>0</v>
+      </c>
+      <c r="J20" s="155">
+        <v>0</v>
+      </c>
       <c r="K20" s="131"/>
       <c r="L20" s="132"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G22" s="26"/>
       <c r="H22" s="109" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I22" s="78"/>
       <c r="K22" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="110" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="83"/>
@@ -7220,11 +7267,11 @@
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="110" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C24" s="69"/>
       <c r="D24" s="83"/>
-      <c r="E24" s="247">
+      <c r="E24" s="169">
         <f>LEN(A$18)-LEN(SUBSTITUTE(A$18,"M",""))</f>
         <v>0</v>
       </c>
@@ -7246,7 +7293,7 @@
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="110" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C25" s="69"/>
       <c r="D25" s="83"/>
@@ -7272,7 +7319,7 @@
     </row>
     <row r="26" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="69" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C26" s="70"/>
       <c r="D26" s="70"/>
@@ -7295,7 +7342,7 @@
       <c r="E27" s="114"/>
       <c r="F27" s="114"/>
       <c r="G27" s="116" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H27" s="117"/>
       <c r="I27" s="117"/>
@@ -7323,7 +7370,7 @@
     </row>
     <row r="29" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7340,7 +7387,7 @@
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="69" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C31" s="70"/>
       <c r="D31" s="83"/>
@@ -7350,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="69" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G31" s="83"/>
       <c r="H31" s="85">
@@ -7386,14 +7433,15 @@
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="91" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="92"/>
       <c r="J34" s="93"/>
-      <c r="K34" s="155">
+      <c r="K34" s="239">
+        <f>SUM(E20:J20)</f>
         <v>0</v>
       </c>
     </row>
@@ -7403,7 +7451,7 @@
     </row>
     <row r="36" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G36" s="94" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
@@ -7419,7 +7467,7 @@
     <row r="37" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I38" s="71" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J38" s="98"/>
       <c r="K38" s="98"/>
@@ -7430,14 +7478,14 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
       <c r="E45" s="40"/>
       <c r="H45" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -7467,8 +7515,7 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G
 &amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
-    <oddFooter xml:space="preserve">&amp;R2019-06-01
-</oddFooter>
+    <oddFooter>&amp;R&amp;8 2024-01-28</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -7476,15 +7523,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:M28"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A18" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.73046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.86328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.1328125" style="1"/>
     <col min="3" max="3" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.73046875" style="1" customWidth="1"/>
@@ -7501,11 +7551,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -7513,11 +7563,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -7525,7 +7575,7 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="150"/>
@@ -7534,7 +7584,7 @@
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
@@ -7542,16 +7592,16 @@
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J5" s="128"/>
       <c r="K5" s="11"/>
@@ -7559,20 +7609,20 @@
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="92"/>
@@ -7582,267 +7632,300 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="171"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="205"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="168"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="175"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="197"/>
+      <c r="L8" s="198"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="196"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="168"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="175"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="198"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="168"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="175"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="198"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="168"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="175"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="197"/>
+      <c r="L11" s="198"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="168"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="175"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="198"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
       <c r="H13" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="I13" s="196"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="196"/>
+      <c r="L13" s="196"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14"/>
       <c r="H14" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="I14" s="196"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="196"/>
+      <c r="L14" s="196"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14"/>
       <c r="H15" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="I15" s="92"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+        <v>148</v>
+      </c>
+      <c r="I15" s="196"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="196"/>
+      <c r="L15" s="196"/>
     </row>
     <row r="16" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K16" s="164" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="226" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="240" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="241" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="242"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="242"/>
+      <c r="G17" s="242"/>
+      <c r="H17" s="242"/>
+      <c r="I17" s="243"/>
+      <c r="J17" s="168" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="244"/>
+      <c r="L17" s="245">
+        <f>K17*0.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="234" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="246" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="247"/>
+      <c r="D18" s="247"/>
+      <c r="E18" s="247"/>
+      <c r="F18" s="247"/>
+      <c r="G18" s="247"/>
+      <c r="H18" s="247"/>
+      <c r="I18" s="247"/>
+      <c r="J18" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" s="156"/>
+      <c r="L18" s="101">
+        <f>K18*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="102"/>
+    </row>
+    <row r="19" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="235"/>
+      <c r="B19" s="246" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="247"/>
+      <c r="D19" s="247"/>
+      <c r="E19" s="247"/>
+      <c r="F19" s="247"/>
+      <c r="G19" s="247"/>
+      <c r="H19" s="247"/>
+      <c r="I19" s="247"/>
+      <c r="J19" s="103" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" s="157"/>
+      <c r="L19" s="104">
+        <f>K19*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="102"/>
+    </row>
+    <row r="20" spans="1:13" ht="58.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="234" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="251" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="252"/>
+      <c r="D20" s="252"/>
+      <c r="E20" s="252"/>
+      <c r="F20" s="252"/>
+      <c r="G20" s="252"/>
+      <c r="H20" s="252"/>
+      <c r="I20" s="253"/>
+      <c r="J20" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" s="158"/>
+      <c r="L20" s="105">
+        <f>K20*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="102"/>
+    </row>
+    <row r="21" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="236"/>
+      <c r="B21" s="248" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="249"/>
+      <c r="D21" s="249"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="249"/>
+      <c r="G21" s="249"/>
+      <c r="H21" s="249"/>
+      <c r="I21" s="250"/>
+      <c r="J21" s="106" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" s="159"/>
+      <c r="L21" s="107">
+        <f>K21*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="102"/>
+    </row>
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="108">
+        <f>SUM(L18:L21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="90"/>
+    </row>
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="83"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="160"/>
+    </row>
+    <row r="25" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L25" s="90"/>
+    </row>
+    <row r="26" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I26" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="229" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="230"/>
-      <c r="D17" s="230"/>
-      <c r="E17" s="230"/>
-      <c r="F17" s="230"/>
-      <c r="G17" s="230"/>
-      <c r="H17" s="230"/>
-      <c r="I17" s="231"/>
-      <c r="J17" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="156"/>
-      <c r="L17" s="101">
-        <f>K17*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="102"/>
-    </row>
-    <row r="18" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="227"/>
-      <c r="B18" s="232" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="233"/>
-      <c r="D18" s="233"/>
-      <c r="E18" s="233"/>
-      <c r="F18" s="233"/>
-      <c r="G18" s="233"/>
-      <c r="H18" s="233"/>
-      <c r="I18" s="233"/>
-      <c r="J18" s="103" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="157"/>
-      <c r="L18" s="104">
-        <f>K18*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="102"/>
-    </row>
-    <row r="19" spans="1:13" ht="110.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="226" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="234" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="235"/>
-      <c r="D19" s="235"/>
-      <c r="E19" s="235"/>
-      <c r="F19" s="235"/>
-      <c r="G19" s="235"/>
-      <c r="H19" s="235"/>
-      <c r="I19" s="236"/>
-      <c r="J19" s="100" t="s">
-        <v>158</v>
-      </c>
-      <c r="K19" s="158"/>
-      <c r="L19" s="105">
-        <f>K19*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="102"/>
-    </row>
-    <row r="20" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="228"/>
-      <c r="B20" s="237" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="238"/>
-      <c r="D20" s="238"/>
-      <c r="E20" s="238"/>
-      <c r="F20" s="238"/>
-      <c r="G20" s="238"/>
-      <c r="H20" s="238"/>
-      <c r="I20" s="238"/>
-      <c r="J20" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="159"/>
-      <c r="L20" s="107">
-        <f>K20*0.2</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="102"/>
-    </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="108">
-        <f>SUM(L17:L20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L22" s="90"/>
-    </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="160"/>
-    </row>
-    <row r="24" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L24" s="90"/>
-    </row>
-    <row r="25" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I25" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="99">
-        <f>SUM(L17:L20)-L23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="H28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="99">
+        <f>SUM(L17:L21)-L24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="H29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="21">
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
@@ -7854,26 +7937,28 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G
 &amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
-    <oddFooter xml:space="preserve">&amp;R2019-06-01
-</oddFooter>
+    <oddFooter>&amp;R&amp;8 2024-01-28</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7939,15 +8024,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7958,6 +8034,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7974,21 +8065,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>

--- a/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall)_mer_an_6_deltagar.xlsx
+++ b/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall)_mer_an_6_deltagar.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AE5786-DCA4-468E-B1B0-B0890BE896C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CBD0AF-E2FF-4363-B17E-46915C49B819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="5430" windowWidth="19200" windowHeight="21000" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="5310" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
-    <sheet name="Häst, lag" sheetId="24" r:id="rId2"/>
+    <sheet name="Häst_old, lag" sheetId="24" r:id="rId2"/>
     <sheet name="Lag grund A" sheetId="22" r:id="rId3"/>
     <sheet name="Lag grund B" sheetId="18" r:id="rId4"/>
     <sheet name="Lag grund D" sheetId="17" r:id="rId5"/>
@@ -24,7 +24,7 @@
     <sheet name="Lag kür art" sheetId="21" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="bord" localSheetId="1">'Häst, lag'!$K$3</definedName>
+    <definedName name="bord" localSheetId="1">'Häst_old, lag'!$K$3</definedName>
     <definedName name="bord" localSheetId="2">'Lag grund A'!$V$3</definedName>
     <definedName name="bord" localSheetId="3">'Lag grund B'!$T$3</definedName>
     <definedName name="bord" localSheetId="4">'Lag grund D'!$U$3</definedName>
@@ -32,7 +32,7 @@
     <definedName name="bord" localSheetId="6">'Lag kür tekn junior'!$L$3</definedName>
     <definedName name="bord" localSheetId="5">'Lag kür tekn mellan'!$L$3</definedName>
     <definedName name="bord" localSheetId="7">'Lag kür tekn sr'!$L$3</definedName>
-    <definedName name="datum" localSheetId="1">'Häst, lag'!$C$4</definedName>
+    <definedName name="datum" localSheetId="1">'Häst_old, lag'!$C$4</definedName>
     <definedName name="datum" localSheetId="2">'Lag grund A'!$C$4</definedName>
     <definedName name="datum" localSheetId="3">'Lag grund B'!$C$4</definedName>
     <definedName name="datum" localSheetId="4">'Lag grund D'!$C$4</definedName>
@@ -40,7 +40,7 @@
     <definedName name="datum" localSheetId="6">'Lag kür tekn junior'!$C$4</definedName>
     <definedName name="datum" localSheetId="5">'Lag kür tekn mellan'!$C$4</definedName>
     <definedName name="datum" localSheetId="7">'Lag kür tekn sr'!$C$4</definedName>
-    <definedName name="domare" localSheetId="1">'Häst, lag'!$C$31</definedName>
+    <definedName name="domare" localSheetId="1">'Häst_old, lag'!$C$31</definedName>
     <definedName name="domare" localSheetId="2">'Lag grund A'!$C$33</definedName>
     <definedName name="domare" localSheetId="3">'Lag grund B'!$C$32</definedName>
     <definedName name="domare" localSheetId="4">'Lag grund D'!$C$33</definedName>
@@ -48,7 +48,7 @@
     <definedName name="domare" localSheetId="6">'Lag kür tekn junior'!$C$45</definedName>
     <definedName name="domare" localSheetId="5">'Lag kür tekn mellan'!$C$45</definedName>
     <definedName name="domare" localSheetId="7">'Lag kür tekn sr'!$C$45</definedName>
-    <definedName name="firstvaulter" localSheetId="1">'Häst, lag'!$H$7</definedName>
+    <definedName name="firstvaulter" localSheetId="1">'Häst_old, lag'!$H$7</definedName>
     <definedName name="firstvaulter" localSheetId="2">'Lag grund A'!$L$3</definedName>
     <definedName name="firstvaulter" localSheetId="3">'Lag grund B'!$L$3</definedName>
     <definedName name="firstvaulter" localSheetId="4">'Lag grund D'!$L$3</definedName>
@@ -56,7 +56,7 @@
     <definedName name="firstvaulter" localSheetId="6">'Lag kür tekn junior'!$I$7</definedName>
     <definedName name="firstvaulter" localSheetId="5">'Lag kür tekn mellan'!$I$7</definedName>
     <definedName name="firstvaulter" localSheetId="7">'Lag kür tekn sr'!$I$7</definedName>
-    <definedName name="id" localSheetId="1">'Häst, lag'!$U$1</definedName>
+    <definedName name="id" localSheetId="1">'Häst_old, lag'!$U$1</definedName>
     <definedName name="id" localSheetId="2">'Lag grund A'!$U$1</definedName>
     <definedName name="id" localSheetId="3">'Lag grund B'!$U$1</definedName>
     <definedName name="id" localSheetId="4">'Lag grund D'!$U$1</definedName>
@@ -64,7 +64,7 @@
     <definedName name="id" localSheetId="6">'Lag kür tekn junior'!$U$1</definedName>
     <definedName name="id" localSheetId="5">'Lag kür tekn mellan'!$U$1</definedName>
     <definedName name="id" localSheetId="7">'Lag kür tekn sr'!$U$1</definedName>
-    <definedName name="klass" localSheetId="1">'Häst, lag'!$K$4</definedName>
+    <definedName name="klass" localSheetId="1">'Häst_old, lag'!$K$4</definedName>
     <definedName name="klass" localSheetId="2">'Lag grund A'!$V$4</definedName>
     <definedName name="klass" localSheetId="3">'Lag grund B'!$T$4</definedName>
     <definedName name="klass" localSheetId="4">'Lag grund D'!$U$4</definedName>
@@ -72,7 +72,7 @@
     <definedName name="klass" localSheetId="6">'Lag kür tekn junior'!$L$4</definedName>
     <definedName name="klass" localSheetId="5">'Lag kür tekn mellan'!$L$4</definedName>
     <definedName name="klass" localSheetId="7">'Lag kür tekn sr'!$L$4</definedName>
-    <definedName name="moment" localSheetId="1">'Häst, lag'!$K$5</definedName>
+    <definedName name="moment" localSheetId="1">'Häst_old, lag'!$K$5</definedName>
     <definedName name="moment" localSheetId="2">'Lag grund A'!$V$5</definedName>
     <definedName name="moment" localSheetId="3">'Lag grund B'!$T$5</definedName>
     <definedName name="moment" localSheetId="4">'Lag grund D'!$U$5</definedName>
@@ -80,7 +80,7 @@
     <definedName name="moment" localSheetId="6">'Lag kür tekn junior'!$L$5</definedName>
     <definedName name="moment" localSheetId="5">'Lag kür tekn mellan'!$L$5</definedName>
     <definedName name="moment" localSheetId="7">'Lag kür tekn sr'!$L$5</definedName>
-    <definedName name="result" localSheetId="1">'Häst, lag'!$J$27</definedName>
+    <definedName name="result" localSheetId="1">'Häst_old, lag'!$J$27</definedName>
     <definedName name="result" localSheetId="2">'Lag grund A'!$O$29</definedName>
     <definedName name="result" localSheetId="3">'Lag grund B'!$O$29</definedName>
     <definedName name="result" localSheetId="4">'Lag grund D'!$O$29</definedName>
@@ -2073,103 +2073,24 @@
     <xf numFmtId="1" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2179,12 +2100,23 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="169" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2200,71 +2132,122 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2274,11 +2257,26 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2289,12 +2287,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2302,6 +2302,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2310,15 +2319,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3490,7 +3490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A11" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J15" sqref="J15:J17"/>
     </sheetView>
   </sheetViews>
@@ -3557,9 +3557,9 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
       <c r="G5" s="9"/>
       <c r="H5" s="13" t="s">
         <v>12</v>
@@ -3573,9 +3573,9 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
@@ -3591,77 +3591,77 @@
       <c r="G7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="195"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="177"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
       <c r="G8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="196"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="197"/>
-      <c r="K8" s="198"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="181"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
       <c r="G9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="196"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="198"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="181"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
       <c r="G10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="196"/>
-      <c r="I10" s="197"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="198"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="181"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="196"/>
-      <c r="I11" s="197"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="198"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="181"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="G12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="196"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="198"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="181"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
@@ -3672,205 +3672,205 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="199" t="s">
+      <c r="G14" s="192" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="200"/>
-      <c r="I14" s="201" t="s">
+      <c r="H14" s="193"/>
+      <c r="I14" s="194" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="202"/>
-      <c r="K14" s="203"/>
+      <c r="J14" s="195"/>
+      <c r="K14" s="196"/>
     </row>
     <row r="15" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="172" t="s">
+      <c r="A15" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="186" t="s">
+      <c r="B15" s="200" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="186" t="s">
+      <c r="C15" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="186"/>
-      <c r="E15" s="189" t="s">
+      <c r="D15" s="200"/>
+      <c r="E15" s="201" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="190"/>
+      <c r="F15" s="202"/>
       <c r="G15" s="44"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="178" t="s">
+      <c r="I15" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="210"/>
-      <c r="K15" s="208">
+      <c r="J15" s="187"/>
+      <c r="K15" s="182">
         <f>ROUND(J15*0.3,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="173"/>
-      <c r="B16" s="180"/>
-      <c r="C16" s="180" t="s">
+      <c r="A16" s="198"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="180"/>
-      <c r="E16" s="181" t="s">
+      <c r="D16" s="184"/>
+      <c r="E16" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="182"/>
+      <c r="F16" s="186"/>
       <c r="G16" s="46"/>
       <c r="H16" s="47"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="211"/>
-      <c r="K16" s="209"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="183"/>
     </row>
     <row r="17" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="173"/>
-      <c r="B17" s="180"/>
-      <c r="C17" s="180" t="s">
+      <c r="A17" s="198"/>
+      <c r="B17" s="184"/>
+      <c r="C17" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="180"/>
-      <c r="E17" s="181" t="s">
+      <c r="D17" s="184"/>
+      <c r="E17" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="182"/>
+      <c r="F17" s="186"/>
       <c r="G17" s="48"/>
       <c r="H17" s="49"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="211"/>
-      <c r="K17" s="209"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="183"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="173"/>
-      <c r="B18" s="191" t="s">
+      <c r="A18" s="198"/>
+      <c r="B18" s="205" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="180" t="s">
+      <c r="C18" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="180"/>
-      <c r="E18" s="181" t="s">
+      <c r="D18" s="184"/>
+      <c r="E18" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="182"/>
+      <c r="F18" s="186"/>
       <c r="G18" s="50"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="179" t="s">
+      <c r="I18" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="211"/>
-      <c r="K18" s="209">
+      <c r="J18" s="188"/>
+      <c r="K18" s="183">
         <f>ROUND(J18*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="173"/>
-      <c r="B19" s="192"/>
-      <c r="C19" s="180" t="s">
+      <c r="A19" s="198"/>
+      <c r="B19" s="206"/>
+      <c r="C19" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="180"/>
-      <c r="E19" s="181" t="s">
+      <c r="D19" s="184"/>
+      <c r="E19" s="185" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="182"/>
+      <c r="F19" s="186"/>
       <c r="G19" s="46"/>
       <c r="H19" s="47"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="211"/>
-      <c r="K19" s="209"/>
+      <c r="I19" s="204"/>
+      <c r="J19" s="188"/>
+      <c r="K19" s="183"/>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="174"/>
-      <c r="B20" s="193"/>
-      <c r="C20" s="183" t="s">
+      <c r="A20" s="199"/>
+      <c r="B20" s="207"/>
+      <c r="C20" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="183"/>
-      <c r="E20" s="184" t="s">
+      <c r="D20" s="209"/>
+      <c r="E20" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="185"/>
+      <c r="F20" s="211"/>
       <c r="G20" s="52"/>
       <c r="H20" s="53"/>
-      <c r="I20" s="194"/>
-      <c r="J20" s="212"/>
-      <c r="K20" s="213"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="189"/>
+      <c r="K20" s="190"/>
     </row>
     <row r="21" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="172" t="s">
+      <c r="A21" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="175" t="s">
+      <c r="B21" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="186" t="s">
+      <c r="C21" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="186"/>
-      <c r="E21" s="187" t="s">
+      <c r="D21" s="200"/>
+      <c r="E21" s="217" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="188"/>
+      <c r="F21" s="218"/>
       <c r="G21" s="54"/>
       <c r="H21" s="55"/>
-      <c r="I21" s="178" t="s">
+      <c r="I21" s="203" t="s">
         <v>93</v>
       </c>
-      <c r="J21" s="210"/>
-      <c r="K21" s="208">
+      <c r="J21" s="187"/>
+      <c r="K21" s="182">
         <f>ROUND(J21*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="173"/>
-      <c r="B22" s="176"/>
-      <c r="C22" s="180" t="s">
+      <c r="A22" s="198"/>
+      <c r="B22" s="215"/>
+      <c r="C22" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="180"/>
-      <c r="E22" s="181" t="s">
+      <c r="D22" s="184"/>
+      <c r="E22" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="182"/>
+      <c r="F22" s="186"/>
       <c r="G22" s="46"/>
       <c r="H22" s="47"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="211"/>
-      <c r="K22" s="209"/>
+      <c r="I22" s="204"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="183"/>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="173"/>
-      <c r="B23" s="177"/>
-      <c r="C23" s="180" t="s">
+      <c r="A23" s="198"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="184" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="180"/>
-      <c r="E23" s="181" t="s">
+      <c r="D23" s="184"/>
+      <c r="E23" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="182"/>
+      <c r="F23" s="186"/>
       <c r="G23" s="48"/>
       <c r="H23" s="49"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="211"/>
-      <c r="K23" s="209"/>
+      <c r="I23" s="204"/>
+      <c r="J23" s="188"/>
+      <c r="K23" s="183"/>
     </row>
     <row r="24" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="174"/>
+      <c r="A24" s="199"/>
       <c r="B24" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="183"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="184" t="s">
+      <c r="C24" s="209"/>
+      <c r="D24" s="209"/>
+      <c r="E24" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="185"/>
+      <c r="F24" s="211"/>
       <c r="G24" s="57"/>
       <c r="H24" s="58"/>
       <c r="I24" s="59" t="s">
@@ -3889,14 +3889,14 @@
       <c r="B25" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="214" t="s">
+      <c r="C25" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="214"/>
-      <c r="E25" s="170" t="s">
+      <c r="D25" s="191"/>
+      <c r="E25" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="171"/>
+      <c r="F25" s="213"/>
       <c r="G25" s="61"/>
       <c r="H25" s="62"/>
       <c r="I25" s="63" t="s">
@@ -3933,11 +3933,11 @@
         <v>11</v>
       </c>
       <c r="I27" s="67"/>
-      <c r="J27" s="206">
+      <c r="J27" s="178">
         <f>SUM(K15:K25)</f>
         <v>0</v>
       </c>
-      <c r="K27" s="207"/>
+      <c r="K27" s="179"/>
     </row>
     <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
@@ -3958,6 +3958,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="C6:E6"/>
@@ -3974,40 +4008,6 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="J21:J23"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4028,7 +4028,7 @@
   </sheetPr>
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -4075,10 +4075,10 @@
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="195"/>
-      <c r="M3" s="195"/>
-      <c r="N3" s="195"/>
-      <c r="O3" s="215"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="228"/>
       <c r="R3" s="9"/>
       <c r="S3" s="13" t="s">
         <v>92</v>
@@ -4103,10 +4103,10 @@
       <c r="K4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="196"/>
-      <c r="M4" s="196"/>
-      <c r="N4" s="196"/>
-      <c r="O4" s="216"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="229"/>
       <c r="R4" s="9"/>
       <c r="S4" s="13" t="s">
         <v>83</v>
@@ -4120,10 +4120,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
       <c r="J5" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4131,10 +4131,10 @@
       <c r="K5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="196"/>
-      <c r="M5" s="197"/>
-      <c r="N5" s="197"/>
-      <c r="O5" s="198"/>
+      <c r="L5" s="174"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="181"/>
       <c r="R5" s="9"/>
       <c r="S5" s="13" t="s">
         <v>12</v>
@@ -4148,10 +4148,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
       <c r="J6" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4159,10 +4159,10 @@
       <c r="K6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="196"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="197"/>
-      <c r="O6" s="198"/>
+      <c r="L6" s="174"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="181"/>
     </row>
     <row r="7" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
@@ -4180,20 +4180,20 @@
       <c r="K7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="196"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="197"/>
-      <c r="O7" s="198"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="181"/>
     </row>
     <row r="8" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
       <c r="J8" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4201,20 +4201,20 @@
       <c r="K8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="196"/>
-      <c r="M8" s="197"/>
-      <c r="N8" s="197"/>
-      <c r="O8" s="198"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="180"/>
+      <c r="N8" s="180"/>
+      <c r="O8" s="181"/>
     </row>
     <row r="9" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
       <c r="J9" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4222,20 +4222,20 @@
       <c r="K9" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="L9" s="196"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="197"/>
-      <c r="O9" s="198"/>
+      <c r="L9" s="174"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="181"/>
     </row>
     <row r="10" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
       <c r="J10" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4243,10 +4243,10 @@
       <c r="K10" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="L10" s="196"/>
-      <c r="M10" s="197"/>
-      <c r="N10" s="197"/>
-      <c r="O10" s="198"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="181"/>
     </row>
     <row r="11" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J11" s="165" t="str">
@@ -4256,10 +4256,10 @@
       <c r="K11" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="L11" s="196"/>
-      <c r="M11" s="197"/>
-      <c r="N11" s="197"/>
-      <c r="O11" s="198"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="181"/>
     </row>
     <row r="12" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4370,11 +4370,11 @@
       </c>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="217" t="s">
+      <c r="B18" s="226" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="218"/>
-      <c r="D18" s="218"/>
+      <c r="C18" s="227"/>
+      <c r="D18" s="227"/>
       <c r="E18" s="18"/>
       <c r="F18" s="153"/>
       <c r="G18" s="153"/>
@@ -4603,18 +4603,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C6:F6"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="L9:O9"/>
@@ -4624,6 +4612,18 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="L7:O7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
@@ -4736,10 +4736,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
       <c r="J5" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4764,10 +4764,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
       <c r="J6" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4806,10 +4806,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
       <c r="J8" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4827,10 +4827,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
       <c r="J9" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4848,10 +4848,10 @@
         <v>88</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
       <c r="J10" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4988,7 +4988,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="226" t="s">
+      <c r="B18" s="230" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="221"/>
@@ -5009,11 +5009,11 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="217" t="s">
+      <c r="B19" s="226" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="218"/>
-      <c r="D19" s="218"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="227"/>
       <c r="E19" s="20"/>
       <c r="F19" s="153"/>
       <c r="G19" s="153"/>
@@ -5072,12 +5072,12 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="237" t="s">
+      <c r="B22" s="231" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="238"/>
-      <c r="D22" s="238"/>
-      <c r="E22" s="238"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="232"/>
       <c r="F22" s="153"/>
       <c r="G22" s="153"/>
       <c r="H22" s="153"/>
@@ -5216,11 +5216,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B22:E22"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="A15:A16"/>
@@ -5229,6 +5224,11 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
@@ -5296,10 +5296,10 @@
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="195"/>
-      <c r="M3" s="195"/>
-      <c r="N3" s="195"/>
-      <c r="O3" s="195"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="13" t="s">
         <v>92</v>
@@ -5324,10 +5324,10 @@
       <c r="K4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="196"/>
-      <c r="M4" s="196"/>
-      <c r="N4" s="196"/>
-      <c r="O4" s="196"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="174"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="13" t="s">
         <v>83</v>
@@ -5341,10 +5341,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
       <c r="J5" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5352,10 +5352,10 @@
       <c r="K5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="196"/>
-      <c r="M5" s="197"/>
-      <c r="N5" s="197"/>
-      <c r="O5" s="197"/>
+      <c r="L5" s="174"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="180"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="13" t="s">
         <v>12</v>
@@ -5369,10 +5369,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
       <c r="J6" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5380,10 +5380,10 @@
       <c r="K6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="196"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="197"/>
-      <c r="O6" s="197"/>
+      <c r="L6" s="174"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="180"/>
     </row>
     <row r="7" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
@@ -5401,20 +5401,20 @@
       <c r="K7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="196"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="197"/>
-      <c r="O7" s="197"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
     </row>
     <row r="8" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
       <c r="J8" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5422,20 +5422,20 @@
       <c r="K8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="196"/>
-      <c r="M8" s="197"/>
-      <c r="N8" s="197"/>
-      <c r="O8" s="197"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="180"/>
+      <c r="N8" s="180"/>
+      <c r="O8" s="180"/>
     </row>
     <row r="9" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
       <c r="J9" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5443,20 +5443,20 @@
       <c r="K9" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="L9" s="196"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="197"/>
-      <c r="O9" s="197"/>
+      <c r="L9" s="174"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="180"/>
     </row>
     <row r="10" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
       <c r="J10" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5464,10 +5464,10 @@
       <c r="K10" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="L10" s="196"/>
-      <c r="M10" s="197"/>
-      <c r="N10" s="197"/>
-      <c r="O10" s="197"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="180"/>
     </row>
     <row r="11" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J11" s="165" t="str">
@@ -5477,10 +5477,10 @@
       <c r="K11" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="L11" s="196"/>
-      <c r="M11" s="197"/>
-      <c r="N11" s="197"/>
-      <c r="O11" s="197"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="180"/>
     </row>
     <row r="12" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
@@ -5594,7 +5594,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="226" t="s">
+      <c r="B19" s="230" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="221"/>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="C20" s="221"/>
       <c r="D20" s="221"/>
-      <c r="E20" s="227"/>
+      <c r="E20" s="233"/>
       <c r="F20" s="153"/>
       <c r="G20" s="153"/>
       <c r="H20" s="153"/>
@@ -5825,12 +5825,14 @@
     <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="A16:A17"/>
@@ -5839,14 +5841,12 @@
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
@@ -5937,10 +5937,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>12</v>
@@ -5954,10 +5954,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
@@ -5974,106 +5974,106 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="195"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="205"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="196"/>
-      <c r="J8" s="197"/>
-      <c r="K8" s="197"/>
-      <c r="L8" s="198"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="181"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="198"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="181"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="197"/>
-      <c r="L10" s="198"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="181"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="196"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="197"/>
-      <c r="L11" s="198"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="181"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="196"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="198"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="181"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="I13" s="196"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="197"/>
-      <c r="L13" s="198"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="181"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="I14" s="196"/>
-      <c r="J14" s="197"/>
-      <c r="K14" s="197"/>
-      <c r="L14" s="198"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="181"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="196"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="197"/>
-      <c r="L15" s="198"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="181"/>
     </row>
     <row r="16" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="3"/>
@@ -6456,10 +6456,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>12</v>
@@ -6473,10 +6473,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
@@ -6493,70 +6493,70 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="195"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="205"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="196"/>
-      <c r="J8" s="197"/>
-      <c r="K8" s="197"/>
-      <c r="L8" s="198"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="181"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="198"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="181"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="197"/>
-      <c r="L10" s="198"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="181"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="196"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="197"/>
-      <c r="L11" s="198"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="181"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
@@ -6618,32 +6618,32 @@
       <c r="L17" s="76"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="228"/>
-      <c r="B18" s="229"/>
-      <c r="C18" s="229"/>
-      <c r="D18" s="229"/>
-      <c r="E18" s="229"/>
-      <c r="F18" s="229"/>
-      <c r="G18" s="229"/>
-      <c r="H18" s="229"/>
-      <c r="I18" s="229"/>
-      <c r="J18" s="229"/>
-      <c r="K18" s="229"/>
-      <c r="L18" s="230"/>
+      <c r="A18" s="234"/>
+      <c r="B18" s="235"/>
+      <c r="C18" s="235"/>
+      <c r="D18" s="235"/>
+      <c r="E18" s="235"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="235"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="235"/>
+      <c r="K18" s="235"/>
+      <c r="L18" s="236"/>
     </row>
     <row r="19" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="231"/>
-      <c r="B19" s="232"/>
-      <c r="C19" s="232"/>
-      <c r="D19" s="232"/>
-      <c r="E19" s="232"/>
-      <c r="F19" s="232"/>
-      <c r="G19" s="232"/>
-      <c r="H19" s="232"/>
-      <c r="I19" s="232"/>
-      <c r="J19" s="232"/>
-      <c r="K19" s="232"/>
-      <c r="L19" s="233"/>
+      <c r="A19" s="237"/>
+      <c r="B19" s="238"/>
+      <c r="C19" s="238"/>
+      <c r="D19" s="238"/>
+      <c r="E19" s="238"/>
+      <c r="F19" s="238"/>
+      <c r="G19" s="238"/>
+      <c r="H19" s="238"/>
+      <c r="I19" s="238"/>
+      <c r="J19" s="238"/>
+      <c r="K19" s="238"/>
+      <c r="L19" s="239"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="129" t="s">
@@ -6846,7 +6846,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="92"/>
       <c r="J33" s="93"/>
-      <c r="K33" s="239">
+      <c r="K33" s="170">
         <f>SUM(E20:J20)</f>
         <v>0</v>
       </c>
@@ -6909,17 +6909,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A18:L19"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I10:L10"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A18:L19"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I10:L10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
@@ -7007,10 +7007,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>12</v>
@@ -7024,10 +7024,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
@@ -7044,106 +7044,106 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="195"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="205"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="196"/>
-      <c r="J8" s="197"/>
-      <c r="K8" s="197"/>
-      <c r="L8" s="198"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="181"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="198"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="181"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="197"/>
-      <c r="L10" s="198"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="181"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="196"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="197"/>
-      <c r="L11" s="198"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="181"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="196"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="198"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="181"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="I13" s="196"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="197"/>
-      <c r="L13" s="198"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="181"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="I14" s="196"/>
-      <c r="J14" s="197"/>
-      <c r="K14" s="197"/>
-      <c r="L14" s="198"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="181"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="196"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="197"/>
-      <c r="L15" s="198"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="181"/>
     </row>
     <row r="16" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="3"/>
@@ -7169,32 +7169,32 @@
       <c r="L17" s="76"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="228"/>
-      <c r="B18" s="229"/>
-      <c r="C18" s="229"/>
-      <c r="D18" s="229"/>
-      <c r="E18" s="229"/>
-      <c r="F18" s="229"/>
-      <c r="G18" s="229"/>
-      <c r="H18" s="229"/>
-      <c r="I18" s="229"/>
-      <c r="J18" s="229"/>
-      <c r="K18" s="229"/>
-      <c r="L18" s="230"/>
+      <c r="A18" s="234"/>
+      <c r="B18" s="235"/>
+      <c r="C18" s="235"/>
+      <c r="D18" s="235"/>
+      <c r="E18" s="235"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="235"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="235"/>
+      <c r="K18" s="235"/>
+      <c r="L18" s="236"/>
     </row>
     <row r="19" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="231"/>
-      <c r="B19" s="232"/>
-      <c r="C19" s="232"/>
-      <c r="D19" s="232"/>
-      <c r="E19" s="232"/>
-      <c r="F19" s="232"/>
-      <c r="G19" s="232"/>
-      <c r="H19" s="232"/>
-      <c r="I19" s="232"/>
-      <c r="J19" s="232"/>
-      <c r="K19" s="232"/>
-      <c r="L19" s="233"/>
+      <c r="A19" s="237"/>
+      <c r="B19" s="238"/>
+      <c r="C19" s="238"/>
+      <c r="D19" s="238"/>
+      <c r="E19" s="238"/>
+      <c r="F19" s="238"/>
+      <c r="G19" s="238"/>
+      <c r="H19" s="238"/>
+      <c r="I19" s="238"/>
+      <c r="J19" s="238"/>
+      <c r="K19" s="238"/>
+      <c r="L19" s="239"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="129" t="s">
@@ -7440,7 +7440,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="92"/>
       <c r="J34" s="93"/>
-      <c r="K34" s="239">
+      <c r="K34" s="170">
         <f>SUM(E20:J20)</f>
         <v>0</v>
       </c>
@@ -7528,7 +7528,7 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A3" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -7595,10 +7595,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>12</v>
@@ -7612,10 +7612,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
@@ -7632,110 +7632,110 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="195"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="205"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="196"/>
-      <c r="J8" s="197"/>
-      <c r="K8" s="197"/>
-      <c r="L8" s="198"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="181"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="198"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="181"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="197"/>
-      <c r="L10" s="198"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="181"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="196"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="197"/>
-      <c r="L11" s="198"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="181"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="196"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="198"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="181"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
       <c r="H13" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="196"/>
-      <c r="L13" s="196"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="174"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14"/>
       <c r="H14" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="I14" s="196"/>
-      <c r="J14" s="196"/>
-      <c r="K14" s="196"/>
-      <c r="L14" s="196"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="174"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14"/>
       <c r="H15" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="196"/>
-      <c r="J15" s="196"/>
-      <c r="K15" s="196"/>
-      <c r="L15" s="196"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="174"/>
     </row>
     <row r="16" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K16" s="164" t="s">
@@ -7743,30 +7743,30 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="240" t="s">
+      <c r="A17" s="171" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="242"/>
-      <c r="D17" s="242"/>
-      <c r="E17" s="242"/>
-      <c r="F17" s="242"/>
-      <c r="G17" s="242"/>
-      <c r="H17" s="242"/>
-      <c r="I17" s="243"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="241"/>
+      <c r="F17" s="241"/>
+      <c r="G17" s="241"/>
+      <c r="H17" s="241"/>
+      <c r="I17" s="242"/>
       <c r="J17" s="168" t="s">
         <v>157</v>
       </c>
-      <c r="K17" s="244"/>
-      <c r="L17" s="245">
+      <c r="K17" s="172"/>
+      <c r="L17" s="173">
         <f>K17*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="234" t="s">
+      <c r="A18" s="243" t="s">
         <v>84</v>
       </c>
       <c r="B18" s="246" t="s">
@@ -7790,7 +7790,7 @@
       <c r="M18" s="102"/>
     </row>
     <row r="19" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="235"/>
+      <c r="A19" s="244"/>
       <c r="B19" s="246" t="s">
         <v>159</v>
       </c>
@@ -7812,19 +7812,19 @@
       <c r="M19" s="102"/>
     </row>
     <row r="20" spans="1:13" ht="58.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="234" t="s">
+      <c r="A20" s="243" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="251" t="s">
+      <c r="B20" s="248" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="252"/>
-      <c r="D20" s="252"/>
-      <c r="E20" s="252"/>
-      <c r="F20" s="252"/>
-      <c r="G20" s="252"/>
-      <c r="H20" s="252"/>
-      <c r="I20" s="253"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="249"/>
+      <c r="E20" s="249"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="249"/>
+      <c r="H20" s="249"/>
+      <c r="I20" s="250"/>
       <c r="J20" s="100" t="s">
         <v>164</v>
       </c>
@@ -7836,17 +7836,17 @@
       <c r="M20" s="102"/>
     </row>
     <row r="21" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="236"/>
-      <c r="B21" s="248" t="s">
+      <c r="A21" s="245"/>
+      <c r="B21" s="251" t="s">
         <v>161</v>
       </c>
-      <c r="C21" s="249"/>
-      <c r="D21" s="249"/>
-      <c r="E21" s="249"/>
-      <c r="F21" s="249"/>
-      <c r="G21" s="249"/>
-      <c r="H21" s="249"/>
-      <c r="I21" s="250"/>
+      <c r="C21" s="252"/>
+      <c r="D21" s="252"/>
+      <c r="E21" s="252"/>
+      <c r="F21" s="252"/>
+      <c r="G21" s="252"/>
+      <c r="H21" s="252"/>
+      <c r="I21" s="253"/>
       <c r="J21" s="106" t="s">
         <v>165</v>
       </c>
@@ -7916,16 +7916,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
@@ -7937,6 +7927,16 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7959,6 +7959,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8024,15 +8033,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
   <ds:schemaRefs>
@@ -8049,6 +8049,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8063,12 +8071,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall)_mer_an_6_deltagar.xlsx
+++ b/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall)_mer_an_6_deltagar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CBD0AF-E2FF-4363-B17E-46915C49B819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9A9C3D-F25C-4B13-BF6D-947B60CAAD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="5310" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
@@ -385,14 +385,6 @@
     <t>Klass nr</t>
   </si>
   <si>
-    <t>STRUKTUR
-50%</t>
-  </si>
-  <si>
-    <t>KOREOGRAFI
-50%</t>
-  </si>
-  <si>
     <t>Poäng
 0 till 10</t>
   </si>
@@ -652,67 +644,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Variation av övningar</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">• Statiska och dynamiska övningar i proportion till varandra.
-• Använder singel- och dubbelövningar. Trippelövningar är tillåtet.
-• Urval av kombinationer.
-• Ett urval av övningar och övergångar från olika strukturgrupper.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Variation av position</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Variation av position av övningar dels relaterat till hästen men också riktningen av övningar.
-• Balanserad användning av utrymme; användning av alla delar av hästens rygg och hals, inklusive studs.
-• Jämnt deltagande av alla voltigörer.
-• Jämnt även i roller och artistiskt engagemang.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Sammanhållning av sammansättning</t>
     </r>
     <r>
@@ -754,20 +685,87 @@
     </r>
   </si>
   <si>
-    <t>C1
-20%</t>
-  </si>
-  <si>
     <t>C2
 10%</t>
   </si>
   <si>
+    <t>C1
+10%</t>
+  </si>
+  <si>
     <t>C3
-25%</t>
+30%</t>
   </si>
   <si>
     <t>C4
-25%</t>
+30%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Variation av övningar</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">• Statiska och dynamiska övningar i proportion till varandra.
+• Använding av singel- och dubbelövningar. Trippelövningar är tillåtet.
+• Urval av kombinationer.
+• Ett urval av övningar, positioner och övergångar från olika strukturgrupper.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Variation av position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+• Variation av position av övingar, dels relaterat till hästen men också i riktningar av övningar.
+• Balanserad användning utrymmen; användning av alla delar av hästens rygg och hals, inklusive studs..
+• Någorlunda jämnt deltagande av alla voltigörer.
+• Någorlunda jämnt gällande roller och artistiskt engagemang.</t>
+    </r>
+  </si>
+  <si>
+    <t>STRUKTUR</t>
+  </si>
+  <si>
+    <t>KOREOGRAFI</t>
   </si>
 </sst>
 </file>
@@ -2086,11 +2084,103 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2100,23 +2190,12 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="169" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2132,86 +2211,17 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2233,18 +2243,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -2278,6 +2276,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2287,38 +2315,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2649,34 +2647,34 @@
   <sheetData>
     <row r="1" spans="1:8" s="148" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="147" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="148" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="148" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="163" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="163" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="163" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="163" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:8" s="148" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:8" s="134" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A8" s="134" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -2687,61 +2685,61 @@
     </row>
     <row r="12" spans="1:8" s="136" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A12" s="136" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="137" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" s="135"/>
       <c r="F13" s="137" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="136" t="s">
         <v>100</v>
-      </c>
-      <c r="C14" s="136" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="136" t="s">
-        <v>102</v>
       </c>
       <c r="E14" s="136"/>
       <c r="F14" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="136" t="s">
         <v>100</v>
-      </c>
-      <c r="G14" s="136" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="136" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="135" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B15" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="138" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D15" s="138" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E15" s="139"/>
       <c r="F15" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G15" s="138" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H15" s="138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2756,26 +2754,26 @@
     </row>
     <row r="17" spans="1:9" s="135" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="135" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B17" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C17" s="138" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D17" s="138" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E17" s="139"/>
       <c r="F17" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G17" s="138" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H17" s="138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2790,26 +2788,26 @@
     </row>
     <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="135" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="138" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D19" s="138" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E19" s="139"/>
       <c r="F19" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G19" s="138" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H19" s="138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2824,71 +2822,71 @@
     </row>
     <row r="22" spans="1:9" s="136" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A22" s="136" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="137" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C23" s="135"/>
       <c r="F23" s="137" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="136" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="136" t="s">
+      <c r="E24" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="136" t="s">
-        <v>104</v>
-      </c>
       <c r="F24" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="136" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="136" t="s">
+      <c r="I24" s="136" t="s">
         <v>102</v>
-      </c>
-      <c r="I24" s="136" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="135" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B25" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C25" s="138" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D25" s="138" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E25" s="138" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F25" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G25" s="138" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H25" s="138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I25" s="138" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2904,31 +2902,31 @@
     </row>
     <row r="27" spans="1:9" s="135" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="135" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="138" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="138" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="138" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="138" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="138" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="138" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="138" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="138" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="138" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="138" t="s">
-        <v>143</v>
-      </c>
-      <c r="H27" s="138" t="s">
-        <v>111</v>
-      </c>
       <c r="I27" s="138" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2944,31 +2942,31 @@
     </row>
     <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="135" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B29" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C29" s="138" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D29" s="138" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E29" s="138" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F29" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G29" s="138" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H29" s="138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I29" s="138" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -2991,82 +2989,82 @@
     </row>
     <row r="33" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A33" s="136" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="137" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C35" s="135"/>
       <c r="F35" s="137" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J35" s="137" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="136" t="s">
         <v>100</v>
-      </c>
-      <c r="C36" s="136" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="136" t="s">
-        <v>102</v>
       </c>
       <c r="E36" s="136"/>
       <c r="F36" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="G36" s="136" t="s">
-        <v>101</v>
-      </c>
-      <c r="H36" s="136" t="s">
-        <v>102</v>
-      </c>
       <c r="J36" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="L36" s="136" t="s">
         <v>100</v>
-      </c>
-      <c r="K36" s="136" t="s">
-        <v>101</v>
-      </c>
-      <c r="L36" s="136" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="135" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B37" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C37" s="138" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D37" s="138" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E37" s="139"/>
       <c r="F37" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G37" s="138" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H37" s="138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J37" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K37" s="138" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L37" s="138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3084,35 +3082,35 @@
     </row>
     <row r="39" spans="1:17" s="135" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="135" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B39" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C39" s="138" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D39" s="138" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E39" s="139"/>
       <c r="F39" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G39" s="138" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H39" s="138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J39" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K39" s="138" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L39" s="138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3130,35 +3128,35 @@
     </row>
     <row r="41" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="135" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B41" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C41" s="138" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D41" s="138" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E41" s="139"/>
       <c r="F41" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G41" s="138" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H41" s="138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J41" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K41" s="138" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L41" s="138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3189,59 +3187,59 @@
     </row>
     <row r="45" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A45" s="136" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="137" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C47" s="135"/>
       <c r="F47" s="137" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J47" s="137" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K47" s="135"/>
       <c r="N47" s="137"/>
     </row>
     <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="136" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="136" t="s">
+      <c r="E48" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="136" t="s">
-        <v>104</v>
-      </c>
       <c r="F48" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="H48" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="G48" s="136" t="s">
-        <v>101</v>
-      </c>
-      <c r="H48" s="136" t="s">
+      <c r="I48" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="I48" s="136" t="s">
-        <v>104</v>
-      </c>
       <c r="J48" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="K48" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="L48" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="K48" s="136" t="s">
-        <v>101</v>
-      </c>
-      <c r="L48" s="136" t="s">
+      <c r="M48" s="136" t="s">
         <v>102</v>
-      </c>
-      <c r="M48" s="136" t="s">
-        <v>104</v>
       </c>
       <c r="N48" s="136"/>
       <c r="O48" s="136"/>
@@ -3250,43 +3248,43 @@
     </row>
     <row r="49" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="135" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B49" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C49" s="138" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D49" s="138" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E49" s="138" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F49" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G49" s="138" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H49" s="138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I49" s="138" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J49" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K49" s="138" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L49" s="138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M49" s="138" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3306,43 +3304,43 @@
     </row>
     <row r="51" spans="1:13" s="135" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="135" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="138" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" s="138" t="s">
+        <v>105</v>
+      </c>
+      <c r="G51" s="138" t="s">
+        <v>141</v>
+      </c>
+      <c r="H51" s="138" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="138" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="138" t="s">
-        <v>139</v>
-      </c>
-      <c r="D51" s="138" t="s">
-        <v>139</v>
-      </c>
-      <c r="E51" s="138" t="s">
-        <v>139</v>
-      </c>
-      <c r="F51" s="138" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="138" t="s">
-        <v>143</v>
-      </c>
-      <c r="H51" s="138" t="s">
-        <v>111</v>
-      </c>
       <c r="I51" s="138" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J51" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K51" s="138" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L51" s="138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M51" s="138" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3362,106 +3360,106 @@
     </row>
     <row r="53" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="135" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B53" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C53" s="138" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D53" s="138" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E53" s="138" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F53" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G53" s="138" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H53" s="138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I53" s="138" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J53" s="138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K53" s="138" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L53" s="138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M53" s="138" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="148" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A56" s="146" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="145" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A57" s="144"/>
       <c r="B57" s="144" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="144" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="144" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57" s="144" t="s">
+      <c r="E57" s="144" t="s">
         <v>102</v>
       </c>
-      <c r="E57" s="144" t="s">
-        <v>104</v>
-      </c>
       <c r="F57" s="144" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="143" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="142" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="142" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="142" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="142" t="s">
+      <c r="D58" s="142" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="142" t="s">
+      <c r="F58" s="142" t="s">
         <v>120</v>
-      </c>
-      <c r="D58" s="142" t="s">
-        <v>120</v>
-      </c>
-      <c r="E58" s="142" t="s">
-        <v>121</v>
-      </c>
-      <c r="F58" s="142" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="143" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="142" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="142" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="142" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="142" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" s="142" t="s">
+      <c r="E59" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="D59" s="142" t="s">
-        <v>125</v>
-      </c>
-      <c r="E59" s="142" t="s">
-        <v>126</v>
-      </c>
       <c r="F59" s="142" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:13" s="143" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -3471,7 +3469,7 @@
       <c r="D60" s="142"/>
       <c r="E60" s="142"/>
       <c r="F60" s="142" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +3516,7 @@
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="11"/>
@@ -3530,7 +3528,7 @@
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -3557,9 +3555,9 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
       <c r="G5" s="9"/>
       <c r="H5" s="13" t="s">
         <v>12</v>
@@ -3573,16 +3571,16 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="92"/>
@@ -3591,77 +3589,77 @@
       <c r="G7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="175"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="177"/>
+      <c r="H7" s="199"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="209"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
       <c r="G8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="174"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="181"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="202"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
       <c r="G9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="174"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="181"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="202"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
       <c r="G10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="174"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="181"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="202"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="174"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="181"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="202"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="G12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="174"/>
-      <c r="I12" s="180"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="181"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="202"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
@@ -3672,44 +3670,44 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="192" t="s">
+      <c r="G14" s="203" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="193"/>
-      <c r="I14" s="194" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="195"/>
-      <c r="K14" s="196"/>
+      <c r="H14" s="204"/>
+      <c r="I14" s="205" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="206"/>
+      <c r="K14" s="207"/>
     </row>
     <row r="15" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="197" t="s">
+      <c r="A15" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="200" t="s">
+      <c r="B15" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="200" t="s">
+      <c r="C15" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="200"/>
-      <c r="E15" s="201" t="s">
+      <c r="D15" s="190"/>
+      <c r="E15" s="193" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="202"/>
+      <c r="F15" s="194"/>
       <c r="G15" s="44"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="203" t="s">
+      <c r="I15" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="187"/>
-      <c r="K15" s="182">
+      <c r="J15" s="214"/>
+      <c r="K15" s="212">
         <f>ROUND(J15*0.3,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="198"/>
+      <c r="A16" s="177"/>
       <c r="B16" s="184"/>
       <c r="C16" s="184" t="s">
         <v>22</v>
@@ -3721,12 +3719,12 @@
       <c r="F16" s="186"/>
       <c r="G16" s="46"/>
       <c r="H16" s="47"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="183"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="215"/>
+      <c r="K16" s="213"/>
     </row>
     <row r="17" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="198"/>
+      <c r="A17" s="177"/>
       <c r="B17" s="184"/>
       <c r="C17" s="184" t="s">
         <v>21</v>
@@ -3738,13 +3736,13 @@
       <c r="F17" s="186"/>
       <c r="G17" s="48"/>
       <c r="H17" s="49"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="188"/>
-      <c r="K17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="215"/>
+      <c r="K17" s="213"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="198"/>
-      <c r="B18" s="205" t="s">
+      <c r="A18" s="177"/>
+      <c r="B18" s="195" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="184" t="s">
@@ -3757,18 +3755,18 @@
       <c r="F18" s="186"/>
       <c r="G18" s="50"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="204" t="s">
+      <c r="I18" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="188"/>
-      <c r="K18" s="183">
+      <c r="J18" s="215"/>
+      <c r="K18" s="213">
         <f>ROUND(J18*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="198"/>
-      <c r="B19" s="206"/>
+      <c r="A19" s="177"/>
+      <c r="B19" s="196"/>
       <c r="C19" s="184" t="s">
         <v>23</v>
       </c>
@@ -3779,56 +3777,56 @@
       <c r="F19" s="186"/>
       <c r="G19" s="46"/>
       <c r="H19" s="47"/>
-      <c r="I19" s="204"/>
-      <c r="J19" s="188"/>
-      <c r="K19" s="183"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="215"/>
+      <c r="K19" s="213"/>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="199"/>
-      <c r="B20" s="207"/>
-      <c r="C20" s="209" t="s">
+      <c r="A20" s="178"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="209"/>
-      <c r="E20" s="210" t="s">
+      <c r="D20" s="187"/>
+      <c r="E20" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="211"/>
+      <c r="F20" s="189"/>
       <c r="G20" s="52"/>
       <c r="H20" s="53"/>
-      <c r="I20" s="208"/>
-      <c r="J20" s="189"/>
-      <c r="K20" s="190"/>
+      <c r="I20" s="198"/>
+      <c r="J20" s="216"/>
+      <c r="K20" s="217"/>
     </row>
     <row r="21" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="197" t="s">
+      <c r="A21" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="214" t="s">
+      <c r="B21" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="200" t="s">
+      <c r="C21" s="190" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="200"/>
-      <c r="E21" s="217" t="s">
+      <c r="D21" s="190"/>
+      <c r="E21" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="218"/>
+      <c r="F21" s="192"/>
       <c r="G21" s="54"/>
       <c r="H21" s="55"/>
-      <c r="I21" s="203" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" s="187"/>
-      <c r="K21" s="182">
+      <c r="I21" s="182" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="214"/>
+      <c r="K21" s="212">
         <f>ROUND(J21*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="198"/>
-      <c r="B22" s="215"/>
+      <c r="A22" s="177"/>
+      <c r="B22" s="180"/>
       <c r="C22" s="184" t="s">
         <v>26</v>
       </c>
@@ -3839,13 +3837,13 @@
       <c r="F22" s="186"/>
       <c r="G22" s="46"/>
       <c r="H22" s="47"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="188"/>
-      <c r="K22" s="183"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="215"/>
+      <c r="K22" s="213"/>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="198"/>
-      <c r="B23" s="216"/>
+      <c r="A23" s="177"/>
+      <c r="B23" s="181"/>
       <c r="C23" s="184" t="s">
         <v>27</v>
       </c>
@@ -3856,21 +3854,21 @@
       <c r="F23" s="186"/>
       <c r="G23" s="48"/>
       <c r="H23" s="49"/>
-      <c r="I23" s="204"/>
-      <c r="J23" s="188"/>
-      <c r="K23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="215"/>
+      <c r="K23" s="213"/>
     </row>
     <row r="24" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="199"/>
+      <c r="A24" s="178"/>
       <c r="B24" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="209"/>
-      <c r="D24" s="209"/>
-      <c r="E24" s="210" t="s">
+      <c r="C24" s="187"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="211"/>
+      <c r="F24" s="189"/>
       <c r="G24" s="57"/>
       <c r="H24" s="58"/>
       <c r="I24" s="59" t="s">
@@ -3887,20 +3885,20 @@
         <v>35</v>
       </c>
       <c r="B25" s="133" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="191" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="218" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="191"/>
-      <c r="E25" s="212" t="s">
+      <c r="D25" s="218"/>
+      <c r="E25" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="213"/>
+      <c r="F25" s="175"/>
       <c r="G25" s="61"/>
       <c r="H25" s="62"/>
       <c r="I25" s="63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J25" s="152"/>
       <c r="K25" s="64">
@@ -3933,11 +3931,11 @@
         <v>11</v>
       </c>
       <c r="I27" s="67"/>
-      <c r="J27" s="178">
+      <c r="J27" s="210">
         <f>SUM(K15:K25)</f>
         <v>0</v>
       </c>
-      <c r="K27" s="179"/>
+      <c r="K27" s="211"/>
     </row>
     <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
@@ -3958,40 +3956,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="C6:E6"/>
@@ -4008,6 +3972,40 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="J21:J23"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4028,7 +4026,7 @@
   </sheetPr>
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -4051,14 +4049,14 @@
     <row r="1" spans="1:22" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="9"/>
       <c r="S2" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T2" s="10"/>
       <c r="U2" s="11"/>
@@ -4066,7 +4064,7 @@
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J3" s="165" t="str">
         <f>IF(L3&lt;&gt;0,J2+1,"0")</f>
@@ -4075,13 +4073,13 @@
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="228"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="219"/>
       <c r="R3" s="9"/>
       <c r="S3" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="11"/>
@@ -4103,10 +4101,10 @@
       <c r="K4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="174"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="174"/>
-      <c r="O4" s="229"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="220"/>
       <c r="R4" s="9"/>
       <c r="S4" s="13" t="s">
         <v>83</v>
@@ -4120,10 +4118,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
       <c r="J5" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4131,10 +4129,10 @@
       <c r="K5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="174"/>
-      <c r="M5" s="180"/>
-      <c r="N5" s="180"/>
-      <c r="O5" s="181"/>
+      <c r="L5" s="200"/>
+      <c r="M5" s="201"/>
+      <c r="N5" s="201"/>
+      <c r="O5" s="202"/>
       <c r="R5" s="9"/>
       <c r="S5" s="13" t="s">
         <v>12</v>
@@ -4148,10 +4146,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
       <c r="J6" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4159,14 +4157,14 @@
       <c r="K6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="174"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="181"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="201"/>
+      <c r="N6" s="201"/>
+      <c r="O6" s="202"/>
     </row>
     <row r="7" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="92"/>
@@ -4180,20 +4178,20 @@
       <c r="K7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="174"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="181"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="202"/>
     </row>
     <row r="8" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
       <c r="J8" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4201,52 +4199,52 @@
       <c r="K8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="174"/>
-      <c r="M8" s="180"/>
-      <c r="N8" s="180"/>
-      <c r="O8" s="181"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="202"/>
     </row>
     <row r="9" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="200"/>
       <c r="J9" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="L9" s="174"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="181"/>
+        <v>144</v>
+      </c>
+      <c r="L9" s="200"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="201"/>
+      <c r="O9" s="202"/>
     </row>
     <row r="10" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
       <c r="J10" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="L10" s="174"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="181"/>
+        <v>145</v>
+      </c>
+      <c r="L10" s="200"/>
+      <c r="M10" s="201"/>
+      <c r="N10" s="201"/>
+      <c r="O10" s="202"/>
     </row>
     <row r="11" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J11" s="165" t="str">
@@ -4254,12 +4252,12 @@
         <v>0</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="L11" s="174"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="181"/>
+        <v>146</v>
+      </c>
+      <c r="L11" s="200"/>
+      <c r="M11" s="201"/>
+      <c r="N11" s="201"/>
+      <c r="O11" s="202"/>
     </row>
     <row r="12" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4299,12 +4297,12 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="219"/>
-      <c r="B15" s="220" t="s">
+      <c r="A15" s="223"/>
+      <c r="B15" s="224" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="221"/>
-      <c r="D15" s="221"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="225"/>
       <c r="E15" s="18"/>
       <c r="F15" s="153"/>
       <c r="G15" s="153"/>
@@ -4323,12 +4321,12 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219"/>
-      <c r="B16" s="222" t="s">
+      <c r="A16" s="223"/>
+      <c r="B16" s="226" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="221"/>
-      <c r="D16" s="221"/>
+      <c r="C16" s="225"/>
+      <c r="D16" s="225"/>
       <c r="E16" s="18"/>
       <c r="F16" s="153"/>
       <c r="G16" s="153"/>
@@ -4347,11 +4345,11 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="222" t="s">
+      <c r="B17" s="226" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221"/>
+      <c r="C17" s="225"/>
+      <c r="D17" s="225"/>
       <c r="E17" s="18"/>
       <c r="F17" s="153"/>
       <c r="G17" s="153"/>
@@ -4370,11 +4368,11 @@
       </c>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="226" t="s">
+      <c r="B18" s="221" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="227"/>
-      <c r="D18" s="227"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="222"/>
       <c r="E18" s="18"/>
       <c r="F18" s="153"/>
       <c r="G18" s="153"/>
@@ -4393,11 +4391,11 @@
       </c>
     </row>
     <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="222" t="s">
+      <c r="B19" s="226" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="221"/>
-      <c r="D19" s="221"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="225"/>
       <c r="E19" s="20"/>
       <c r="F19" s="153"/>
       <c r="G19" s="153"/>
@@ -4462,12 +4460,12 @@
       </c>
     </row>
     <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="223" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="224"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="225"/>
+      <c r="B22" s="227" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="228"/>
+      <c r="D22" s="228"/>
+      <c r="E22" s="229"/>
       <c r="F22" s="153"/>
       <c r="G22" s="153"/>
       <c r="H22" s="153"/>
@@ -4486,7 +4484,7 @@
     </row>
     <row r="23" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M23" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O23" s="1">
         <f>MAX(J3:J11)</f>
@@ -4516,7 +4514,7 @@
       <c r="H25" s="26"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O25" s="27">
         <f>IFERROR(ROUND(O24/O23,3),0)</f>
@@ -4603,6 +4601,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="L9:O9"/>
@@ -4612,18 +4622,6 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="L7:O7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
@@ -4667,14 +4665,14 @@
     <row r="1" spans="1:20" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
@@ -4682,7 +4680,7 @@
     </row>
     <row r="3" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J3" s="165" t="str">
         <f>IF(L3&lt;&gt;0,I2+1,"0")</f>
@@ -4697,7 +4695,7 @@
       <c r="O3" s="166"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R3" s="10"/>
       <c r="S3" s="11"/>
@@ -4736,10 +4734,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
       <c r="J5" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4764,10 +4762,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
       <c r="J6" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4782,7 +4780,7 @@
     </row>
     <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="92"/>
@@ -4806,10 +4804,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
       <c r="J8" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4827,16 +4825,16 @@
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="200"/>
       <c r="J9" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L9" s="92"/>
       <c r="M9" s="12"/>
@@ -4845,19 +4843,19 @@
     </row>
     <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
       <c r="J10" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L10" s="92"/>
       <c r="M10" s="12"/>
@@ -4870,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L11" s="92"/>
       <c r="M11" s="12"/>
@@ -4917,12 +4915,12 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="219"/>
-      <c r="B15" s="220" t="s">
+      <c r="A15" s="223"/>
+      <c r="B15" s="224" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="221"/>
-      <c r="D15" s="221"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="225"/>
       <c r="E15" s="18"/>
       <c r="F15" s="153"/>
       <c r="G15" s="153"/>
@@ -4943,12 +4941,12 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219"/>
-      <c r="B16" s="222" t="s">
+      <c r="A16" s="223"/>
+      <c r="B16" s="226" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="221"/>
-      <c r="D16" s="221"/>
+      <c r="C16" s="225"/>
+      <c r="D16" s="225"/>
       <c r="E16" s="18"/>
       <c r="F16" s="153"/>
       <c r="G16" s="153"/>
@@ -4967,11 +4965,11 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="222" t="s">
+      <c r="B17" s="226" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221"/>
+      <c r="C17" s="225"/>
+      <c r="D17" s="225"/>
       <c r="E17" s="18"/>
       <c r="F17" s="153"/>
       <c r="G17" s="153"/>
@@ -4991,8 +4989,8 @@
       <c r="B18" s="230" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="221"/>
-      <c r="D18" s="221"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="225"/>
       <c r="E18" s="18"/>
       <c r="F18" s="153"/>
       <c r="G18" s="153"/>
@@ -5009,11 +5007,11 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="226" t="s">
+      <c r="B19" s="221" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="227"/>
-      <c r="D19" s="227"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="222"/>
       <c r="E19" s="20"/>
       <c r="F19" s="153"/>
       <c r="G19" s="153"/>
@@ -5030,11 +5028,11 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="222" t="s">
+      <c r="B20" s="226" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="221"/>
-      <c r="D20" s="221"/>
+      <c r="C20" s="225"/>
+      <c r="D20" s="225"/>
       <c r="E20" s="18"/>
       <c r="F20" s="153"/>
       <c r="G20" s="153"/>
@@ -5073,7 +5071,7 @@
     </row>
     <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="231" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C22" s="232"/>
       <c r="D22" s="232"/>
@@ -5094,7 +5092,7 @@
     </row>
     <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M23" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O23" s="1">
         <f>MAX(J3:J11)</f>
@@ -5124,7 +5122,7 @@
       <c r="H25" s="26"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O25" s="27">
         <f>IFERROR(ROUND(O24/O23,3),0)</f>
@@ -5216,6 +5214,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="A15:A16"/>
@@ -5224,11 +5227,6 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
@@ -5272,14 +5270,14 @@
     <row r="1" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:21" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S2" s="10"/>
       <c r="T2" s="11"/>
@@ -5287,7 +5285,7 @@
     </row>
     <row r="3" spans="1:21" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J3" s="165" t="str">
         <f>IF(L3&lt;&gt;0,J2+1,"0")</f>
@@ -5296,13 +5294,13 @@
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="11"/>
@@ -5324,10 +5322,10 @@
       <c r="K4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="174"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="174"/>
-      <c r="O4" s="174"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="13" t="s">
         <v>83</v>
@@ -5341,10 +5339,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
       <c r="J5" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5352,10 +5350,10 @@
       <c r="K5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="174"/>
-      <c r="M5" s="180"/>
-      <c r="N5" s="180"/>
-      <c r="O5" s="180"/>
+      <c r="L5" s="200"/>
+      <c r="M5" s="201"/>
+      <c r="N5" s="201"/>
+      <c r="O5" s="201"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="13" t="s">
         <v>12</v>
@@ -5369,10 +5367,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
       <c r="J6" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5380,14 +5378,14 @@
       <c r="K6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="174"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="180"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="201"/>
+      <c r="N6" s="201"/>
+      <c r="O6" s="201"/>
     </row>
     <row r="7" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="92"/>
@@ -5401,20 +5399,20 @@
       <c r="K7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="174"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="201"/>
     </row>
     <row r="8" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
       <c r="J8" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5422,52 +5420,52 @@
       <c r="K8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="174"/>
-      <c r="M8" s="180"/>
-      <c r="N8" s="180"/>
-      <c r="O8" s="180"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="201"/>
     </row>
     <row r="9" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="200"/>
       <c r="J9" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="L9" s="174"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="180"/>
+        <v>144</v>
+      </c>
+      <c r="L9" s="200"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="201"/>
+      <c r="O9" s="201"/>
     </row>
     <row r="10" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
       <c r="J10" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="L10" s="174"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="180"/>
+        <v>145</v>
+      </c>
+      <c r="L10" s="200"/>
+      <c r="M10" s="201"/>
+      <c r="N10" s="201"/>
+      <c r="O10" s="201"/>
     </row>
     <row r="11" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J11" s="165" t="str">
@@ -5475,12 +5473,12 @@
         <v>0</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="L11" s="174"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="180"/>
+        <v>146</v>
+      </c>
+      <c r="L11" s="200"/>
+      <c r="M11" s="201"/>
+      <c r="N11" s="201"/>
+      <c r="O11" s="201"/>
     </row>
     <row r="12" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
@@ -5529,12 +5527,12 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219"/>
-      <c r="B16" s="220" t="s">
+      <c r="A16" s="223"/>
+      <c r="B16" s="224" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="221"/>
-      <c r="D16" s="221"/>
+      <c r="C16" s="225"/>
+      <c r="D16" s="225"/>
       <c r="E16" s="18"/>
       <c r="F16" s="153"/>
       <c r="G16" s="153"/>
@@ -5551,12 +5549,12 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="219"/>
-      <c r="B17" s="222" t="s">
+      <c r="A17" s="223"/>
+      <c r="B17" s="226" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221"/>
+      <c r="C17" s="225"/>
+      <c r="D17" s="225"/>
       <c r="E17" s="18"/>
       <c r="F17" s="153"/>
       <c r="G17" s="153"/>
@@ -5573,11 +5571,11 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="222" t="s">
+      <c r="B18" s="226" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="221"/>
-      <c r="D18" s="221"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="225"/>
       <c r="E18" s="18"/>
       <c r="F18" s="153"/>
       <c r="G18" s="153"/>
@@ -5597,8 +5595,8 @@
       <c r="B19" s="230" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="221"/>
-      <c r="D19" s="221"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="225"/>
       <c r="E19" s="18"/>
       <c r="F19" s="153"/>
       <c r="G19" s="153"/>
@@ -5615,11 +5613,11 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="222" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="221"/>
-      <c r="D20" s="221"/>
+      <c r="B20" s="226" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="225"/>
+      <c r="D20" s="225"/>
       <c r="E20" s="233"/>
       <c r="F20" s="153"/>
       <c r="G20" s="153"/>
@@ -5636,11 +5634,11 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="222" t="s">
+      <c r="B21" s="226" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="221"/>
-      <c r="D21" s="221"/>
+      <c r="C21" s="225"/>
+      <c r="D21" s="225"/>
       <c r="E21" s="18"/>
       <c r="F21" s="153"/>
       <c r="G21" s="153"/>
@@ -5657,12 +5655,12 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="223" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="224"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="225"/>
+      <c r="B22" s="227" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="228"/>
+      <c r="D22" s="228"/>
+      <c r="E22" s="229"/>
       <c r="F22" s="153"/>
       <c r="G22" s="153"/>
       <c r="H22" s="153"/>
@@ -5680,7 +5678,7 @@
     <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L23" s="21"/>
       <c r="M23" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O23" s="1">
         <f>MAX(J3:J11)</f>
@@ -5825,6 +5823,20 @@
     <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="L9:O9"/>
@@ -5833,20 +5845,6 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="L7:O7"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
@@ -5893,11 +5891,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -5909,7 +5907,7 @@
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -5937,10 +5935,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>12</v>
@@ -5954,17 +5952,17 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="92"/>
@@ -5974,106 +5972,106 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="175"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="177"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
+      <c r="L7" s="209"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="174"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="181"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="202"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="200"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="174"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="181"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="202"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="174"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="181"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="202"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="174"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="181"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="202"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="174"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="181"/>
+      <c r="I12" s="200"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="201"/>
+      <c r="L12" s="202"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="I13" s="174"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="181"/>
+        <v>144</v>
+      </c>
+      <c r="I13" s="200"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="201"/>
+      <c r="L13" s="202"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14" s="174"/>
-      <c r="J14" s="180"/>
-      <c r="K14" s="180"/>
-      <c r="L14" s="181"/>
+        <v>145</v>
+      </c>
+      <c r="I14" s="200"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="201"/>
+      <c r="L14" s="202"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="174"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="181"/>
+        <v>146</v>
+      </c>
+      <c r="I15" s="200"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="202"/>
     </row>
     <row r="16" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="3"/>
@@ -6412,11 +6410,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -6428,7 +6426,7 @@
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -6456,10 +6454,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>12</v>
@@ -6473,17 +6471,17 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="92"/>
@@ -6493,70 +6491,70 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="175"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="177"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
+      <c r="L7" s="209"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="174"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="181"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="202"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="200"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="174"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="181"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="202"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="174"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="181"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="202"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="174"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="181"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="202"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
@@ -6569,7 +6567,7 @@
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I13" s="92"/>
       <c r="J13" s="12"/>
@@ -6578,7 +6576,7 @@
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I14" s="92"/>
       <c r="J14" s="12"/>
@@ -6587,7 +6585,7 @@
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I15" s="92"/>
       <c r="J15" s="12"/>
@@ -6909,17 +6907,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A18:L19"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I10:L10"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A18:L19"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I10:L10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
@@ -6963,11 +6961,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -6979,7 +6977,7 @@
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -7007,10 +7005,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>12</v>
@@ -7024,17 +7022,17 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="92"/>
@@ -7044,106 +7042,106 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="175"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="177"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
+      <c r="L7" s="209"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="174"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="181"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="202"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="200"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="174"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="181"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="202"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="174"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="181"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="202"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="174"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="181"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="202"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="174"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="181"/>
+      <c r="I12" s="200"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="201"/>
+      <c r="L12" s="202"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="I13" s="174"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="181"/>
+        <v>144</v>
+      </c>
+      <c r="I13" s="200"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="201"/>
+      <c r="L13" s="202"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14" s="174"/>
-      <c r="J14" s="180"/>
-      <c r="K14" s="180"/>
-      <c r="L14" s="181"/>
+        <v>145</v>
+      </c>
+      <c r="I14" s="200"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="201"/>
+      <c r="L14" s="202"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="174"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="181"/>
+        <v>146</v>
+      </c>
+      <c r="I15" s="200"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="202"/>
     </row>
     <row r="16" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="3"/>
@@ -7528,7 +7526,7 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A3" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -7551,11 +7549,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -7567,7 +7565,7 @@
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -7595,10 +7593,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>12</v>
@@ -7612,17 +7610,17 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="92"/>
@@ -7632,132 +7630,132 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="175"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="177"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
+      <c r="L7" s="209"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="174"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="181"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="202"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="200"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="174"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="181"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="202"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="174"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="181"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="202"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="174"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="181"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="202"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="174"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="181"/>
+      <c r="I12" s="200"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="201"/>
+      <c r="L12" s="202"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
       <c r="H13" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="I13" s="174"/>
-      <c r="J13" s="174"/>
-      <c r="K13" s="174"/>
-      <c r="L13" s="174"/>
+        <v>144</v>
+      </c>
+      <c r="I13" s="200"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="200"/>
+      <c r="L13" s="200"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14"/>
       <c r="H14" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14" s="174"/>
-      <c r="J14" s="174"/>
-      <c r="K14" s="174"/>
-      <c r="L14" s="174"/>
+        <v>145</v>
+      </c>
+      <c r="I14" s="200"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="200"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14"/>
       <c r="H15" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="174"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="174"/>
-      <c r="L15" s="174"/>
+        <v>146</v>
+      </c>
+      <c r="I15" s="200"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="200"/>
+      <c r="L15" s="200"/>
     </row>
     <row r="16" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K16" s="164" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="171" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="250" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="251"/>
+      <c r="D17" s="251"/>
+      <c r="E17" s="251"/>
+      <c r="F17" s="251"/>
+      <c r="G17" s="251"/>
+      <c r="H17" s="251"/>
+      <c r="I17" s="252"/>
+      <c r="J17" s="168" t="s">
         <v>155</v>
-      </c>
-      <c r="B17" s="240" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="241"/>
-      <c r="D17" s="241"/>
-      <c r="E17" s="241"/>
-      <c r="F17" s="241"/>
-      <c r="G17" s="241"/>
-      <c r="H17" s="241"/>
-      <c r="I17" s="242"/>
-      <c r="J17" s="168" t="s">
-        <v>157</v>
       </c>
       <c r="K17" s="172"/>
       <c r="L17" s="173">
@@ -7766,43 +7764,43 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="243" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="246" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="247"/>
-      <c r="D18" s="247"/>
-      <c r="E18" s="247"/>
-      <c r="F18" s="247"/>
-      <c r="G18" s="247"/>
-      <c r="H18" s="247"/>
-      <c r="I18" s="247"/>
+      <c r="A18" s="240" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="242" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="243"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="243"/>
+      <c r="F18" s="243"/>
+      <c r="G18" s="243"/>
+      <c r="H18" s="243"/>
+      <c r="I18" s="243"/>
       <c r="J18" s="100" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K18" s="156"/>
       <c r="L18" s="101">
-        <f>K18*0.2</f>
+        <f>K18*0.1</f>
         <v>0</v>
       </c>
       <c r="M18" s="102"/>
     </row>
     <row r="19" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="244"/>
-      <c r="B19" s="246" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="247"/>
-      <c r="D19" s="247"/>
-      <c r="E19" s="247"/>
-      <c r="F19" s="247"/>
-      <c r="G19" s="247"/>
-      <c r="H19" s="247"/>
-      <c r="I19" s="247"/>
+      <c r="A19" s="253"/>
+      <c r="B19" s="242" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="243"/>
+      <c r="D19" s="243"/>
+      <c r="E19" s="243"/>
+      <c r="F19" s="243"/>
+      <c r="G19" s="243"/>
+      <c r="H19" s="243"/>
+      <c r="I19" s="243"/>
       <c r="J19" s="103" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K19" s="157"/>
       <c r="L19" s="104">
@@ -7812,47 +7810,47 @@
       <c r="M19" s="102"/>
     </row>
     <row r="20" spans="1:13" ht="58.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="243" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="248" t="s">
+      <c r="A20" s="240" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="244" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="245"/>
+      <c r="D20" s="245"/>
+      <c r="E20" s="245"/>
+      <c r="F20" s="245"/>
+      <c r="G20" s="245"/>
+      <c r="H20" s="245"/>
+      <c r="I20" s="246"/>
+      <c r="J20" s="100" t="s">
         <v>160</v>
-      </c>
-      <c r="C20" s="249"/>
-      <c r="D20" s="249"/>
-      <c r="E20" s="249"/>
-      <c r="F20" s="249"/>
-      <c r="G20" s="249"/>
-      <c r="H20" s="249"/>
-      <c r="I20" s="250"/>
-      <c r="J20" s="100" t="s">
-        <v>164</v>
       </c>
       <c r="K20" s="158"/>
       <c r="L20" s="105">
-        <f>K20*0.25</f>
+        <f>K20*0.3</f>
         <v>0</v>
       </c>
       <c r="M20" s="102"/>
     </row>
     <row r="21" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="245"/>
-      <c r="B21" s="251" t="s">
+      <c r="A21" s="241"/>
+      <c r="B21" s="247" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="248"/>
+      <c r="D21" s="248"/>
+      <c r="E21" s="248"/>
+      <c r="F21" s="248"/>
+      <c r="G21" s="248"/>
+      <c r="H21" s="248"/>
+      <c r="I21" s="249"/>
+      <c r="J21" s="106" t="s">
         <v>161</v>
-      </c>
-      <c r="C21" s="252"/>
-      <c r="D21" s="252"/>
-      <c r="E21" s="252"/>
-      <c r="F21" s="252"/>
-      <c r="G21" s="252"/>
-      <c r="H21" s="252"/>
-      <c r="I21" s="253"/>
-      <c r="J21" s="106" t="s">
-        <v>165</v>
       </c>
       <c r="K21" s="159"/>
       <c r="L21" s="107">
-        <f>K21*0.25</f>
+        <f>K21*0.3</f>
         <v>0</v>
       </c>
       <c r="M21" s="102"/>
@@ -7889,7 +7887,7 @@
     </row>
     <row r="26" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I26" s="71" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J26" s="98"/>
       <c r="K26" s="98"/>
@@ -7916,6 +7914,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
@@ -7927,23 +7935,13 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G
 &amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
-    <oddFooter>&amp;R&amp;8 2024-01-28</oddFooter>
+    <oddFooter>&amp;R&amp;8 2025-03-16</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -7959,15 +7957,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8033,6 +8022,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
   <ds:schemaRefs>
@@ -8049,14 +8047,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8071,4 +8061,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall)_mer_an_6_deltagar.xlsx
+++ b/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall)_mer_an_6_deltagar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9A9C3D-F25C-4B13-BF6D-947B60CAAD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A9E596-1FE1-4FF6-8AE5-529AC0425079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="81480" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Lag kür tekn junior" sheetId="6" r:id="rId7"/>
     <sheet name="Lag kür tekn sr" sheetId="20" r:id="rId8"/>
     <sheet name="Lag kür art" sheetId="21" r:id="rId9"/>
+    <sheet name="Lag kür art senior" sheetId="30" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="bord" localSheetId="1">'Häst_old, lag'!$K$3</definedName>
@@ -29,6 +30,7 @@
     <definedName name="bord" localSheetId="3">'Lag grund B'!$T$3</definedName>
     <definedName name="bord" localSheetId="4">'Lag grund D'!$U$3</definedName>
     <definedName name="bord" localSheetId="8">'Lag kür art'!$L$3</definedName>
+    <definedName name="bord" localSheetId="9">'Lag kür art senior'!$L$3</definedName>
     <definedName name="bord" localSheetId="6">'Lag kür tekn junior'!$L$3</definedName>
     <definedName name="bord" localSheetId="5">'Lag kür tekn mellan'!$L$3</definedName>
     <definedName name="bord" localSheetId="7">'Lag kür tekn sr'!$L$3</definedName>
@@ -37,6 +39,7 @@
     <definedName name="datum" localSheetId="3">'Lag grund B'!$C$4</definedName>
     <definedName name="datum" localSheetId="4">'Lag grund D'!$C$4</definedName>
     <definedName name="datum" localSheetId="8">'Lag kür art'!$C$4</definedName>
+    <definedName name="datum" localSheetId="9">'Lag kür art senior'!$C$4</definedName>
     <definedName name="datum" localSheetId="6">'Lag kür tekn junior'!$C$4</definedName>
     <definedName name="datum" localSheetId="5">'Lag kür tekn mellan'!$C$4</definedName>
     <definedName name="datum" localSheetId="7">'Lag kür tekn sr'!$C$4</definedName>
@@ -45,6 +48,7 @@
     <definedName name="domare" localSheetId="3">'Lag grund B'!$C$32</definedName>
     <definedName name="domare" localSheetId="4">'Lag grund D'!$C$33</definedName>
     <definedName name="domare" localSheetId="8">'Lag kür art'!$C$29</definedName>
+    <definedName name="domare" localSheetId="9">'Lag kür art senior'!$C$29</definedName>
     <definedName name="domare" localSheetId="6">'Lag kür tekn junior'!$C$45</definedName>
     <definedName name="domare" localSheetId="5">'Lag kür tekn mellan'!$C$45</definedName>
     <definedName name="domare" localSheetId="7">'Lag kür tekn sr'!$C$45</definedName>
@@ -53,6 +57,7 @@
     <definedName name="firstvaulter" localSheetId="3">'Lag grund B'!$L$3</definedName>
     <definedName name="firstvaulter" localSheetId="4">'Lag grund D'!$L$3</definedName>
     <definedName name="firstvaulter" localSheetId="8">'Lag kür art'!$I$7</definedName>
+    <definedName name="firstvaulter" localSheetId="9">'Lag kür art senior'!$I$7</definedName>
     <definedName name="firstvaulter" localSheetId="6">'Lag kür tekn junior'!$I$7</definedName>
     <definedName name="firstvaulter" localSheetId="5">'Lag kür tekn mellan'!$I$7</definedName>
     <definedName name="firstvaulter" localSheetId="7">'Lag kür tekn sr'!$I$7</definedName>
@@ -61,6 +66,7 @@
     <definedName name="id" localSheetId="3">'Lag grund B'!$U$1</definedName>
     <definedName name="id" localSheetId="4">'Lag grund D'!$U$1</definedName>
     <definedName name="id" localSheetId="8">'Lag kür art'!$U$1</definedName>
+    <definedName name="id" localSheetId="9">'Lag kür art senior'!$U$1</definedName>
     <definedName name="id" localSheetId="6">'Lag kür tekn junior'!$U$1</definedName>
     <definedName name="id" localSheetId="5">'Lag kür tekn mellan'!$U$1</definedName>
     <definedName name="id" localSheetId="7">'Lag kür tekn sr'!$U$1</definedName>
@@ -69,6 +75,7 @@
     <definedName name="klass" localSheetId="3">'Lag grund B'!$T$4</definedName>
     <definedName name="klass" localSheetId="4">'Lag grund D'!$U$4</definedName>
     <definedName name="klass" localSheetId="8">'Lag kür art'!$L$4</definedName>
+    <definedName name="klass" localSheetId="9">'Lag kür art senior'!$L$4</definedName>
     <definedName name="klass" localSheetId="6">'Lag kür tekn junior'!$L$4</definedName>
     <definedName name="klass" localSheetId="5">'Lag kür tekn mellan'!$L$4</definedName>
     <definedName name="klass" localSheetId="7">'Lag kür tekn sr'!$L$4</definedName>
@@ -77,6 +84,7 @@
     <definedName name="moment" localSheetId="3">'Lag grund B'!$T$5</definedName>
     <definedName name="moment" localSheetId="4">'Lag grund D'!$U$5</definedName>
     <definedName name="moment" localSheetId="8">'Lag kür art'!$L$5</definedName>
+    <definedName name="moment" localSheetId="9">'Lag kür art senior'!$L$5</definedName>
     <definedName name="moment" localSheetId="6">'Lag kür tekn junior'!$L$5</definedName>
     <definedName name="moment" localSheetId="5">'Lag kür tekn mellan'!$L$5</definedName>
     <definedName name="moment" localSheetId="7">'Lag kür tekn sr'!$L$5</definedName>
@@ -85,6 +93,7 @@
     <definedName name="result" localSheetId="3">'Lag grund B'!$O$29</definedName>
     <definedName name="result" localSheetId="4">'Lag grund D'!$O$29</definedName>
     <definedName name="result" localSheetId="8">'Lag kür art'!$L$26</definedName>
+    <definedName name="result" localSheetId="9">'Lag kür art senior'!$L$26</definedName>
     <definedName name="result" localSheetId="6">'Lag kür tekn junior'!$L$37</definedName>
     <definedName name="result" localSheetId="5">'Lag kür tekn mellan'!$L$37</definedName>
     <definedName name="result" localSheetId="7">'Lag kür tekn sr'!$L$38</definedName>
@@ -104,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="169">
   <si>
     <t>1)</t>
   </si>
@@ -766,6 +775,18 @@
   </si>
   <si>
     <t>KOREOGRAFI</t>
+  </si>
+  <si>
+    <t>C1
+20%</t>
+  </si>
+  <si>
+    <t>C3
+25%</t>
+  </si>
+  <si>
+    <t>C4
+25%</t>
   </si>
 </sst>
 </file>
@@ -2084,103 +2105,11 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2190,12 +2119,23 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="169" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2211,38 +2151,119 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -2276,9 +2297,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2305,18 +2338,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3484,6 +3505,434 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4109E7A-CDBD-4D3F-84FF-A794049A59B1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A11" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.86328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="1"/>
+    <col min="3" max="3" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.73046875" style="1" customWidth="1"/>
+    <col min="5" max="7" width="7.265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.73046875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.73046875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.265625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="161"/>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="128"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="H7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
+      <c r="H8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="174"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="181"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="H9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="174"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="181"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="H10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="174"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="181"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="174"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="181"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="14"/>
+      <c r="H12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="174"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="181"/>
+    </row>
+    <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="14"/>
+      <c r="H13" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="174"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="174"/>
+    </row>
+    <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="14"/>
+      <c r="H14" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="174"/>
+    </row>
+    <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="14"/>
+      <c r="H15" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="174"/>
+    </row>
+    <row r="16" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="164" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="171" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="240" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="241"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="241"/>
+      <c r="F17" s="241"/>
+      <c r="G17" s="241"/>
+      <c r="H17" s="241"/>
+      <c r="I17" s="242"/>
+      <c r="J17" s="168" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" s="172"/>
+      <c r="L17" s="173">
+        <f>K17*0.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="243" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="246" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="247"/>
+      <c r="D18" s="247"/>
+      <c r="E18" s="247"/>
+      <c r="F18" s="247"/>
+      <c r="G18" s="247"/>
+      <c r="H18" s="247"/>
+      <c r="I18" s="247"/>
+      <c r="J18" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" s="156"/>
+      <c r="L18" s="101">
+        <f>K18*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="102"/>
+    </row>
+    <row r="19" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="244"/>
+      <c r="B19" s="246" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="247"/>
+      <c r="D19" s="247"/>
+      <c r="E19" s="247"/>
+      <c r="F19" s="247"/>
+      <c r="G19" s="247"/>
+      <c r="H19" s="247"/>
+      <c r="I19" s="247"/>
+      <c r="J19" s="103" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="157"/>
+      <c r="L19" s="104">
+        <f>K19*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="102"/>
+    </row>
+    <row r="20" spans="1:13" ht="58.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="243" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="248" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="249"/>
+      <c r="D20" s="249"/>
+      <c r="E20" s="249"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="249"/>
+      <c r="H20" s="249"/>
+      <c r="I20" s="250"/>
+      <c r="J20" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" s="158"/>
+      <c r="L20" s="105">
+        <f>K20*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="102"/>
+    </row>
+    <row r="21" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="245"/>
+      <c r="B21" s="251" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="252"/>
+      <c r="D21" s="252"/>
+      <c r="E21" s="252"/>
+      <c r="F21" s="252"/>
+      <c r="G21" s="252"/>
+      <c r="H21" s="252"/>
+      <c r="I21" s="253"/>
+      <c r="J21" s="106" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21" s="159"/>
+      <c r="L21" s="107">
+        <f>K21*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="102"/>
+    </row>
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="108">
+        <f>SUM(L18:L21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="90"/>
+    </row>
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="83"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="160"/>
+    </row>
+    <row r="25" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L25" s="90"/>
+    </row>
+    <row r="26" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I26" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="99">
+        <f>SUM(L17:L21)-L24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="H29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+  </mergeCells>
+  <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;G
+&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
+    <oddFooter>&amp;R&amp;8 2025-03-16</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K31"/>
@@ -3555,9 +4004,9 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
       <c r="G5" s="9"/>
       <c r="H5" s="13" t="s">
         <v>12</v>
@@ -3571,9 +4020,9 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
@@ -3589,77 +4038,77 @@
       <c r="G7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="199"/>
-      <c r="I7" s="208"/>
-      <c r="J7" s="208"/>
-      <c r="K7" s="209"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="177"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
       <c r="G8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="200"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="201"/>
-      <c r="K8" s="202"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="181"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
       <c r="G9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="200"/>
-      <c r="I9" s="201"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="202"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="181"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
       <c r="G10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="200"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="202"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="181"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="200"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="202"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="181"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="G12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="200"/>
-      <c r="I12" s="201"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="202"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="181"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
@@ -3670,44 +4119,44 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="203" t="s">
+      <c r="G14" s="192" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="204"/>
-      <c r="I14" s="205" t="s">
+      <c r="H14" s="193"/>
+      <c r="I14" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="206"/>
-      <c r="K14" s="207"/>
+      <c r="J14" s="195"/>
+      <c r="K14" s="196"/>
     </row>
     <row r="15" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="190" t="s">
+      <c r="B15" s="200" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="190" t="s">
+      <c r="C15" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="190"/>
-      <c r="E15" s="193" t="s">
+      <c r="D15" s="200"/>
+      <c r="E15" s="201" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="194"/>
+      <c r="F15" s="202"/>
       <c r="G15" s="44"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="182" t="s">
+      <c r="I15" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="214"/>
-      <c r="K15" s="212">
+      <c r="J15" s="187"/>
+      <c r="K15" s="182">
         <f>ROUND(J15*0.3,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="177"/>
+      <c r="A16" s="198"/>
       <c r="B16" s="184"/>
       <c r="C16" s="184" t="s">
         <v>22</v>
@@ -3719,12 +4168,12 @@
       <c r="F16" s="186"/>
       <c r="G16" s="46"/>
       <c r="H16" s="47"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="215"/>
-      <c r="K16" s="213"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="183"/>
     </row>
     <row r="17" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="177"/>
+      <c r="A17" s="198"/>
       <c r="B17" s="184"/>
       <c r="C17" s="184" t="s">
         <v>21</v>
@@ -3736,13 +4185,13 @@
       <c r="F17" s="186"/>
       <c r="G17" s="48"/>
       <c r="H17" s="49"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="215"/>
-      <c r="K17" s="213"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="183"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="177"/>
-      <c r="B18" s="195" t="s">
+      <c r="A18" s="198"/>
+      <c r="B18" s="205" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="184" t="s">
@@ -3755,18 +4204,18 @@
       <c r="F18" s="186"/>
       <c r="G18" s="50"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="183" t="s">
+      <c r="I18" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="215"/>
-      <c r="K18" s="213">
+      <c r="J18" s="188"/>
+      <c r="K18" s="183">
         <f>ROUND(J18*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="177"/>
-      <c r="B19" s="196"/>
+      <c r="A19" s="198"/>
+      <c r="B19" s="206"/>
       <c r="C19" s="184" t="s">
         <v>23</v>
       </c>
@@ -3777,56 +4226,56 @@
       <c r="F19" s="186"/>
       <c r="G19" s="46"/>
       <c r="H19" s="47"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="215"/>
-      <c r="K19" s="213"/>
+      <c r="I19" s="204"/>
+      <c r="J19" s="188"/>
+      <c r="K19" s="183"/>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="178"/>
-      <c r="B20" s="197"/>
-      <c r="C20" s="187" t="s">
+      <c r="A20" s="199"/>
+      <c r="B20" s="207"/>
+      <c r="C20" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="187"/>
-      <c r="E20" s="188" t="s">
+      <c r="D20" s="209"/>
+      <c r="E20" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="189"/>
+      <c r="F20" s="211"/>
       <c r="G20" s="52"/>
       <c r="H20" s="53"/>
-      <c r="I20" s="198"/>
-      <c r="J20" s="216"/>
-      <c r="K20" s="217"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="189"/>
+      <c r="K20" s="190"/>
     </row>
     <row r="21" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="176" t="s">
+      <c r="A21" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="179" t="s">
+      <c r="B21" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="190" t="s">
+      <c r="C21" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="190"/>
-      <c r="E21" s="191" t="s">
+      <c r="D21" s="200"/>
+      <c r="E21" s="217" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="192"/>
+      <c r="F21" s="218"/>
       <c r="G21" s="54"/>
       <c r="H21" s="55"/>
-      <c r="I21" s="182" t="s">
+      <c r="I21" s="203" t="s">
         <v>91</v>
       </c>
-      <c r="J21" s="214"/>
-      <c r="K21" s="212">
+      <c r="J21" s="187"/>
+      <c r="K21" s="182">
         <f>ROUND(J21*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="177"/>
-      <c r="B22" s="180"/>
+      <c r="A22" s="198"/>
+      <c r="B22" s="215"/>
       <c r="C22" s="184" t="s">
         <v>26</v>
       </c>
@@ -3837,13 +4286,13 @@
       <c r="F22" s="186"/>
       <c r="G22" s="46"/>
       <c r="H22" s="47"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="215"/>
-      <c r="K22" s="213"/>
+      <c r="I22" s="204"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="183"/>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="177"/>
-      <c r="B23" s="181"/>
+      <c r="A23" s="198"/>
+      <c r="B23" s="216"/>
       <c r="C23" s="184" t="s">
         <v>27</v>
       </c>
@@ -3854,21 +4303,21 @@
       <c r="F23" s="186"/>
       <c r="G23" s="48"/>
       <c r="H23" s="49"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="215"/>
-      <c r="K23" s="213"/>
+      <c r="I23" s="204"/>
+      <c r="J23" s="188"/>
+      <c r="K23" s="183"/>
     </row>
     <row r="24" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="178"/>
+      <c r="A24" s="199"/>
       <c r="B24" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="187"/>
-      <c r="D24" s="187"/>
-      <c r="E24" s="188" t="s">
+      <c r="C24" s="209"/>
+      <c r="D24" s="209"/>
+      <c r="E24" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="189"/>
+      <c r="F24" s="211"/>
       <c r="G24" s="57"/>
       <c r="H24" s="58"/>
       <c r="I24" s="59" t="s">
@@ -3887,14 +4336,14 @@
       <c r="B25" s="133" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="218" t="s">
+      <c r="C25" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="218"/>
-      <c r="E25" s="174" t="s">
+      <c r="D25" s="191"/>
+      <c r="E25" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="175"/>
+      <c r="F25" s="213"/>
       <c r="G25" s="61"/>
       <c r="H25" s="62"/>
       <c r="I25" s="63" t="s">
@@ -3931,11 +4380,11 @@
         <v>11</v>
       </c>
       <c r="I27" s="67"/>
-      <c r="J27" s="210">
+      <c r="J27" s="178">
         <f>SUM(K15:K25)</f>
         <v>0</v>
       </c>
-      <c r="K27" s="211"/>
+      <c r="K27" s="179"/>
     </row>
     <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
@@ -3956,6 +4405,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="C6:E6"/>
@@ -3972,40 +4455,6 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="J21:J23"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4073,10 +4522,10 @@
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="219"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="228"/>
       <c r="R3" s="9"/>
       <c r="S3" s="13" t="s">
         <v>90</v>
@@ -4101,10 +4550,10 @@
       <c r="K4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200"/>
-      <c r="N4" s="200"/>
-      <c r="O4" s="220"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="229"/>
       <c r="R4" s="9"/>
       <c r="S4" s="13" t="s">
         <v>83</v>
@@ -4118,10 +4567,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
       <c r="J5" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4129,10 +4578,10 @@
       <c r="K5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="200"/>
-      <c r="M5" s="201"/>
-      <c r="N5" s="201"/>
-      <c r="O5" s="202"/>
+      <c r="L5" s="174"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="181"/>
       <c r="R5" s="9"/>
       <c r="S5" s="13" t="s">
         <v>12</v>
@@ -4146,10 +4595,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
       <c r="J6" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4157,10 +4606,10 @@
       <c r="K6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="200"/>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201"/>
-      <c r="O6" s="202"/>
+      <c r="L6" s="174"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="181"/>
     </row>
     <row r="7" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
@@ -4178,20 +4627,20 @@
       <c r="K7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="200"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="202"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="181"/>
     </row>
     <row r="8" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
       <c r="J8" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4199,20 +4648,20 @@
       <c r="K8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="200"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="201"/>
-      <c r="O8" s="202"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="180"/>
+      <c r="N8" s="180"/>
+      <c r="O8" s="181"/>
     </row>
     <row r="9" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
       <c r="J9" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4220,20 +4669,20 @@
       <c r="K9" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="L9" s="200"/>
-      <c r="M9" s="201"/>
-      <c r="N9" s="201"/>
-      <c r="O9" s="202"/>
+      <c r="L9" s="174"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="181"/>
     </row>
     <row r="10" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
       <c r="J10" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4241,10 +4690,10 @@
       <c r="K10" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="L10" s="200"/>
-      <c r="M10" s="201"/>
-      <c r="N10" s="201"/>
-      <c r="O10" s="202"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="181"/>
     </row>
     <row r="11" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J11" s="165" t="str">
@@ -4254,10 +4703,10 @@
       <c r="K11" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="L11" s="200"/>
-      <c r="M11" s="201"/>
-      <c r="N11" s="201"/>
-      <c r="O11" s="202"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="181"/>
     </row>
     <row r="12" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4297,12 +4746,12 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="223"/>
-      <c r="B15" s="224" t="s">
+      <c r="A15" s="219"/>
+      <c r="B15" s="220" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="225"/>
-      <c r="D15" s="225"/>
+      <c r="C15" s="221"/>
+      <c r="D15" s="221"/>
       <c r="E15" s="18"/>
       <c r="F15" s="153"/>
       <c r="G15" s="153"/>
@@ -4321,12 +4770,12 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="223"/>
-      <c r="B16" s="226" t="s">
+      <c r="A16" s="219"/>
+      <c r="B16" s="222" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="225"/>
-      <c r="D16" s="225"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
       <c r="E16" s="18"/>
       <c r="F16" s="153"/>
       <c r="G16" s="153"/>
@@ -4345,11 +4794,11 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="226" t="s">
+      <c r="B17" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="225"/>
-      <c r="D17" s="225"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
       <c r="E17" s="18"/>
       <c r="F17" s="153"/>
       <c r="G17" s="153"/>
@@ -4368,11 +4817,11 @@
       </c>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="221" t="s">
+      <c r="B18" s="226" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="222"/>
-      <c r="D18" s="222"/>
+      <c r="C18" s="227"/>
+      <c r="D18" s="227"/>
       <c r="E18" s="18"/>
       <c r="F18" s="153"/>
       <c r="G18" s="153"/>
@@ -4391,11 +4840,11 @@
       </c>
     </row>
     <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="226" t="s">
+      <c r="B19" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="225"/>
-      <c r="D19" s="225"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="221"/>
       <c r="E19" s="20"/>
       <c r="F19" s="153"/>
       <c r="G19" s="153"/>
@@ -4460,12 +4909,12 @@
       </c>
     </row>
     <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="223" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="228"/>
-      <c r="D22" s="228"/>
-      <c r="E22" s="229"/>
+      <c r="C22" s="224"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="225"/>
       <c r="F22" s="153"/>
       <c r="G22" s="153"/>
       <c r="H22" s="153"/>
@@ -4601,18 +5050,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C6:F6"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="L9:O9"/>
@@ -4622,6 +5059,18 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="L7:O7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
@@ -4734,10 +5183,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
       <c r="J5" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4762,10 +5211,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
       <c r="J6" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4804,10 +5253,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
       <c r="J8" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4825,10 +5274,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
       <c r="J9" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4846,10 +5295,10 @@
         <v>86</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
       <c r="J10" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4915,12 +5364,12 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="223"/>
-      <c r="B15" s="224" t="s">
+      <c r="A15" s="219"/>
+      <c r="B15" s="220" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="225"/>
-      <c r="D15" s="225"/>
+      <c r="C15" s="221"/>
+      <c r="D15" s="221"/>
       <c r="E15" s="18"/>
       <c r="F15" s="153"/>
       <c r="G15" s="153"/>
@@ -4941,12 +5390,12 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="223"/>
-      <c r="B16" s="226" t="s">
+      <c r="A16" s="219"/>
+      <c r="B16" s="222" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="225"/>
-      <c r="D16" s="225"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
       <c r="E16" s="18"/>
       <c r="F16" s="153"/>
       <c r="G16" s="153"/>
@@ -4965,11 +5414,11 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="226" t="s">
+      <c r="B17" s="222" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="225"/>
-      <c r="D17" s="225"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
       <c r="E17" s="18"/>
       <c r="F17" s="153"/>
       <c r="G17" s="153"/>
@@ -4989,8 +5438,8 @@
       <c r="B18" s="230" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="225"/>
-      <c r="D18" s="225"/>
+      <c r="C18" s="221"/>
+      <c r="D18" s="221"/>
       <c r="E18" s="18"/>
       <c r="F18" s="153"/>
       <c r="G18" s="153"/>
@@ -5007,11 +5456,11 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="221" t="s">
+      <c r="B19" s="226" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="222"/>
-      <c r="D19" s="222"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="227"/>
       <c r="E19" s="20"/>
       <c r="F19" s="153"/>
       <c r="G19" s="153"/>
@@ -5028,11 +5477,11 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="226" t="s">
+      <c r="B20" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="225"/>
-      <c r="D20" s="225"/>
+      <c r="C20" s="221"/>
+      <c r="D20" s="221"/>
       <c r="E20" s="18"/>
       <c r="F20" s="153"/>
       <c r="G20" s="153"/>
@@ -5214,11 +5663,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B22:E22"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="A15:A16"/>
@@ -5227,6 +5671,11 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
@@ -5294,10 +5743,10 @@
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="13" t="s">
         <v>90</v>
@@ -5322,10 +5771,10 @@
       <c r="K4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200"/>
-      <c r="N4" s="200"/>
-      <c r="O4" s="200"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="174"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="13" t="s">
         <v>83</v>
@@ -5339,10 +5788,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
       <c r="J5" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5350,10 +5799,10 @@
       <c r="K5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="200"/>
-      <c r="M5" s="201"/>
-      <c r="N5" s="201"/>
-      <c r="O5" s="201"/>
+      <c r="L5" s="174"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="180"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="13" t="s">
         <v>12</v>
@@ -5367,10 +5816,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
       <c r="J6" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5378,10 +5827,10 @@
       <c r="K6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="200"/>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201"/>
-      <c r="O6" s="201"/>
+      <c r="L6" s="174"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="180"/>
     </row>
     <row r="7" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
@@ -5399,20 +5848,20 @@
       <c r="K7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="200"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
     </row>
     <row r="8" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
       <c r="J8" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5420,20 +5869,20 @@
       <c r="K8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="200"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="201"/>
-      <c r="O8" s="201"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="180"/>
+      <c r="N8" s="180"/>
+      <c r="O8" s="180"/>
     </row>
     <row r="9" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
       <c r="J9" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5441,20 +5890,20 @@
       <c r="K9" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="L9" s="200"/>
-      <c r="M9" s="201"/>
-      <c r="N9" s="201"/>
-      <c r="O9" s="201"/>
+      <c r="L9" s="174"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="180"/>
     </row>
     <row r="10" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
       <c r="J10" s="165" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5462,10 +5911,10 @@
       <c r="K10" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="L10" s="200"/>
-      <c r="M10" s="201"/>
-      <c r="N10" s="201"/>
-      <c r="O10" s="201"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="180"/>
     </row>
     <row r="11" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J11" s="165" t="str">
@@ -5475,10 +5924,10 @@
       <c r="K11" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="L11" s="200"/>
-      <c r="M11" s="201"/>
-      <c r="N11" s="201"/>
-      <c r="O11" s="201"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="180"/>
     </row>
     <row r="12" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
@@ -5527,12 +5976,12 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="223"/>
-      <c r="B16" s="224" t="s">
+      <c r="A16" s="219"/>
+      <c r="B16" s="220" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="225"/>
-      <c r="D16" s="225"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
       <c r="E16" s="18"/>
       <c r="F16" s="153"/>
       <c r="G16" s="153"/>
@@ -5549,12 +5998,12 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="223"/>
-      <c r="B17" s="226" t="s">
+      <c r="A17" s="219"/>
+      <c r="B17" s="222" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="225"/>
-      <c r="D17" s="225"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
       <c r="E17" s="18"/>
       <c r="F17" s="153"/>
       <c r="G17" s="153"/>
@@ -5571,11 +6020,11 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="226" t="s">
+      <c r="B18" s="222" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="225"/>
-      <c r="D18" s="225"/>
+      <c r="C18" s="221"/>
+      <c r="D18" s="221"/>
       <c r="E18" s="18"/>
       <c r="F18" s="153"/>
       <c r="G18" s="153"/>
@@ -5595,8 +6044,8 @@
       <c r="B19" s="230" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="225"/>
-      <c r="D19" s="225"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="221"/>
       <c r="E19" s="18"/>
       <c r="F19" s="153"/>
       <c r="G19" s="153"/>
@@ -5613,11 +6062,11 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="226" t="s">
+      <c r="B20" s="222" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="225"/>
-      <c r="D20" s="225"/>
+      <c r="C20" s="221"/>
+      <c r="D20" s="221"/>
       <c r="E20" s="233"/>
       <c r="F20" s="153"/>
       <c r="G20" s="153"/>
@@ -5634,11 +6083,11 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="226" t="s">
+      <c r="B21" s="222" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="225"/>
-      <c r="D21" s="225"/>
+      <c r="C21" s="221"/>
+      <c r="D21" s="221"/>
       <c r="E21" s="18"/>
       <c r="F21" s="153"/>
       <c r="G21" s="153"/>
@@ -5655,12 +6104,12 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="223" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="228"/>
-      <c r="D22" s="228"/>
-      <c r="E22" s="229"/>
+      <c r="C22" s="224"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="225"/>
       <c r="F22" s="153"/>
       <c r="G22" s="153"/>
       <c r="H22" s="153"/>
@@ -5823,12 +6272,14 @@
     <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="A16:A17"/>
@@ -5837,14 +6288,12 @@
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
@@ -5935,10 +6384,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>12</v>
@@ -5952,10 +6401,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
@@ -5972,106 +6421,106 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="199"/>
-      <c r="J7" s="208"/>
-      <c r="K7" s="208"/>
-      <c r="L7" s="209"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="200"/>
-      <c r="J8" s="201"/>
-      <c r="K8" s="201"/>
-      <c r="L8" s="202"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="181"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="200"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
-      <c r="L9" s="202"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="181"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="200"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="202"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="181"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="200"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="202"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="181"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="200"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="201"/>
-      <c r="L12" s="202"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="181"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="I13" s="200"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="201"/>
-      <c r="L13" s="202"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="181"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="200"/>
-      <c r="J14" s="201"/>
-      <c r="K14" s="201"/>
-      <c r="L14" s="202"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="181"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="I15" s="200"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="202"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="181"/>
     </row>
     <row r="16" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="3"/>
@@ -6454,10 +6903,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>12</v>
@@ -6471,10 +6920,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
@@ -6491,70 +6940,70 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="199"/>
-      <c r="J7" s="208"/>
-      <c r="K7" s="208"/>
-      <c r="L7" s="209"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="200"/>
-      <c r="J8" s="201"/>
-      <c r="K8" s="201"/>
-      <c r="L8" s="202"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="181"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="200"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
-      <c r="L9" s="202"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="181"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="200"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="202"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="181"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="200"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="202"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="181"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
@@ -6907,17 +7356,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A18:L19"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I10:L10"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A18:L19"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I10:L10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
@@ -7005,10 +7454,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>12</v>
@@ -7022,10 +7471,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
@@ -7042,106 +7491,106 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="199"/>
-      <c r="J7" s="208"/>
-      <c r="K7" s="208"/>
-      <c r="L7" s="209"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="200"/>
-      <c r="J8" s="201"/>
-      <c r="K8" s="201"/>
-      <c r="L8" s="202"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="181"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="200"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
-      <c r="L9" s="202"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="181"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="200"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="202"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="181"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="200"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="202"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="181"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="200"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="201"/>
-      <c r="L12" s="202"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="181"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="I13" s="200"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="201"/>
-      <c r="L13" s="202"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="181"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="200"/>
-      <c r="J14" s="201"/>
-      <c r="K14" s="201"/>
-      <c r="L14" s="202"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="181"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="I15" s="200"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="202"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="181"/>
     </row>
     <row r="16" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="3"/>
@@ -7526,7 +7975,7 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -7593,10 +8042,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>12</v>
@@ -7610,10 +8059,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
@@ -7630,110 +8079,110 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="199"/>
-      <c r="J7" s="208"/>
-      <c r="K7" s="208"/>
-      <c r="L7" s="209"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="200"/>
-      <c r="J8" s="201"/>
-      <c r="K8" s="201"/>
-      <c r="L8" s="202"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="181"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="200"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
-      <c r="L9" s="202"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="181"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="200"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="202"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="181"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="200"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="202"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="181"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="200"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="201"/>
-      <c r="L12" s="202"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="181"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
       <c r="H13" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="I13" s="200"/>
-      <c r="J13" s="200"/>
-      <c r="K13" s="200"/>
-      <c r="L13" s="200"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="174"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14"/>
       <c r="H14" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="200"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="200"/>
-      <c r="L14" s="200"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="174"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14"/>
       <c r="H15" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="200"/>
-      <c r="L15" s="200"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="174"/>
     </row>
     <row r="16" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K16" s="164" t="s">
@@ -7744,16 +8193,16 @@
       <c r="A17" s="171" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="250" t="s">
+      <c r="B17" s="240" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="251"/>
-      <c r="D17" s="251"/>
-      <c r="E17" s="251"/>
-      <c r="F17" s="251"/>
-      <c r="G17" s="251"/>
-      <c r="H17" s="251"/>
-      <c r="I17" s="252"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="241"/>
+      <c r="F17" s="241"/>
+      <c r="G17" s="241"/>
+      <c r="H17" s="241"/>
+      <c r="I17" s="242"/>
       <c r="J17" s="168" t="s">
         <v>155</v>
       </c>
@@ -7764,41 +8213,41 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="240" t="s">
+      <c r="A18" s="243" t="s">
         <v>164</v>
       </c>
-      <c r="B18" s="242" t="s">
+      <c r="B18" s="246" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="243"/>
-      <c r="D18" s="243"/>
-      <c r="E18" s="243"/>
-      <c r="F18" s="243"/>
-      <c r="G18" s="243"/>
-      <c r="H18" s="243"/>
-      <c r="I18" s="243"/>
+      <c r="C18" s="247"/>
+      <c r="D18" s="247"/>
+      <c r="E18" s="247"/>
+      <c r="F18" s="247"/>
+      <c r="G18" s="247"/>
+      <c r="H18" s="247"/>
+      <c r="I18" s="247"/>
       <c r="J18" s="100" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K18" s="156"/>
       <c r="L18" s="101">
-        <f>K18*0.1</f>
+        <f>K18*0.2</f>
         <v>0</v>
       </c>
       <c r="M18" s="102"/>
     </row>
     <row r="19" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="253"/>
-      <c r="B19" s="242" t="s">
+      <c r="A19" s="244"/>
+      <c r="B19" s="246" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="243"/>
-      <c r="D19" s="243"/>
-      <c r="E19" s="243"/>
-      <c r="F19" s="243"/>
-      <c r="G19" s="243"/>
-      <c r="H19" s="243"/>
-      <c r="I19" s="243"/>
+      <c r="C19" s="247"/>
+      <c r="D19" s="247"/>
+      <c r="E19" s="247"/>
+      <c r="F19" s="247"/>
+      <c r="G19" s="247"/>
+      <c r="H19" s="247"/>
+      <c r="I19" s="247"/>
       <c r="J19" s="103" t="s">
         <v>158</v>
       </c>
@@ -7810,47 +8259,47 @@
       <c r="M19" s="102"/>
     </row>
     <row r="20" spans="1:13" ht="58.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="240" t="s">
+      <c r="A20" s="243" t="s">
         <v>165</v>
       </c>
-      <c r="B20" s="244" t="s">
+      <c r="B20" s="248" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="245"/>
-      <c r="D20" s="245"/>
-      <c r="E20" s="245"/>
-      <c r="F20" s="245"/>
-      <c r="G20" s="245"/>
-      <c r="H20" s="245"/>
-      <c r="I20" s="246"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="249"/>
+      <c r="E20" s="249"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="249"/>
+      <c r="H20" s="249"/>
+      <c r="I20" s="250"/>
       <c r="J20" s="100" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="K20" s="158"/>
       <c r="L20" s="105">
-        <f>K20*0.3</f>
+        <f>K20*0.25</f>
         <v>0</v>
       </c>
       <c r="M20" s="102"/>
     </row>
     <row r="21" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="241"/>
-      <c r="B21" s="247" t="s">
+      <c r="A21" s="245"/>
+      <c r="B21" s="251" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="248"/>
-      <c r="D21" s="248"/>
-      <c r="E21" s="248"/>
-      <c r="F21" s="248"/>
-      <c r="G21" s="248"/>
-      <c r="H21" s="248"/>
-      <c r="I21" s="249"/>
+      <c r="C21" s="252"/>
+      <c r="D21" s="252"/>
+      <c r="E21" s="252"/>
+      <c r="F21" s="252"/>
+      <c r="G21" s="252"/>
+      <c r="H21" s="252"/>
+      <c r="I21" s="253"/>
       <c r="J21" s="106" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K21" s="159"/>
       <c r="L21" s="107">
-        <f>K21*0.3</f>
+        <f>K21*0.25</f>
         <v>0</v>
       </c>
       <c r="M21" s="102"/>
@@ -7914,16 +8363,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
@@ -7935,6 +8374,16 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7948,12 +8397,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8023,25 +8472,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8064,9 +8506,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>